--- a/input/dynamic_data/season_16/forecasting_method/average/improved_hor_8/forecast_point_GW2.xlsx
+++ b/input/dynamic_data/season_16/forecasting_method/average/improved_hor_8/forecast_point_GW2.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.056366273568461</v>
+        <v>3.026105221354912</v>
       </c>
       <c r="C2" t="n">
-        <v>2.718686102659226</v>
+        <v>2.6596563166206693</v>
       </c>
       <c r="D2" t="n">
-        <v>3.056366273568461</v>
+        <v>2.729962192206507</v>
       </c>
       <c r="E2" t="n">
-        <v>2.718686102659226</v>
+        <v>2.959678520996758</v>
       </c>
       <c r="F2" t="n">
-        <v>3.056366273568461</v>
+        <v>2.911741318370463</v>
       </c>
       <c r="G2" t="n">
-        <v>2.718686102659226</v>
+        <v>2.9187449058042536</v>
       </c>
       <c r="H2" t="n">
-        <v>3.056366273568461</v>
+        <v>2.836863106868448</v>
       </c>
       <c r="I2" t="n">
-        <v>2.718686102659226</v>
+        <v>2.609609018893725</v>
       </c>
       <c r="J2" t="n">
-        <v>3.056366273568461</v>
+        <v>2.9453111518320285</v>
       </c>
       <c r="K2" t="n">
-        <v>2.718686102659226</v>
+        <v>2.9632922922771203</v>
       </c>
       <c r="L2" t="n">
-        <v>3.056366273568461</v>
+        <v>2.959678520996758</v>
       </c>
     </row>
     <row r="3">
@@ -445,37 +445,37 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>3.1794256642584027</v>
+        <v>3.1479462022360423</v>
       </c>
       <c r="C10" t="n">
-        <v>3.1423360870835935</v>
+        <v>3.122432922860216</v>
       </c>
       <c r="D10" t="n">
-        <v>3.1794256642584027</v>
+        <v>3.011655088197235</v>
       </c>
       <c r="E10" t="n">
-        <v>3.1423360870835935</v>
+        <v>2.6869004333618185</v>
       </c>
       <c r="F10" t="n">
-        <v>3.1794256642584027</v>
+        <v>2.7428162150285686</v>
       </c>
       <c r="G10" t="n">
-        <v>3.1423360870835935</v>
+        <v>3.0576205176769076</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1794256642584027</v>
+        <v>2.796416756826589</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1423360870835935</v>
+        <v>2.8216238924429304</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1794256642584027</v>
+        <v>2.754885813981793</v>
       </c>
       <c r="K10" t="n">
-        <v>3.1423360870835935</v>
+        <v>3.0262129352284535</v>
       </c>
       <c r="L10" t="n">
-        <v>3.1794256642584027</v>
+        <v>2.6869004333618185</v>
       </c>
     </row>
     <row r="11">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>2.7190655202857292</v>
+        <v>2.7462561754885866</v>
       </c>
       <c r="C13" t="n">
-        <v>2.9731795307393094</v>
+        <v>2.980978923692061</v>
       </c>
       <c r="D13" t="n">
-        <v>2.7190655202857292</v>
+        <v>2.962890461466967</v>
       </c>
       <c r="E13" t="n">
-        <v>2.9731795307393094</v>
+        <v>2.625184665270077</v>
       </c>
       <c r="F13" t="n">
-        <v>2.7190655202857292</v>
+        <v>2.9361656528151823</v>
       </c>
       <c r="G13" t="n">
-        <v>2.9731795307393094</v>
+        <v>2.9773435833478503</v>
       </c>
       <c r="H13" t="n">
-        <v>2.7190655202857292</v>
+        <v>2.9291202639466003</v>
       </c>
       <c r="I13" t="n">
-        <v>2.9731795307393094</v>
+        <v>2.675530674032215</v>
       </c>
       <c r="J13" t="n">
-        <v>2.7190655202857292</v>
+        <v>3.069040525968139</v>
       </c>
       <c r="K13" t="n">
-        <v>2.9731795307393094</v>
+        <v>3.044166756429403</v>
       </c>
       <c r="L13" t="n">
-        <v>2.7190655202857292</v>
+        <v>2.625184665270077</v>
       </c>
     </row>
     <row r="14">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>3.003004504494836</v>
+        <v>2.9738491209560514</v>
       </c>
       <c r="C19" t="n">
-        <v>3.1214113701976824</v>
+        <v>3.085086025542336</v>
       </c>
       <c r="D19" t="n">
-        <v>3.003004504494836</v>
+        <v>3.3177763597087693</v>
       </c>
       <c r="E19" t="n">
-        <v>3.1214113701976824</v>
+        <v>2.8923738037572946</v>
       </c>
       <c r="F19" t="n">
-        <v>3.003004504494836</v>
+        <v>2.837947413403905</v>
       </c>
       <c r="G19" t="n">
-        <v>3.1214113701976824</v>
+        <v>3.20302317492557</v>
       </c>
       <c r="H19" t="n">
-        <v>3.003004504494836</v>
+        <v>3.290886651393031</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1214113701976824</v>
+        <v>3.22257764865966</v>
       </c>
       <c r="J19" t="n">
-        <v>3.003004504494836</v>
+        <v>3.218647675708354</v>
       </c>
       <c r="K19" t="n">
-        <v>3.1214113701976824</v>
+        <v>3.174132406748222</v>
       </c>
       <c r="L19" t="n">
-        <v>3.003004504494836</v>
+        <v>2.8923738037572946</v>
       </c>
     </row>
     <row r="20">
@@ -1053,37 +1053,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>5.51431025623828</v>
+        <v>5.625710463435014</v>
       </c>
       <c r="C26" t="n">
-        <v>5.046453104770863</v>
+        <v>5.158448482008466</v>
       </c>
       <c r="D26" t="n">
-        <v>5.51431025623828</v>
+        <v>5.666501109677851</v>
       </c>
       <c r="E26" t="n">
-        <v>5.046453104770863</v>
+        <v>5.283413712067286</v>
       </c>
       <c r="F26" t="n">
-        <v>5.51431025623828</v>
+        <v>5.2744990678200505</v>
       </c>
       <c r="G26" t="n">
-        <v>5.046453104770863</v>
+        <v>5.697484413194858</v>
       </c>
       <c r="H26" t="n">
-        <v>5.51431025623828</v>
+        <v>5.031147712706891</v>
       </c>
       <c r="I26" t="n">
-        <v>5.046453104770863</v>
+        <v>5.135848487452349</v>
       </c>
       <c r="J26" t="n">
-        <v>5.51431025623828</v>
+        <v>5.23621403874654</v>
       </c>
       <c r="K26" t="n">
-        <v>5.046453104770863</v>
+        <v>5.482802385765405</v>
       </c>
       <c r="L26" t="n">
-        <v>5.51431025623828</v>
+        <v>5.283413712067286</v>
       </c>
     </row>
     <row r="27">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1.6592478813721498</v>
+        <v>1.6765317134697764</v>
       </c>
       <c r="C31" t="n">
-        <v>1.545733178944385</v>
+        <v>1.554687999347219</v>
       </c>
       <c r="D31" t="n">
-        <v>1.6592478813721498</v>
+        <v>1.7204309216897595</v>
       </c>
       <c r="E31" t="n">
-        <v>1.545733178944385</v>
+        <v>1.674497087494105</v>
       </c>
       <c r="F31" t="n">
-        <v>1.6592478813721498</v>
+        <v>1.734488496611713</v>
       </c>
       <c r="G31" t="n">
-        <v>1.545733178944385</v>
+        <v>1.6847199012319338</v>
       </c>
       <c r="H31" t="n">
-        <v>1.6592478813721498</v>
+        <v>1.512093808203052</v>
       </c>
       <c r="I31" t="n">
-        <v>1.545733178944385</v>
+        <v>1.6554116376175823</v>
       </c>
       <c r="J31" t="n">
-        <v>1.6592478813721498</v>
+        <v>1.483640429269356</v>
       </c>
       <c r="K31" t="n">
-        <v>1.545733178944385</v>
+        <v>1.6128411448535487</v>
       </c>
       <c r="L31" t="n">
-        <v>1.6592478813721498</v>
+        <v>1.674497087494105</v>
       </c>
     </row>
     <row r="32">
@@ -1284,34 +1284,34 @@
         <v>1.9286186555709506</v>
       </c>
       <c r="C32" t="n">
-        <v>2.1474856915972995</v>
+        <v>2.135757916685208</v>
       </c>
       <c r="D32" t="n">
-        <v>1.9286186555709506</v>
+        <v>2.1383530054240825</v>
       </c>
       <c r="E32" t="n">
-        <v>2.1474856915972995</v>
+        <v>2.2122746977013974</v>
       </c>
       <c r="F32" t="n">
-        <v>1.9286186555709506</v>
+        <v>2.194344790774006</v>
       </c>
       <c r="G32" t="n">
-        <v>2.1474856915972995</v>
+        <v>1.8923274432613324</v>
       </c>
       <c r="H32" t="n">
-        <v>1.9286186555709506</v>
+        <v>2.146176246312767</v>
       </c>
       <c r="I32" t="n">
-        <v>2.1474856915972995</v>
+        <v>2.1164937142476714</v>
       </c>
       <c r="J32" t="n">
-        <v>1.9286186555709506</v>
+        <v>2.0571180859033467</v>
       </c>
       <c r="K32" t="n">
-        <v>2.1474856915972995</v>
+        <v>2.111415144773743</v>
       </c>
       <c r="L32" t="n">
-        <v>1.9286186555709506</v>
+        <v>2.2122746977013974</v>
       </c>
     </row>
     <row r="33">
@@ -1357,37 +1357,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8048901156563953</v>
+        <v>0.8132743876944828</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8016618997739844</v>
+        <v>0.8093216574016152</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8048901156563953</v>
+        <v>0.7505033506166214</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8016618997739844</v>
+        <v>0.830513371026695</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8048901156563953</v>
+        <v>0.8122825896079546</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8016618997739844</v>
+        <v>0.7991262434671126</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8048901156563953</v>
+        <v>0.837299463853616</v>
       </c>
       <c r="I34" t="n">
-        <v>0.8016618997739844</v>
+        <v>0.7785759481858583</v>
       </c>
       <c r="J34" t="n">
-        <v>0.8048901156563953</v>
+        <v>0.8010483752449077</v>
       </c>
       <c r="K34" t="n">
-        <v>0.8016618997739844</v>
+        <v>0.716206154382397</v>
       </c>
       <c r="L34" t="n">
-        <v>0.8048901156563953</v>
+        <v>0.830513371026695</v>
       </c>
     </row>
     <row r="35">
@@ -1509,37 +1509,37 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>4.420192730155249</v>
+        <v>4.509489552986669</v>
       </c>
       <c r="C38" t="n">
-        <v>4.3642513735594965</v>
+        <v>4.4631685121259554</v>
       </c>
       <c r="D38" t="n">
-        <v>4.420192730155249</v>
+        <v>3.962738137094358</v>
       </c>
       <c r="E38" t="n">
-        <v>4.3642513735594965</v>
+        <v>4.431040127364966</v>
       </c>
       <c r="F38" t="n">
-        <v>4.420192730155249</v>
+        <v>4.317091694605</v>
       </c>
       <c r="G38" t="n">
-        <v>4.3642513735594965</v>
+        <v>4.047421310949871</v>
       </c>
       <c r="H38" t="n">
-        <v>4.420192730155249</v>
+        <v>4.509489552986669</v>
       </c>
       <c r="I38" t="n">
-        <v>4.3642513735594965</v>
+        <v>4.482126148708511</v>
       </c>
       <c r="J38" t="n">
-        <v>4.420192730155249</v>
+        <v>4.605077237065964</v>
       </c>
       <c r="K38" t="n">
-        <v>4.3642513735594965</v>
+        <v>4.642705146135312</v>
       </c>
       <c r="L38" t="n">
-        <v>4.420192730155249</v>
+        <v>4.431040127364966</v>
       </c>
     </row>
     <row r="39">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>3.6261303527857596</v>
+        <v>3.6627579321068273</v>
       </c>
       <c r="C45" t="n">
-        <v>3.836499302632256</v>
+        <v>3.893065521285848</v>
       </c>
       <c r="D45" t="n">
-        <v>3.6261303527857596</v>
+        <v>3.646710799017353</v>
       </c>
       <c r="E45" t="n">
-        <v>3.836499302632256</v>
+        <v>3.8918140967875834</v>
       </c>
       <c r="F45" t="n">
-        <v>3.6261303527857596</v>
+        <v>4.065258802253824</v>
       </c>
       <c r="G45" t="n">
-        <v>3.836499302632256</v>
+        <v>4.185351299704297</v>
       </c>
       <c r="H45" t="n">
-        <v>3.6261303527857596</v>
+        <v>4.004145473862901</v>
       </c>
       <c r="I45" t="n">
-        <v>3.836499302632256</v>
+        <v>4.060301169304449</v>
       </c>
       <c r="J45" t="n">
-        <v>3.6261303527857596</v>
+        <v>3.648708998532038</v>
       </c>
       <c r="K45" t="n">
-        <v>3.836499302632256</v>
+        <v>4.040590972603851</v>
       </c>
       <c r="L45" t="n">
-        <v>3.6261303527857596</v>
+        <v>3.8918140967875834</v>
       </c>
     </row>
     <row r="46">
@@ -2003,37 +2003,37 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>1.7016414843182346</v>
+        <v>1.684793548829935</v>
       </c>
       <c r="C51" t="n">
-        <v>1.5954232077595143</v>
+        <v>1.5758220873748436</v>
       </c>
       <c r="D51" t="n">
-        <v>1.7016414843182346</v>
+        <v>1.6375287377327752</v>
       </c>
       <c r="E51" t="n">
-        <v>1.5954232077595143</v>
+        <v>1.7105077348135982</v>
       </c>
       <c r="F51" t="n">
-        <v>1.7016414843182346</v>
+        <v>1.5352392720022816</v>
       </c>
       <c r="G51" t="n">
-        <v>1.5954232077595143</v>
+        <v>1.7467653801744267</v>
       </c>
       <c r="H51" t="n">
-        <v>1.7016414843182346</v>
+        <v>1.7001284415213849</v>
       </c>
       <c r="I51" t="n">
-        <v>1.5954232077595143</v>
+        <v>1.761038132944273</v>
       </c>
       <c r="J51" t="n">
-        <v>1.7016414843182346</v>
+        <v>1.6807508526341655</v>
       </c>
       <c r="K51" t="n">
-        <v>1.5954232077595143</v>
+        <v>1.7084217496601874</v>
       </c>
       <c r="L51" t="n">
-        <v>1.7016414843182346</v>
+        <v>1.7105077348135982</v>
       </c>
     </row>
     <row r="52">
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>3.7010490777220646</v>
+        <v>3.6647642828424365</v>
       </c>
       <c r="C59" t="n">
-        <v>3.463888241928892</v>
+        <v>3.4328565530231474</v>
       </c>
       <c r="D59" t="n">
-        <v>3.7010490777220646</v>
+        <v>3.499941970612823</v>
       </c>
       <c r="E59" t="n">
-        <v>3.463888241928892</v>
+        <v>3.7693301681373135</v>
       </c>
       <c r="F59" t="n">
-        <v>3.7010490777220646</v>
+        <v>3.8036383916506176</v>
       </c>
       <c r="G59" t="n">
-        <v>3.463888241928892</v>
+        <v>3.6635862456943746</v>
       </c>
       <c r="H59" t="n">
-        <v>3.7010490777220646</v>
+        <v>3.370105411541237</v>
       </c>
       <c r="I59" t="n">
-        <v>3.463888241928892</v>
+        <v>3.907977596852681</v>
       </c>
       <c r="J59" t="n">
-        <v>3.7010490777220646</v>
+        <v>3.826859624517669</v>
       </c>
       <c r="K59" t="n">
-        <v>3.463888241928892</v>
+        <v>3.434737572022538</v>
       </c>
       <c r="L59" t="n">
-        <v>3.7010490777220646</v>
+        <v>3.7693301681373135</v>
       </c>
     </row>
     <row r="60">
@@ -2424,34 +2424,34 @@
         <v>2.9533257102928</v>
       </c>
       <c r="C62" t="n">
-        <v>3.0503554591240514</v>
+        <v>3.0671054296834477</v>
       </c>
       <c r="D62" t="n">
-        <v>2.9533257102928</v>
+        <v>3.353593297130964</v>
       </c>
       <c r="E62" t="n">
-        <v>3.0503554591240514</v>
+        <v>3.211544226959824</v>
       </c>
       <c r="F62" t="n">
-        <v>2.9533257102928</v>
+        <v>3.3372939398462647</v>
       </c>
       <c r="G62" t="n">
-        <v>3.0503554591240514</v>
+        <v>3.0215543579455932</v>
       </c>
       <c r="H62" t="n">
-        <v>2.9533257102928</v>
+        <v>3.319145510896769</v>
       </c>
       <c r="I62" t="n">
-        <v>3.0503554591240514</v>
+        <v>3.0895308346951693</v>
       </c>
       <c r="J62" t="n">
-        <v>2.9533257102928</v>
+        <v>2.946988101135128</v>
       </c>
       <c r="K62" t="n">
-        <v>3.0503554591240514</v>
+        <v>3.0947525757416714</v>
       </c>
       <c r="L62" t="n">
-        <v>2.9533257102928</v>
+        <v>3.211544226959824</v>
       </c>
     </row>
     <row r="63">
@@ -2535,37 +2535,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>2.41880789873736</v>
+        <v>2.3950940958085623</v>
       </c>
       <c r="C65" t="n">
-        <v>2.4648229216634223</v>
+        <v>2.4642248947923098</v>
       </c>
       <c r="D65" t="n">
-        <v>2.41880789873736</v>
+        <v>2.2454827395072856</v>
       </c>
       <c r="E65" t="n">
-        <v>2.4648229216634223</v>
+        <v>2.3048402696992074</v>
       </c>
       <c r="F65" t="n">
-        <v>2.41880789873736</v>
+        <v>2.1985010712769966</v>
       </c>
       <c r="G65" t="n">
-        <v>2.4648229216634223</v>
+        <v>2.2442530107122183</v>
       </c>
       <c r="H65" t="n">
-        <v>2.41880789873736</v>
+        <v>2.5018351630024824</v>
       </c>
       <c r="I65" t="n">
-        <v>2.4648229216634223</v>
+        <v>2.3958642455003516</v>
       </c>
       <c r="J65" t="n">
-        <v>2.41880789873736</v>
+        <v>2.476136554002389</v>
       </c>
       <c r="K65" t="n">
-        <v>2.4648229216634223</v>
+        <v>2.2881105526965833</v>
       </c>
       <c r="L65" t="n">
-        <v>2.41880789873736</v>
+        <v>2.3048402696992074</v>
       </c>
     </row>
     <row r="66">
@@ -2687,37 +2687,37 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="n">
-        <v>4.113182941319928</v>
+        <v>4.072458357742503</v>
       </c>
       <c r="C69" t="n">
-        <v>3.658741230384476</v>
+        <v>3.5793003887997155</v>
       </c>
       <c r="D69" t="n">
-        <v>4.113182941319928</v>
+        <v>3.6739163157699464</v>
       </c>
       <c r="E69" t="n">
-        <v>3.658741230384476</v>
+        <v>3.9830629298698077</v>
       </c>
       <c r="F69" t="n">
-        <v>4.113182941319928</v>
+        <v>3.918550215604425</v>
       </c>
       <c r="G69" t="n">
-        <v>3.658741230384476</v>
+        <v>3.927975472194198</v>
       </c>
       <c r="H69" t="n">
-        <v>4.113182941319928</v>
+        <v>3.8177809508438103</v>
       </c>
       <c r="I69" t="n">
-        <v>3.658741230384476</v>
+        <v>3.5119479601821597</v>
       </c>
       <c r="J69" t="n">
-        <v>4.113182941319928</v>
+        <v>3.9637276760191575</v>
       </c>
       <c r="K69" t="n">
-        <v>3.658741230384476</v>
+        <v>3.9879262548295036</v>
       </c>
       <c r="L69" t="n">
-        <v>4.113182941319928</v>
+        <v>3.9830629298698077</v>
       </c>
     </row>
     <row r="70">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>4.892558578811826</v>
+        <v>4.795676230716542</v>
       </c>
       <c r="C76" t="n">
-        <v>4.352008177060505</v>
+        <v>4.214939549848825</v>
       </c>
       <c r="D76" t="n">
-        <v>4.892558578811826</v>
+        <v>4.326358086801005</v>
       </c>
       <c r="E76" t="n">
-        <v>4.352008177060505</v>
+        <v>4.690405288468905</v>
       </c>
       <c r="F76" t="n">
-        <v>4.892558578811826</v>
+        <v>4.614435919796709</v>
       </c>
       <c r="G76" t="n">
-        <v>4.352008177060505</v>
+        <v>4.625534984544675</v>
       </c>
       <c r="H76" t="n">
-        <v>4.892558578811826</v>
+        <v>4.495771288915831</v>
       </c>
       <c r="I76" t="n">
-        <v>4.352008177060505</v>
+        <v>4.1356261689303535</v>
       </c>
       <c r="J76" t="n">
-        <v>4.892558578811826</v>
+        <v>4.667636334397184</v>
       </c>
       <c r="K76" t="n">
-        <v>4.352008177060505</v>
+        <v>4.696132279358111</v>
       </c>
       <c r="L76" t="n">
-        <v>4.892558578811826</v>
+        <v>4.690405288468905</v>
       </c>
     </row>
     <row r="77">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>3.171354321195187</v>
+        <v>3.108555225725976</v>
       </c>
       <c r="C79" t="n">
-        <v>2.820969788275774</v>
+        <v>2.732121964339527</v>
       </c>
       <c r="D79" t="n">
-        <v>3.171354321195187</v>
+        <v>2.804343411039171</v>
       </c>
       <c r="E79" t="n">
-        <v>2.820969788275774</v>
+        <v>3.0403186472128145</v>
       </c>
       <c r="F79" t="n">
-        <v>3.171354321195187</v>
+        <v>2.9910753358173388</v>
       </c>
       <c r="G79" t="n">
-        <v>2.820969788275774</v>
+        <v>2.998269744710494</v>
       </c>
       <c r="H79" t="n">
-        <v>3.171354321195187</v>
+        <v>2.914156974216751</v>
       </c>
       <c r="I79" t="n">
-        <v>2.820969788275774</v>
+        <v>2.6807110656752373</v>
       </c>
       <c r="J79" t="n">
-        <v>3.171354321195187</v>
+        <v>3.0255598211872745</v>
       </c>
       <c r="K79" t="n">
-        <v>2.820969788275774</v>
+        <v>3.044030880190992</v>
       </c>
       <c r="L79" t="n">
-        <v>3.171354321195187</v>
+        <v>3.0403186472128145</v>
       </c>
     </row>
     <row r="80">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>2.9521892996208803</v>
+        <v>2.9232462672716557</v>
       </c>
       <c r="C90" t="n">
-        <v>2.9177505473349465</v>
+        <v>2.899554122009368</v>
       </c>
       <c r="D90" t="n">
-        <v>2.9521892996208803</v>
+        <v>2.79668359282276</v>
       </c>
       <c r="E90" t="n">
-        <v>2.9177505473349465</v>
+        <v>2.495109877283277</v>
       </c>
       <c r="F90" t="n">
-        <v>2.9521892996208803</v>
+        <v>2.547034398713408</v>
       </c>
       <c r="G90" t="n">
-        <v>2.9177505473349465</v>
+        <v>2.8393680167352606</v>
       </c>
       <c r="H90" t="n">
-        <v>2.9521892996208803</v>
+        <v>2.5968089417546785</v>
       </c>
       <c r="I90" t="n">
-        <v>2.9177505473349465</v>
+        <v>2.6202167957538163</v>
       </c>
       <c r="J90" t="n">
-        <v>2.9521892996208803</v>
+        <v>2.5582424714760292</v>
       </c>
       <c r="K90" t="n">
-        <v>2.9177505473349465</v>
+        <v>2.810202302883082</v>
       </c>
       <c r="L90" t="n">
-        <v>2.9521892996208803</v>
+        <v>2.495109877283277</v>
       </c>
     </row>
     <row r="91">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>3.7005002859621623</v>
+        <v>3.6642208713939057</v>
       </c>
       <c r="C93" t="n">
-        <v>3.657332114903943</v>
+        <v>3.634523321060866</v>
       </c>
       <c r="D93" t="n">
-        <v>3.7005002859621623</v>
+        <v>3.505577517104118</v>
       </c>
       <c r="E93" t="n">
-        <v>3.657332114903943</v>
+        <v>3.1275619133161627</v>
       </c>
       <c r="F93" t="n">
-        <v>3.7005002859621623</v>
+        <v>3.1926480873041667</v>
       </c>
       <c r="G93" t="n">
-        <v>3.657332114903943</v>
+        <v>3.5590814448212953</v>
       </c>
       <c r="H93" t="n">
-        <v>3.7005002859621623</v>
+        <v>3.2550393136328815</v>
       </c>
       <c r="I93" t="n">
-        <v>3.657332114903943</v>
+        <v>3.2843805115122633</v>
       </c>
       <c r="J93" t="n">
-        <v>3.7005002859621623</v>
+        <v>3.2066971445473764</v>
       </c>
       <c r="K93" t="n">
-        <v>3.657332114903943</v>
+        <v>3.5225229041937896</v>
       </c>
       <c r="L93" t="n">
-        <v>3.7005002859621623</v>
+        <v>3.1275619133161627</v>
       </c>
     </row>
     <row r="94">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2.855132672876968</v>
+        <v>2.8268640325514536</v>
       </c>
       <c r="C94" t="n">
-        <v>2.82182613427617</v>
+        <v>2.80395304005459</v>
       </c>
       <c r="D94" t="n">
-        <v>2.855132672876968</v>
+        <v>2.7044742509347905</v>
       </c>
       <c r="E94" t="n">
-        <v>2.82182613427617</v>
+        <v>2.4128437102013423</v>
       </c>
       <c r="F94" t="n">
-        <v>2.855132672876968</v>
+        <v>2.4630562303306442</v>
       </c>
       <c r="G94" t="n">
-        <v>2.82182613427617</v>
+        <v>2.745751328428862</v>
       </c>
       <c r="H94" t="n">
-        <v>2.855132672876968</v>
+        <v>2.511189658921789</v>
       </c>
       <c r="I94" t="n">
-        <v>2.82182613427617</v>
+        <v>2.5338257335112684</v>
       </c>
       <c r="J94" t="n">
-        <v>2.855132672876968</v>
+        <v>2.473894762178474</v>
       </c>
       <c r="K94" t="n">
-        <v>2.82182613427617</v>
+        <v>2.717547236151217</v>
       </c>
       <c r="L94" t="n">
-        <v>2.855132672876968</v>
+        <v>2.4128437102013423</v>
       </c>
     </row>
     <row r="95">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>3.7172499530999885</v>
+        <v>3.6808063261088115</v>
       </c>
       <c r="C97" t="n">
-        <v>3.673886388867793</v>
+        <v>3.6509743550098084</v>
       </c>
       <c r="D97" t="n">
-        <v>3.7172499530999885</v>
+        <v>3.52144490043066</v>
       </c>
       <c r="E97" t="n">
-        <v>3.673886388867793</v>
+        <v>3.141718275146403</v>
       </c>
       <c r="F97" t="n">
-        <v>3.7172499530999885</v>
+        <v>3.2070990503140657</v>
       </c>
       <c r="G97" t="n">
-        <v>3.673886388867793</v>
+        <v>3.5751910043160784</v>
       </c>
       <c r="H97" t="n">
-        <v>3.7172499530999885</v>
+        <v>3.2697726796133444</v>
       </c>
       <c r="I97" t="n">
-        <v>3.673886388867793</v>
+        <v>3.2992466852916524</v>
       </c>
       <c r="J97" t="n">
-        <v>3.7172499530999885</v>
+        <v>3.2212116981569894</v>
       </c>
       <c r="K97" t="n">
-        <v>3.673886388867793</v>
+        <v>3.538466987850379</v>
       </c>
       <c r="L97" t="n">
-        <v>3.7172499530999885</v>
+        <v>3.141718275146403</v>
       </c>
     </row>
     <row r="98">
@@ -3865,37 +3865,37 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>1.8727219301650295</v>
+        <v>1.8539947108633792</v>
       </c>
       <c r="C100" t="n">
-        <v>2.047739735579515</v>
+        <v>2.012455796020934</v>
       </c>
       <c r="D100" t="n">
-        <v>1.8727219301650295</v>
+        <v>2.000244293833958</v>
       </c>
       <c r="E100" t="n">
-        <v>2.047739735579515</v>
+        <v>1.7722594592197762</v>
       </c>
       <c r="F100" t="n">
-        <v>1.8727219301650295</v>
+        <v>1.9822024030841157</v>
       </c>
       <c r="G100" t="n">
-        <v>2.047739735579515</v>
+        <v>2.0100015815050014</v>
       </c>
       <c r="H100" t="n">
-        <v>1.8727219301650295</v>
+        <v>1.977446068327398</v>
       </c>
       <c r="I100" t="n">
-        <v>2.047739735579515</v>
+        <v>1.8062479977950165</v>
       </c>
       <c r="J100" t="n">
-        <v>1.8727219301650295</v>
+        <v>2.071906092867679</v>
       </c>
       <c r="K100" t="n">
-        <v>2.047739735579515</v>
+        <v>2.0551138367134087</v>
       </c>
       <c r="L100" t="n">
-        <v>1.8727219301650295</v>
+        <v>1.7722594592197762</v>
       </c>
     </row>
     <row r="101">
@@ -3906,34 +3906,34 @@
         <v>1.9701289037242475</v>
       </c>
       <c r="C101" t="n">
-        <v>2.154250011914121</v>
+        <v>2.1385159881938827</v>
       </c>
       <c r="D101" t="n">
-        <v>1.9701289037242475</v>
+        <v>2.125539557745896</v>
       </c>
       <c r="E101" t="n">
-        <v>2.154250011914121</v>
+        <v>1.8832737574971863</v>
       </c>
       <c r="F101" t="n">
-        <v>1.9701289037242475</v>
+        <v>2.106367523308135</v>
       </c>
       <c r="G101" t="n">
-        <v>2.154250011914121</v>
+        <v>2.1359080417280984</v>
       </c>
       <c r="H101" t="n">
-        <v>1.9701289037242475</v>
+        <v>2.1013132518341706</v>
       </c>
       <c r="I101" t="n">
-        <v>2.154250011914121</v>
+        <v>1.9193913374719664</v>
       </c>
       <c r="J101" t="n">
-        <v>1.9701289037242475</v>
+        <v>2.2016902504862577</v>
       </c>
       <c r="K101" t="n">
-        <v>2.154250011914121</v>
+        <v>2.183846127730986</v>
       </c>
       <c r="L101" t="n">
-        <v>1.9701289037242475</v>
+        <v>1.8832737574971863</v>
       </c>
     </row>
     <row r="102">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>1.9690792823551255</v>
+        <v>1.949388489531574</v>
       </c>
       <c r="C104" t="n">
-        <v>2.153102296735352</v>
+        <v>2.1160028890413596</v>
       </c>
       <c r="D104" t="n">
-        <v>1.9690792823551255</v>
+        <v>2.103163067188742</v>
       </c>
       <c r="E104" t="n">
-        <v>2.153102296735352</v>
+        <v>1.8634477056612648</v>
       </c>
       <c r="F104" t="n">
-        <v>1.9690792823551255</v>
+        <v>2.0841928651967683</v>
       </c>
       <c r="G104" t="n">
-        <v>2.153102296735352</v>
+        <v>2.1134223975760023</v>
       </c>
       <c r="H104" t="n">
-        <v>1.9690792823551255</v>
+        <v>2.07919180226343</v>
       </c>
       <c r="I104" t="n">
-        <v>2.153102296735352</v>
+        <v>1.8991850599731972</v>
       </c>
       <c r="J104" t="n">
-        <v>1.9690792823551255</v>
+        <v>2.1785120880661566</v>
       </c>
       <c r="K104" t="n">
-        <v>2.153102296735352</v>
+        <v>2.1608558182458633</v>
       </c>
       <c r="L104" t="n">
-        <v>1.9690792823551255</v>
+        <v>1.8634477056612648</v>
       </c>
     </row>
     <row r="105">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>2.9954491132930996</v>
+        <v>2.9663670830669533</v>
       </c>
       <c r="C106" t="n">
-        <v>3.113558073951176</v>
+        <v>3.0773241218292067</v>
       </c>
       <c r="D106" t="n">
-        <v>2.9954491132930996</v>
+        <v>3.309429020142694</v>
       </c>
       <c r="E106" t="n">
-        <v>3.113558073951176</v>
+        <v>2.885096753204646</v>
       </c>
       <c r="F106" t="n">
-        <v>2.9954491132930996</v>
+        <v>2.8308072966021727</v>
       </c>
       <c r="G106" t="n">
-        <v>3.113558073951176</v>
+        <v>3.1949645479476327</v>
       </c>
       <c r="H106" t="n">
-        <v>2.9954491132930996</v>
+        <v>3.282606964827583</v>
       </c>
       <c r="I106" t="n">
-        <v>3.113558073951176</v>
+        <v>3.2144698237206195</v>
       </c>
       <c r="J106" t="n">
-        <v>2.9954491132930996</v>
+        <v>3.210549738361228</v>
       </c>
       <c r="K106" t="n">
-        <v>3.113558073951176</v>
+        <v>3.166146467325489</v>
       </c>
       <c r="L106" t="n">
-        <v>2.9954491132930996</v>
+        <v>2.885096753204646</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>3.5047767483188466</v>
+        <v>3.470749789597304</v>
       </c>
       <c r="C107" t="n">
-        <v>3.642968225932517</v>
+        <v>3.6005732767633867</v>
       </c>
       <c r="D107" t="n">
-        <v>3.5047767483188466</v>
+        <v>3.8721438560030754</v>
       </c>
       <c r="E107" t="n">
-        <v>3.642968225932517</v>
+        <v>3.37566075564724</v>
       </c>
       <c r="F107" t="n">
-        <v>3.5047767483188466</v>
+        <v>3.3121402557212596</v>
       </c>
       <c r="G107" t="n">
-        <v>3.642968225932517</v>
+        <v>3.738216553123006</v>
       </c>
       <c r="H107" t="n">
-        <v>3.5047767483188466</v>
+        <v>3.840761144344463</v>
       </c>
       <c r="I107" t="n">
-        <v>3.642968225932517</v>
+        <v>3.7610383853134906</v>
       </c>
       <c r="J107" t="n">
-        <v>3.5047767483188466</v>
+        <v>3.7564517528923127</v>
       </c>
       <c r="K107" t="n">
-        <v>3.642968225932517</v>
+        <v>3.7044984243631323</v>
       </c>
       <c r="L107" t="n">
-        <v>3.5047767483188466</v>
+        <v>3.37566075564724</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>2.257255379649083</v>
+        <v>2.2798279334455738</v>
       </c>
       <c r="C111" t="n">
-        <v>2.3462577551683625</v>
+        <v>2.365104957259177</v>
       </c>
       <c r="D111" t="n">
-        <v>2.257255379649083</v>
+        <v>2.5434912512836947</v>
       </c>
       <c r="E111" t="n">
-        <v>2.3462577551683625</v>
+        <v>2.217366895080471</v>
       </c>
       <c r="F111" t="n">
-        <v>2.257255379649083</v>
+        <v>2.175642247999391</v>
       </c>
       <c r="G111" t="n">
-        <v>2.3462577551683625</v>
+        <v>2.4555185581577996</v>
       </c>
       <c r="H111" t="n">
-        <v>2.257255379649083</v>
+        <v>2.522876920950515</v>
       </c>
       <c r="I111" t="n">
-        <v>2.3462577551683625</v>
+        <v>2.4705095121805356</v>
       </c>
       <c r="J111" t="n">
-        <v>2.257255379649083</v>
+        <v>2.4674966955420126</v>
       </c>
       <c r="K111" t="n">
-        <v>2.3462577551683625</v>
+        <v>2.4333701647355257</v>
       </c>
       <c r="L111" t="n">
-        <v>2.257255379649083</v>
+        <v>2.217366895080471</v>
       </c>
     </row>
     <row r="112">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>1.7623030281557575</v>
+        <v>1.7806603513657133</v>
       </c>
       <c r="C116" t="n">
-        <v>1.9502211440225516</v>
+        <v>1.9850340666346347</v>
       </c>
       <c r="D116" t="n">
-        <v>1.7623030281557575</v>
+        <v>1.7481106459195668</v>
       </c>
       <c r="E116" t="n">
-        <v>1.9502211440225516</v>
+        <v>1.9646439885492792</v>
       </c>
       <c r="F116" t="n">
-        <v>1.7623030281557575</v>
+        <v>1.831822986975811</v>
       </c>
       <c r="G116" t="n">
-        <v>1.9502211440225516</v>
+        <v>1.9009534347748571</v>
       </c>
       <c r="H116" t="n">
-        <v>1.7623030281557575</v>
+        <v>1.8287321727517607</v>
       </c>
       <c r="I116" t="n">
-        <v>1.9502211440225516</v>
+        <v>1.7884960409008461</v>
       </c>
       <c r="J116" t="n">
-        <v>1.7623030281557575</v>
+        <v>1.9753862719834296</v>
       </c>
       <c r="K116" t="n">
-        <v>1.9502211440225516</v>
+        <v>1.7443593353209443</v>
       </c>
       <c r="L116" t="n">
-        <v>1.7623030281557575</v>
+        <v>1.9646439885492792</v>
       </c>
     </row>
     <row r="117">
@@ -4511,37 +4511,37 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="n">
-        <v>1.7039884915516463</v>
+        <v>1.7212004965168146</v>
       </c>
       <c r="C117" t="n">
-        <v>1.8856884044923763</v>
+        <v>1.9187497595899536</v>
       </c>
       <c r="D117" t="n">
-        <v>1.7039884915516463</v>
+        <v>1.6897376916464673</v>
       </c>
       <c r="E117" t="n">
-        <v>1.8856884044923763</v>
+        <v>1.8990405475003975</v>
       </c>
       <c r="F117" t="n">
-        <v>1.7039884915516463</v>
+        <v>1.7706547081230137</v>
       </c>
       <c r="G117" t="n">
-        <v>1.8856884044923763</v>
+        <v>1.8374767502855678</v>
       </c>
       <c r="H117" t="n">
-        <v>1.7039884915516463</v>
+        <v>1.7676671024445945</v>
       </c>
       <c r="I117" t="n">
-        <v>1.8856884044923763</v>
+        <v>1.7287745365116278</v>
       </c>
       <c r="J117" t="n">
-        <v>1.7039884915516463</v>
+        <v>1.9094241243382841</v>
       </c>
       <c r="K117" t="n">
-        <v>1.8856884044923763</v>
+        <v>1.6861116449048832</v>
       </c>
       <c r="L117" t="n">
-        <v>1.7039884915516463</v>
+        <v>1.8990405475003975</v>
       </c>
     </row>
     <row r="118">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>2.8707888022478265</v>
+        <v>2.842080914225348</v>
       </c>
       <c r="C126" t="n">
-        <v>3.2853139432360106</v>
+        <v>3.2302675755793016</v>
       </c>
       <c r="D126" t="n">
-        <v>2.8707888022478265</v>
+        <v>3.09721934374875</v>
       </c>
       <c r="E126" t="n">
-        <v>3.2853139432360106</v>
+        <v>2.901226081610738</v>
       </c>
       <c r="F126" t="n">
-        <v>2.8707888022478265</v>
+        <v>2.95792229370137</v>
       </c>
       <c r="G126" t="n">
-        <v>3.2853139432360106</v>
+        <v>3.200990226062642</v>
       </c>
       <c r="H126" t="n">
-        <v>2.8707888022478265</v>
+        <v>2.913992753721619</v>
       </c>
       <c r="I126" t="n">
-        <v>3.2853139432360106</v>
+        <v>3.218492605363281</v>
       </c>
       <c r="J126" t="n">
-        <v>2.8707888022478265</v>
+        <v>2.97954939682847</v>
       </c>
       <c r="K126" t="n">
-        <v>3.2853139432360106</v>
+        <v>3.234211736443294</v>
       </c>
       <c r="L126" t="n">
-        <v>2.8707888022478265</v>
+        <v>2.901226081610738</v>
       </c>
     </row>
     <row r="127">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>2.704362156649995</v>
+        <v>2.731678946111106</v>
       </c>
       <c r="C127" t="n">
-        <v>2.9927340387723076</v>
+        <v>3.045204978580146</v>
       </c>
       <c r="D127" t="n">
-        <v>2.704362156649995</v>
+        <v>2.6817450297406085</v>
       </c>
       <c r="E127" t="n">
-        <v>2.9927340387723076</v>
+        <v>3.0139249273493722</v>
       </c>
       <c r="F127" t="n">
-        <v>2.704362156649995</v>
+        <v>2.8101666231217535</v>
       </c>
       <c r="G127" t="n">
-        <v>2.9927340387723076</v>
+        <v>2.9162183969162623</v>
       </c>
       <c r="H127" t="n">
-        <v>2.704362156649995</v>
+        <v>2.805425060736932</v>
       </c>
       <c r="I127" t="n">
-        <v>2.9927340387723076</v>
+        <v>2.7436995361775773</v>
       </c>
       <c r="J127" t="n">
-        <v>2.704362156649995</v>
+        <v>3.030404470720864</v>
       </c>
       <c r="K127" t="n">
-        <v>2.9927340387723076</v>
+        <v>2.6759902117739363</v>
       </c>
       <c r="L127" t="n">
-        <v>2.704362156649995</v>
+        <v>3.0139249273493722</v>
       </c>
     </row>
     <row r="128">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>2.362058207006185</v>
+        <v>2.3866629799958328</v>
       </c>
       <c r="C128" t="n">
-        <v>2.161651306962801</v>
+        <v>2.1884307957626414</v>
       </c>
       <c r="D128" t="n">
-        <v>2.362058207006185</v>
+        <v>2.403968087670792</v>
       </c>
       <c r="E128" t="n">
-        <v>2.161651306962801</v>
+        <v>2.2414463020363042</v>
       </c>
       <c r="F128" t="n">
-        <v>2.362058207006185</v>
+        <v>2.2376643350220045</v>
       </c>
       <c r="G128" t="n">
-        <v>2.161651306962801</v>
+        <v>2.4171125080924685</v>
       </c>
       <c r="H128" t="n">
-        <v>2.362058207006185</v>
+        <v>2.134424455516054</v>
       </c>
       <c r="I128" t="n">
-        <v>2.161651306962801</v>
+        <v>2.178842927580343</v>
       </c>
       <c r="J128" t="n">
-        <v>2.362058207006185</v>
+        <v>2.221422215529417</v>
       </c>
       <c r="K128" t="n">
-        <v>2.161651306962801</v>
+        <v>2.326035363140456</v>
       </c>
       <c r="L128" t="n">
-        <v>2.362058207006185</v>
+        <v>2.2414463020363042</v>
       </c>
     </row>
     <row r="129">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>4.129600005514548</v>
+        <v>4.171313136883382</v>
       </c>
       <c r="C132" t="n">
-        <v>3.7792274647069015</v>
+        <v>3.82485093372538</v>
       </c>
       <c r="D132" t="n">
-        <v>4.129600005514548</v>
+        <v>4.201558304963151</v>
       </c>
       <c r="E132" t="n">
-        <v>3.7792274647069015</v>
+        <v>3.9175092938002654</v>
       </c>
       <c r="F132" t="n">
-        <v>4.129600005514548</v>
+        <v>3.9108993246415555</v>
       </c>
       <c r="G132" t="n">
-        <v>3.7792274647069015</v>
+        <v>4.224531591950556</v>
       </c>
       <c r="H132" t="n">
-        <v>4.129600005514548</v>
+        <v>3.730460834061632</v>
       </c>
       <c r="I132" t="n">
-        <v>3.7792274647069015</v>
+        <v>3.808093645059681</v>
       </c>
       <c r="J132" t="n">
-        <v>4.129600005514548</v>
+        <v>3.882512004362938</v>
       </c>
       <c r="K132" t="n">
-        <v>3.7792274647069015</v>
+        <v>4.065350637457842</v>
       </c>
       <c r="L132" t="n">
-        <v>4.129600005514548</v>
+        <v>3.9175092938002654</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>2.581408182961015</v>
+        <v>2.5555941011314047</v>
       </c>
       <c r="C133" t="n">
-        <v>2.822657237496847</v>
+        <v>2.774020945671292</v>
       </c>
       <c r="D133" t="n">
-        <v>2.581408182961015</v>
+        <v>2.7571882962726018</v>
       </c>
       <c r="E133" t="n">
-        <v>2.822657237496847</v>
+        <v>2.442928123320924</v>
       </c>
       <c r="F133" t="n">
-        <v>2.581408182961015</v>
+        <v>2.732318888984982</v>
       </c>
       <c r="G133" t="n">
-        <v>2.822657237496847</v>
+        <v>2.7706379931185805</v>
       </c>
       <c r="H133" t="n">
-        <v>2.581408182961015</v>
+        <v>2.72576263454906</v>
       </c>
       <c r="I133" t="n">
-        <v>2.822657237496847</v>
+        <v>2.4897788010386135</v>
       </c>
       <c r="J133" t="n">
-        <v>2.581408182961015</v>
+        <v>2.8559687673354115</v>
       </c>
       <c r="K133" t="n">
-        <v>2.822657237496847</v>
+        <v>2.832821888587005</v>
       </c>
       <c r="L133" t="n">
-        <v>2.581408182961015</v>
+        <v>2.442928123320924</v>
       </c>
     </row>
     <row r="134">
@@ -5309,37 +5309,37 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="n">
-        <v>3.1672215864928726</v>
+        <v>3.1995401741101466</v>
       </c>
       <c r="C138" t="n">
-        <v>2.898501256902001</v>
+        <v>2.9337917871062946</v>
       </c>
       <c r="D138" t="n">
-        <v>3.1672215864928726</v>
+        <v>3.222739254871616</v>
       </c>
       <c r="E138" t="n">
-        <v>2.898501256902001</v>
+        <v>3.0048639257346266</v>
       </c>
       <c r="F138" t="n">
-        <v>3.1672215864928726</v>
+        <v>2.999793852791428</v>
       </c>
       <c r="G138" t="n">
-        <v>2.898501256902001</v>
+        <v>3.240360553545559</v>
       </c>
       <c r="H138" t="n">
-        <v>3.1672215864928726</v>
+        <v>2.8613913448469854</v>
       </c>
       <c r="I138" t="n">
-        <v>2.898501256902001</v>
+        <v>2.920938372237728</v>
       </c>
       <c r="J138" t="n">
-        <v>3.1672215864928726</v>
+        <v>2.9780198049829174</v>
       </c>
       <c r="K138" t="n">
-        <v>2.898501256902001</v>
+        <v>3.1182633045164034</v>
       </c>
       <c r="L138" t="n">
-        <v>3.1672215864928726</v>
+        <v>3.0048639257346266</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>3.121894054966097</v>
+        <v>3.060074370709343</v>
       </c>
       <c r="C153" t="n">
-        <v>3.4761785562722562</v>
+        <v>3.388735271231308</v>
       </c>
       <c r="D153" t="n">
-        <v>3.121894054966097</v>
+        <v>3.3928528112730403</v>
       </c>
       <c r="E153" t="n">
-        <v>3.4761785562722562</v>
+        <v>3.510141874781714</v>
       </c>
       <c r="F153" t="n">
-        <v>3.121894054966097</v>
+        <v>3.4816930943557716</v>
       </c>
       <c r="G153" t="n">
-        <v>3.4761785562722562</v>
+        <v>3.0024923244350075</v>
       </c>
       <c r="H153" t="n">
-        <v>3.121894054966097</v>
+        <v>3.4052656845334948</v>
       </c>
       <c r="I153" t="n">
-        <v>3.4761785562722562</v>
+        <v>3.3581694089853005</v>
       </c>
       <c r="J153" t="n">
-        <v>3.121894054966097</v>
+        <v>3.2639600960055692</v>
       </c>
       <c r="K153" t="n">
-        <v>3.4761785562722562</v>
+        <v>3.3501114135686607</v>
       </c>
       <c r="L153" t="n">
-        <v>3.121894054966097</v>
+        <v>3.510141874781714</v>
       </c>
     </row>
     <row r="154">
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>1.9646242079588607</v>
+        <v>1.944977965879272</v>
       </c>
       <c r="C154" t="n">
-        <v>2.1875772920532763</v>
+        <v>2.1538742645705624</v>
       </c>
       <c r="D154" t="n">
-        <v>1.9646242079588607</v>
+        <v>2.1564913658839986</v>
       </c>
       <c r="E154" t="n">
-        <v>2.1875772920532763</v>
+        <v>2.2310400913485053</v>
       </c>
       <c r="F154" t="n">
-        <v>1.9646242079588607</v>
+        <v>2.2129580958211323</v>
       </c>
       <c r="G154" t="n">
-        <v>2.1875772920532763</v>
+        <v>1.9083789170764607</v>
       </c>
       <c r="H154" t="n">
-        <v>1.9646242079588607</v>
+        <v>2.1643809666126366</v>
       </c>
       <c r="I154" t="n">
-        <v>2.1875772920532763</v>
+        <v>2.1344466555079746</v>
       </c>
       <c r="J154" t="n">
-        <v>1.9646242079588607</v>
+        <v>2.0745673794746518</v>
       </c>
       <c r="K154" t="n">
-        <v>2.1875772920532763</v>
+        <v>2.129325007588389</v>
       </c>
       <c r="L154" t="n">
-        <v>1.9646242079588607</v>
+        <v>2.2310400913485053</v>
       </c>
     </row>
     <row r="155">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>2.5902588736783727</v>
+        <v>2.564356284941589</v>
       </c>
       <c r="C156" t="n">
-        <v>2.884211377241137</v>
+        <v>2.8397756191693047</v>
       </c>
       <c r="D156" t="n">
-        <v>2.5902588736783727</v>
+        <v>2.843226136511492</v>
       </c>
       <c r="E156" t="n">
-        <v>2.884211377241137</v>
+        <v>2.9415149068898603</v>
       </c>
       <c r="F156" t="n">
-        <v>2.5902588736783727</v>
+        <v>2.917674699088872</v>
       </c>
       <c r="G156" t="n">
-        <v>2.884211377241137</v>
+        <v>2.516102267432478</v>
       </c>
       <c r="H156" t="n">
-        <v>2.5902588736783727</v>
+        <v>2.8536281809403174</v>
       </c>
       <c r="I156" t="n">
-        <v>2.884211377241137</v>
+        <v>2.8141612871434334</v>
       </c>
       <c r="J156" t="n">
-        <v>2.5902588736783727</v>
+        <v>2.735213453014944</v>
       </c>
       <c r="K156" t="n">
-        <v>2.884211377241137</v>
+        <v>2.8074086502178477</v>
       </c>
       <c r="L156" t="n">
-        <v>2.5902588736783727</v>
+        <v>2.9415149068898603</v>
       </c>
     </row>
     <row r="157">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>1.8812507614327496</v>
+        <v>1.862438253818422</v>
       </c>
       <c r="C157" t="n">
-        <v>2.0947423073056193</v>
+        <v>2.0624695470201715</v>
       </c>
       <c r="D157" t="n">
-        <v>1.8812507614327496</v>
+        <v>2.0649755854873257</v>
       </c>
       <c r="E157" t="n">
-        <v>2.0947423073056193</v>
+        <v>2.136360660544327</v>
       </c>
       <c r="F157" t="n">
-        <v>1.8812507614327496</v>
+        <v>2.119046017002682</v>
       </c>
       <c r="G157" t="n">
-        <v>2.0947423073056193</v>
+        <v>1.8273923716853007</v>
       </c>
       <c r="H157" t="n">
-        <v>1.8812507614327496</v>
+        <v>2.0725303724628827</v>
       </c>
       <c r="I157" t="n">
-        <v>2.0947423073056193</v>
+        <v>2.0438663942168254</v>
       </c>
       <c r="J157" t="n">
-        <v>1.8812507614327496</v>
+        <v>1.9865282360207774</v>
       </c>
       <c r="K157" t="n">
-        <v>2.0947423073056193</v>
+        <v>2.0389620954662155</v>
       </c>
       <c r="L157" t="n">
-        <v>1.8812507614327496</v>
+        <v>2.136360660544327</v>
       </c>
     </row>
     <row r="158">
@@ -6107,37 +6107,37 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="n">
-        <v>2.2477776540920957</v>
+        <v>2.270255430633017</v>
       </c>
       <c r="C159" t="n">
-        <v>2.238762371903979</v>
+        <v>2.259221384130398</v>
       </c>
       <c r="D159" t="n">
-        <v>2.2477776540920957</v>
+        <v>2.09503008237575</v>
       </c>
       <c r="E159" t="n">
-        <v>2.238762371903979</v>
+        <v>2.318378052125493</v>
       </c>
       <c r="F159" t="n">
-        <v>2.2477776540920957</v>
+        <v>2.2674868263020542</v>
       </c>
       <c r="G159" t="n">
-        <v>2.238762371903979</v>
+        <v>2.230760886415755</v>
       </c>
       <c r="H159" t="n">
-        <v>2.2477776540920957</v>
+        <v>2.33732143006313</v>
       </c>
       <c r="I159" t="n">
-        <v>2.238762371903979</v>
+        <v>2.1733947377096117</v>
       </c>
       <c r="J159" t="n">
-        <v>2.2477776540920957</v>
+        <v>2.236126517220018</v>
       </c>
       <c r="K159" t="n">
-        <v>2.238762371903979</v>
+        <v>1.9992894600416742</v>
       </c>
       <c r="L159" t="n">
-        <v>2.2477776540920957</v>
+        <v>2.318378052125493</v>
       </c>
     </row>
     <row r="160">
@@ -6338,34 +6338,34 @@
         <v>4.227524256951249</v>
       </c>
       <c r="C165" t="n">
-        <v>4.210568699063154</v>
+        <v>4.206977362265858</v>
       </c>
       <c r="D165" t="n">
-        <v>4.227524256951249</v>
+        <v>3.9012308363101287</v>
       </c>
       <c r="E165" t="n">
-        <v>4.210568699063154</v>
+        <v>4.317135120523019</v>
       </c>
       <c r="F165" t="n">
-        <v>4.227524256951249</v>
+        <v>4.222368739290498</v>
       </c>
       <c r="G165" t="n">
-        <v>4.210568699063154</v>
+        <v>4.1539800462678045</v>
       </c>
       <c r="H165" t="n">
-        <v>4.227524256951249</v>
+        <v>4.352410265627562</v>
       </c>
       <c r="I165" t="n">
-        <v>4.210568699063154</v>
+        <v>4.047156478350835</v>
       </c>
       <c r="J165" t="n">
-        <v>4.227524256951249</v>
+        <v>4.163971580292036</v>
       </c>
       <c r="K165" t="n">
-        <v>4.210568699063154</v>
+        <v>3.7229487814225606</v>
       </c>
       <c r="L165" t="n">
-        <v>4.227524256951249</v>
+        <v>4.317135120523019</v>
       </c>
     </row>
     <row r="166">
@@ -6411,37 +6411,37 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="n">
-        <v>0.9346979910022787</v>
+        <v>0.9445369172233552</v>
       </c>
       <c r="C167" t="n">
-        <v>0.8707521722372669</v>
+        <v>0.8758916985282786</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9346979910022787</v>
+        <v>0.9692691799461604</v>
       </c>
       <c r="E167" t="n">
-        <v>0.8707521722372669</v>
+        <v>0.9433906344949565</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9346979910022787</v>
+        <v>0.9771890411535205</v>
       </c>
       <c r="G167" t="n">
-        <v>0.8707521722372669</v>
+        <v>0.9491500393995578</v>
       </c>
       <c r="H167" t="n">
-        <v>0.9346979910022787</v>
+        <v>0.851894666040495</v>
       </c>
       <c r="I167" t="n">
-        <v>0.8707521722372669</v>
+        <v>0.9326381316670304</v>
       </c>
       <c r="J167" t="n">
-        <v>0.9346979910022787</v>
+        <v>0.8358643896033141</v>
       </c>
       <c r="K167" t="n">
-        <v>0.8707521722372669</v>
+        <v>0.9086544505490626</v>
       </c>
       <c r="L167" t="n">
-        <v>0.9346979910022787</v>
+        <v>0.9433906344949565</v>
       </c>
     </row>
     <row r="168">
@@ -6452,34 +6452,34 @@
         <v>4.138313964154002</v>
       </c>
       <c r="C168" t="n">
-        <v>4.378397104602981</v>
+        <v>4.398523655871731</v>
       </c>
       <c r="D168" t="n">
-        <v>4.138313964154002</v>
+        <v>4.120183343408718</v>
       </c>
       <c r="E168" t="n">
-        <v>4.378397104602981</v>
+        <v>4.397109752039634</v>
       </c>
       <c r="F168" t="n">
-        <v>4.138313964154002</v>
+        <v>4.593073738725114</v>
       </c>
       <c r="G168" t="n">
-        <v>4.378397104602981</v>
+        <v>4.728758506433352</v>
       </c>
       <c r="H168" t="n">
-        <v>4.138313964154002</v>
+        <v>4.524025730376221</v>
       </c>
       <c r="I168" t="n">
-        <v>4.378397104602981</v>
+        <v>4.587472428989708</v>
       </c>
       <c r="J168" t="n">
-        <v>4.138313964154002</v>
+        <v>4.122440980169887</v>
       </c>
       <c r="K168" t="n">
-        <v>4.378397104602981</v>
+        <v>4.5652031489132625</v>
       </c>
       <c r="L168" t="n">
-        <v>4.138313964154002</v>
+        <v>4.397109752039634</v>
       </c>
     </row>
     <row r="169">
@@ -6563,37 +6563,37 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="n">
-        <v>1.0994904335451416</v>
+        <v>1.1109434588945704</v>
       </c>
       <c r="C171" t="n">
-        <v>1.145154291096449</v>
+        <v>1.1507447007401517</v>
       </c>
       <c r="D171" t="n">
-        <v>1.0994904335451416</v>
+        <v>1.1177257746945544</v>
       </c>
       <c r="E171" t="n">
-        <v>1.145154291096449</v>
+        <v>1.1177257746945544</v>
       </c>
       <c r="F171" t="n">
-        <v>1.0994904335451416</v>
+        <v>1.0070598567827935</v>
       </c>
       <c r="G171" t="n">
-        <v>1.145154291096449</v>
+        <v>1.0222416640072765</v>
       </c>
       <c r="H171" t="n">
-        <v>1.0994904335451416</v>
+        <v>1.1122933295129487</v>
       </c>
       <c r="I171" t="n">
-        <v>1.145154291096449</v>
+        <v>0.9822075208627364</v>
       </c>
       <c r="J171" t="n">
-        <v>1.0994904335451416</v>
+        <v>1.0703819577989548</v>
       </c>
       <c r="K171" t="n">
-        <v>1.145154291096449</v>
+        <v>1.0026477651702952</v>
       </c>
       <c r="L171" t="n">
-        <v>1.0994904335451416</v>
+        <v>1.1177257746945544</v>
       </c>
     </row>
     <row r="172">
@@ -6715,37 +6715,37 @@
         <v>174.0</v>
       </c>
       <c r="B175" t="n">
-        <v>0.9740075066964933</v>
+        <v>0.9838459663600942</v>
       </c>
       <c r="C175" t="n">
-        <v>1.0144598277742525</v>
+        <v>1.0190937469130863</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9740075066964933</v>
+        <v>0.9898523512836206</v>
       </c>
       <c r="E175" t="n">
-        <v>1.0144598277742525</v>
+        <v>0.9898523512836206</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9740075066964933</v>
+        <v>0.8918471683201592</v>
       </c>
       <c r="G175" t="n">
-        <v>1.0144598277742525</v>
+        <v>0.9052921008054959</v>
       </c>
       <c r="H175" t="n">
-        <v>0.9740075066964933</v>
+        <v>0.9850414050229414</v>
       </c>
       <c r="I175" t="n">
-        <v>1.0144598277742525</v>
+        <v>0.8698380640279355</v>
       </c>
       <c r="J175" t="n">
-        <v>0.9740075066964933</v>
+        <v>0.947924904020756</v>
       </c>
       <c r="K175" t="n">
-        <v>1.0144598277742525</v>
+        <v>0.8879398420728927</v>
       </c>
       <c r="L175" t="n">
-        <v>0.9740075066964933</v>
+        <v>0.9898523512836206</v>
       </c>
     </row>
     <row r="176">
@@ -6756,34 +6756,34 @@
         <v>1.2858430087350914</v>
       </c>
       <c r="C176" t="n">
-        <v>1.3392464310776586</v>
+        <v>1.3319102933987408</v>
       </c>
       <c r="D176" t="n">
-        <v>1.2858430087350914</v>
+        <v>1.2936930872288437</v>
       </c>
       <c r="E176" t="n">
-        <v>1.3392464310776586</v>
+        <v>1.2936930872288437</v>
       </c>
       <c r="F176" t="n">
-        <v>1.2858430087350914</v>
+        <v>1.1656046631845798</v>
       </c>
       <c r="G176" t="n">
-        <v>1.3392464310776586</v>
+        <v>1.1831765931718985</v>
       </c>
       <c r="H176" t="n">
-        <v>1.2858430087350914</v>
+        <v>1.2874053940063148</v>
       </c>
       <c r="I176" t="n">
-        <v>1.3392464310776586</v>
+        <v>1.1368397407776922</v>
       </c>
       <c r="J176" t="n">
-        <v>1.2858430087350914</v>
+        <v>1.2388957746611857</v>
       </c>
       <c r="K176" t="n">
-        <v>1.3392464310776586</v>
+        <v>1.1604979612112183</v>
       </c>
       <c r="L176" t="n">
-        <v>1.2858430087350914</v>
+        <v>1.2936930872288437</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>5.635533797866248</v>
+        <v>5.57973643353094</v>
       </c>
       <c r="C177" t="n">
-        <v>5.350231366179711</v>
+        <v>5.361216708739921</v>
       </c>
       <c r="D177" t="n">
-        <v>5.635533797866248</v>
+        <v>5.994785813766847</v>
       </c>
       <c r="E177" t="n">
-        <v>5.350231366179711</v>
+        <v>5.496869058936542</v>
       </c>
       <c r="F177" t="n">
-        <v>5.635533797866248</v>
+        <v>6.038252534818403</v>
       </c>
       <c r="G177" t="n">
-        <v>5.350231366179711</v>
+        <v>5.620533156124693</v>
       </c>
       <c r="H177" t="n">
-        <v>5.635533797866248</v>
+        <v>5.842502236029475</v>
       </c>
       <c r="I177" t="n">
-        <v>5.350231366179711</v>
+        <v>6.100920601603854</v>
       </c>
       <c r="J177" t="n">
-        <v>5.635533797866248</v>
+        <v>5.6300326465829125</v>
       </c>
       <c r="K177" t="n">
-        <v>5.350231366179711</v>
+        <v>6.071268501351807</v>
       </c>
       <c r="L177" t="n">
-        <v>5.635533797866248</v>
+        <v>5.496869058936542</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>4.215177357249185</v>
+        <v>4.342910004438553</v>
       </c>
       <c r="C178" t="n">
-        <v>4.161830647263545</v>
+        <v>4.298300052601151</v>
       </c>
       <c r="D178" t="n">
-        <v>4.215177357249185</v>
+        <v>3.816355465145515</v>
       </c>
       <c r="E178" t="n">
-        <v>4.161830647263545</v>
+        <v>4.267358483280398</v>
       </c>
       <c r="F178" t="n">
-        <v>4.215177357249185</v>
+        <v>4.157619280470715</v>
       </c>
       <c r="G178" t="n">
-        <v>4.161830647263545</v>
+        <v>3.8979104612539195</v>
       </c>
       <c r="H178" t="n">
-        <v>4.215177357249185</v>
+        <v>4.342910004438553</v>
       </c>
       <c r="I178" t="n">
-        <v>4.161830647263545</v>
+        <v>4.316557398273537</v>
       </c>
       <c r="J178" t="n">
-        <v>4.215177357249185</v>
+        <v>4.434966700570411</v>
       </c>
       <c r="K178" t="n">
-        <v>4.161830647263545</v>
+        <v>4.471204642985676</v>
       </c>
       <c r="L178" t="n">
-        <v>4.215177357249185</v>
+        <v>4.267358483280398</v>
       </c>
     </row>
     <row r="179">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>5.437201147130292</v>
+        <v>5.547043594547064</v>
       </c>
       <c r="C179" t="n">
-        <v>5.36838867065627</v>
+        <v>5.490064898847682</v>
       </c>
       <c r="D179" t="n">
-        <v>5.437201147130292</v>
+        <v>4.874494317361956</v>
       </c>
       <c r="E179" t="n">
-        <v>5.36838867065627</v>
+        <v>5.450544339192863</v>
       </c>
       <c r="F179" t="n">
-        <v>5.437201147130292</v>
+        <v>5.3103783810233365</v>
       </c>
       <c r="G179" t="n">
-        <v>5.36838867065627</v>
+        <v>4.978661596514432</v>
       </c>
       <c r="H179" t="n">
-        <v>5.437201147130292</v>
+        <v>5.547043594547064</v>
       </c>
       <c r="I179" t="n">
-        <v>5.36838867065627</v>
+        <v>5.5133843533751605</v>
       </c>
       <c r="J179" t="n">
-        <v>5.437201147130292</v>
+        <v>5.664624319473784</v>
       </c>
       <c r="K179" t="n">
-        <v>5.36838867065627</v>
+        <v>5.710909747020918</v>
       </c>
       <c r="L179" t="n">
-        <v>5.437201147130292</v>
+        <v>5.450544339192863</v>
       </c>
     </row>
     <row r="180">
@@ -7060,34 +7060,34 @@
         <v>2.3298998542157863</v>
       </c>
       <c r="C184" t="n">
-        <v>2.3004129592919758</v>
+        <v>2.305967348090559</v>
       </c>
       <c r="D184" t="n">
-        <v>2.3298998542157863</v>
+        <v>2.04741199628604</v>
       </c>
       <c r="E184" t="n">
-        <v>2.3004129592919758</v>
+        <v>2.289367704585178</v>
       </c>
       <c r="F184" t="n">
-        <v>2.3298998542157863</v>
+        <v>2.2304944255241974</v>
       </c>
       <c r="G184" t="n">
-        <v>2.3004129592919758</v>
+        <v>2.091164911577709</v>
       </c>
       <c r="H184" t="n">
         <v>2.3298998542157863</v>
       </c>
       <c r="I184" t="n">
-        <v>2.3004129592919758</v>
+        <v>2.3157621140371214</v>
       </c>
       <c r="J184" t="n">
-        <v>2.3298998542157863</v>
+        <v>2.37928675900497</v>
       </c>
       <c r="K184" t="n">
-        <v>2.3004129592919758</v>
+        <v>2.398727819644983</v>
       </c>
       <c r="L184" t="n">
-        <v>2.3298998542157863</v>
+        <v>2.289367704585178</v>
       </c>
     </row>
     <row r="185">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>4.094986811398914</v>
+        <v>4.177713817689801</v>
       </c>
       <c r="C187" t="n">
-        <v>4.04316121657619</v>
+        <v>4.134800745117006</v>
       </c>
       <c r="D187" t="n">
-        <v>4.094986811398914</v>
+        <v>3.671188429799291</v>
       </c>
       <c r="E187" t="n">
-        <v>4.04316121657619</v>
+        <v>4.105036135313854</v>
       </c>
       <c r="F187" t="n">
-        <v>4.094986811398914</v>
+        <v>3.9994712068553495</v>
       </c>
       <c r="G187" t="n">
-        <v>4.04316121657619</v>
+        <v>3.7496412261490897</v>
       </c>
       <c r="H187" t="n">
-        <v>4.094986811398914</v>
+        <v>4.177713817689801</v>
       </c>
       <c r="I187" t="n">
-        <v>4.04316121657619</v>
+        <v>4.152363615453234</v>
       </c>
       <c r="J187" t="n">
-        <v>4.094986811398914</v>
+        <v>4.26626884900472</v>
       </c>
       <c r="K187" t="n">
-        <v>4.04316121657619</v>
+        <v>4.301128367760158</v>
       </c>
       <c r="L187" t="n">
-        <v>4.094986811398914</v>
+        <v>4.105036135313854</v>
       </c>
     </row>
     <row r="188">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>3.0969699939536186</v>
+        <v>3.128897519664481</v>
       </c>
       <c r="C200" t="n">
-        <v>3.2766398518873294</v>
+        <v>3.325636932396473</v>
       </c>
       <c r="D200" t="n">
-        <v>3.0969699939536186</v>
+        <v>3.1151893151224184</v>
       </c>
       <c r="E200" t="n">
-        <v>3.2766398518873294</v>
+        <v>3.3245679076120767</v>
       </c>
       <c r="F200" t="n">
-        <v>3.0969699939536186</v>
+        <v>3.472732410642748</v>
       </c>
       <c r="G200" t="n">
-        <v>3.2766398518873294</v>
+        <v>3.5753209858006376</v>
       </c>
       <c r="H200" t="n">
-        <v>3.0969699939536186</v>
+        <v>3.420526574176014</v>
       </c>
       <c r="I200" t="n">
-        <v>3.2766398518873294</v>
+        <v>3.4684973708923095</v>
       </c>
       <c r="J200" t="n">
-        <v>3.0969699939536186</v>
+        <v>3.1168962697236187</v>
       </c>
       <c r="K200" t="n">
-        <v>3.2766398518873294</v>
+        <v>3.4516600077054043</v>
       </c>
       <c r="L200" t="n">
-        <v>3.0969699939536186</v>
+        <v>3.3245679076120767</v>
       </c>
     </row>
     <row r="201">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>3.0658206760483484</v>
+        <v>3.035763610596894</v>
       </c>
       <c r="C213" t="n">
-        <v>3.0731415324350455</v>
+        <v>3.013910485163768</v>
       </c>
       <c r="D213" t="n">
-        <v>3.0658206760483484</v>
+        <v>3.0635297410754396</v>
       </c>
       <c r="E213" t="n">
-        <v>3.0731415324350455</v>
+        <v>3.052362563554367</v>
       </c>
       <c r="F213" t="n">
-        <v>3.0658206760483484</v>
+        <v>3.067270314829073</v>
       </c>
       <c r="G213" t="n">
-        <v>3.0731415324350455</v>
+        <v>2.695380244378297</v>
       </c>
       <c r="H213" t="n">
-        <v>3.0658206760483484</v>
+        <v>2.830528888352124</v>
       </c>
       <c r="I213" t="n">
-        <v>3.0731415324350455</v>
+        <v>2.8052421994543733</v>
       </c>
       <c r="J213" t="n">
-        <v>3.0658206760483484</v>
+        <v>2.751472495279071</v>
       </c>
       <c r="K213" t="n">
-        <v>3.0731415324350455</v>
+        <v>2.7635801856765845</v>
       </c>
       <c r="L213" t="n">
-        <v>3.0658206760483484</v>
+        <v>3.052362563554367</v>
       </c>
     </row>
     <row r="214">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>3.4026151953935893</v>
+        <v>3.369256222889731</v>
       </c>
       <c r="C214" t="n">
-        <v>3.4107402815668544</v>
+        <v>3.3450024309942967</v>
       </c>
       <c r="D214" t="n">
-        <v>3.4026151953935893</v>
+        <v>3.4000725906641684</v>
       </c>
       <c r="E214" t="n">
-        <v>3.4107402815668544</v>
+        <v>3.387678647267637</v>
       </c>
       <c r="F214" t="n">
-        <v>3.4026151953935893</v>
+        <v>3.404224083669953</v>
       </c>
       <c r="G214" t="n">
-        <v>3.4107402815668544</v>
+        <v>2.9914801764291603</v>
       </c>
       <c r="H214" t="n">
-        <v>3.4026151953935893</v>
+        <v>3.141475521302009</v>
       </c>
       <c r="I214" t="n">
-        <v>3.4107402815668544</v>
+        <v>3.1134109731838264</v>
       </c>
       <c r="J214" t="n">
-        <v>3.4026151953935893</v>
+        <v>3.0537344193957807</v>
       </c>
       <c r="K214" t="n">
-        <v>3.4107402815668544</v>
+        <v>3.0671721953392854</v>
       </c>
       <c r="L214" t="n">
-        <v>3.4026151953935893</v>
+        <v>3.387678647267637</v>
       </c>
     </row>
     <row r="215">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>0.3836308081859589</v>
+        <v>0.387626962437896</v>
       </c>
       <c r="C221" t="n">
-        <v>0.35968416392753716</v>
+        <v>0.3625554771953328</v>
       </c>
       <c r="D221" t="n">
-        <v>0.3836308081859589</v>
+        <v>0.3767525647002522</v>
       </c>
       <c r="E221" t="n">
-        <v>0.35968416392753716</v>
+        <v>0.3935431245761786</v>
       </c>
       <c r="F221" t="n">
-        <v>0.3836308081859589</v>
+        <v>0.3532184320357231</v>
       </c>
       <c r="G221" t="n">
-        <v>0.35968416392753716</v>
+        <v>0.4018850611571496</v>
       </c>
       <c r="H221" t="n">
-        <v>0.3836308081859589</v>
+        <v>0.3911551204590529</v>
       </c>
       <c r="I221" t="n">
-        <v>0.35968416392753716</v>
+        <v>0.40516884854204605</v>
       </c>
       <c r="J221" t="n">
-        <v>0.3836308081859589</v>
+        <v>0.38669684370167834</v>
       </c>
       <c r="K221" t="n">
-        <v>0.35968416392753716</v>
+        <v>0.39306319391092365</v>
       </c>
       <c r="L221" t="n">
-        <v>0.3836308081859589</v>
+        <v>0.3935431245761786</v>
       </c>
     </row>
     <row r="222">
@@ -8501,37 +8501,37 @@
         <v>221.0</v>
       </c>
       <c r="B222" t="n">
-        <v>0.9702656548250251</v>
+        <v>0.9126261109740336</v>
       </c>
       <c r="C222" t="n">
-        <v>0.9097006376875149</v>
+        <v>0.8535979878286288</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9702656548250251</v>
+        <v>0.8870235077544996</v>
       </c>
       <c r="E222" t="n">
-        <v>0.9097006376875149</v>
+        <v>0.9265550802340543</v>
       </c>
       <c r="F222" t="n">
-        <v>0.9702656548250251</v>
+        <v>0.8316149163766042</v>
       </c>
       <c r="G222" t="n">
-        <v>0.9097006376875149</v>
+        <v>0.946195275260744</v>
       </c>
       <c r="H222" t="n">
-        <v>0.9702656548250251</v>
+        <v>0.9209327806481435</v>
       </c>
       <c r="I222" t="n">
-        <v>0.9097006376875149</v>
+        <v>0.9539266004799585</v>
       </c>
       <c r="J222" t="n">
-        <v>0.9702656548250251</v>
+        <v>0.9104362461626702</v>
       </c>
       <c r="K222" t="n">
-        <v>0.9097006376875149</v>
+        <v>0.925425134954154</v>
       </c>
       <c r="L222" t="n">
-        <v>0.9702656548250251</v>
+        <v>0.9265550802340543</v>
       </c>
     </row>
     <row r="223">
@@ -8577,37 +8577,37 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="n">
-        <v>1.5742202530336977</v>
+        <v>1.4807022182000125</v>
       </c>
       <c r="C224" t="n">
-        <v>1.475955745649485</v>
+        <v>1.3849312646555207</v>
       </c>
       <c r="D224" t="n">
-        <v>1.5742202530336977</v>
+        <v>1.4391629383974676</v>
       </c>
       <c r="E224" t="n">
-        <v>1.475955745649485</v>
+        <v>1.5033014572887782</v>
       </c>
       <c r="F224" t="n">
-        <v>1.5742202530336977</v>
+        <v>1.3492645417002445</v>
       </c>
       <c r="G224" t="n">
-        <v>1.475955745649485</v>
+        <v>1.535166949621517</v>
       </c>
       <c r="H224" t="n">
-        <v>1.5742202530336977</v>
+        <v>1.4941794834945397</v>
       </c>
       <c r="I224" t="n">
-        <v>1.475955745649485</v>
+        <v>1.5477107397498737</v>
       </c>
       <c r="J224" t="n">
-        <v>1.5742202530336977</v>
+        <v>1.4771492432798854</v>
       </c>
       <c r="K224" t="n">
-        <v>1.475955745649485</v>
+        <v>1.5014681627311555</v>
       </c>
       <c r="L224" t="n">
-        <v>1.5742202530336977</v>
+        <v>1.5033014572887782</v>
       </c>
     </row>
     <row r="225">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>4.218022607057173</v>
+        <v>4.26106365406796</v>
       </c>
       <c r="C230" t="n">
-        <v>4.004482568106854</v>
+        <v>4.094187231122886</v>
       </c>
       <c r="D230" t="n">
-        <v>4.218022607057173</v>
+        <v>4.578023397567438</v>
       </c>
       <c r="E230" t="n">
-        <v>4.004482568106854</v>
+        <v>4.19778052910344</v>
       </c>
       <c r="F230" t="n">
-        <v>4.218022607057173</v>
+        <v>4.611217521956766</v>
       </c>
       <c r="G230" t="n">
-        <v>4.004482568106854</v>
+        <v>4.2922187872754485</v>
       </c>
       <c r="H230" t="n">
-        <v>4.218022607057173</v>
+        <v>4.461729370790707</v>
       </c>
       <c r="I230" t="n">
-        <v>4.004482568106854</v>
+        <v>4.659075091007068</v>
       </c>
       <c r="J230" t="n">
-        <v>4.218022607057173</v>
+        <v>4.299473239883718</v>
       </c>
       <c r="K230" t="n">
-        <v>4.004482568106854</v>
+        <v>4.636430744243394</v>
       </c>
       <c r="L230" t="n">
-        <v>4.218022607057173</v>
+        <v>4.19778052910344</v>
       </c>
     </row>
     <row r="231">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>4.903471613297822</v>
+        <v>4.806373165509746</v>
       </c>
       <c r="C238" t="n">
-        <v>4.655230288667766</v>
+        <v>4.618140736633981</v>
       </c>
       <c r="D238" t="n">
-        <v>4.903471613297822</v>
+        <v>5.163895824024448</v>
       </c>
       <c r="E238" t="n">
-        <v>4.655230288667766</v>
+        <v>4.734991384256915</v>
       </c>
       <c r="F238" t="n">
-        <v>4.903471613297822</v>
+        <v>5.2013379656280225</v>
       </c>
       <c r="G238" t="n">
-        <v>4.655230288667766</v>
+        <v>4.841515376087473</v>
       </c>
       <c r="H238" t="n">
-        <v>4.903471613297822</v>
+        <v>5.032719072164585</v>
       </c>
       <c r="I238" t="n">
-        <v>4.655230288667766</v>
+        <v>5.255320105845596</v>
       </c>
       <c r="J238" t="n">
-        <v>4.903471613297822</v>
+        <v>4.849698217081543</v>
       </c>
       <c r="K238" t="n">
-        <v>4.655230288667766</v>
+        <v>5.229777849387748</v>
       </c>
       <c r="L238" t="n">
-        <v>4.903471613297822</v>
+        <v>4.734991384256915</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>5.384119017746145</v>
+        <v>5.331846017573852</v>
       </c>
       <c r="C242" t="n">
-        <v>5.039108146654291</v>
+        <v>4.994444697802605</v>
       </c>
       <c r="D242" t="n">
-        <v>5.384119017746145</v>
+        <v>5.092046914209102</v>
       </c>
       <c r="E242" t="n">
-        <v>5.039108146654291</v>
+        <v>5.483978366629369</v>
       </c>
       <c r="F242" t="n">
-        <v>5.384119017746145</v>
+        <v>5.533893218115415</v>
       </c>
       <c r="G242" t="n">
-        <v>5.039108146654291</v>
+        <v>5.33013209760747</v>
       </c>
       <c r="H242" t="n">
-        <v>5.384119017746145</v>
+        <v>4.90314839659847</v>
       </c>
       <c r="I242" t="n">
-        <v>5.039108146654291</v>
+        <v>5.685695771512369</v>
       </c>
       <c r="J242" t="n">
-        <v>5.384119017746145</v>
+        <v>5.567677666017016</v>
       </c>
       <c r="K242" t="n">
-        <v>5.039108146654291</v>
+        <v>4.997181382316759</v>
       </c>
       <c r="L242" t="n">
-        <v>5.384119017746145</v>
+        <v>5.483978366629369</v>
       </c>
     </row>
     <row r="243">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>2.6225529518822697</v>
+        <v>2.5968416484324433</v>
       </c>
       <c r="C250" t="n">
-        <v>2.4545014516403265</v>
+        <v>2.4325124842873884</v>
       </c>
       <c r="D250" t="n">
-        <v>2.6225529518822697</v>
+        <v>2.480049022234717</v>
       </c>
       <c r="E250" t="n">
-        <v>2.4545014516403265</v>
+        <v>2.6709367402259967</v>
       </c>
       <c r="F250" t="n">
-        <v>2.6225529518822697</v>
+        <v>2.6952474507729725</v>
       </c>
       <c r="G250" t="n">
-        <v>2.4545014516403265</v>
+        <v>2.5960068946274553</v>
       </c>
       <c r="H250" t="n">
-        <v>2.6225529518822697</v>
+        <v>2.388047202181847</v>
       </c>
       <c r="I250" t="n">
-        <v>2.4545014516403265</v>
+        <v>2.7691819176912382</v>
       </c>
       <c r="J250" t="n">
-        <v>2.6225529518822697</v>
+        <v>2.7117019509762805</v>
       </c>
       <c r="K250" t="n">
-        <v>2.4545014516403265</v>
+        <v>2.4338453690521686</v>
       </c>
       <c r="L250" t="n">
-        <v>2.6225529518822697</v>
+        <v>2.6709367402259967</v>
       </c>
     </row>
     <row r="251">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>2.1905143386103005</v>
+        <v>2.2126407460710107</v>
       </c>
       <c r="C253" t="n">
-        <v>2.262482376319741</v>
+        <v>2.297884863346282</v>
       </c>
       <c r="D253" t="n">
-        <v>2.1905143386103005</v>
+        <v>2.5125224587053525</v>
       </c>
       <c r="E253" t="n">
-        <v>2.262482376319741</v>
+        <v>2.4060988564908157</v>
       </c>
       <c r="F253" t="n">
-        <v>2.1905143386103005</v>
+        <v>2.500310929872889</v>
       </c>
       <c r="G253" t="n">
-        <v>2.262482376319741</v>
+        <v>2.2637578596761085</v>
       </c>
       <c r="H253" t="n">
-        <v>2.1905143386103005</v>
+        <v>2.4867140708366917</v>
       </c>
       <c r="I253" t="n">
-        <v>2.262482376319741</v>
+        <v>2.3146860460614658</v>
       </c>
       <c r="J253" t="n">
-        <v>2.1905143386103005</v>
+        <v>2.207892589710855</v>
       </c>
       <c r="K253" t="n">
-        <v>2.262482376319741</v>
+        <v>2.3185981905854023</v>
       </c>
       <c r="L253" t="n">
-        <v>2.1905143386103005</v>
+        <v>2.4060988564908157</v>
       </c>
     </row>
     <row r="254">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>1.5919227449371498</v>
+        <v>1.6083343196272235</v>
       </c>
       <c r="C254" t="n">
-        <v>1.6442244140560274</v>
+        <v>1.6702969493960176</v>
       </c>
       <c r="D254" t="n">
-        <v>1.5919227449371498</v>
+        <v>1.8263136961323516</v>
       </c>
       <c r="E254" t="n">
-        <v>1.6442244140560274</v>
+        <v>1.7489560264953208</v>
       </c>
       <c r="F254" t="n">
-        <v>1.5919227449371498</v>
+        <v>1.8174373247868256</v>
       </c>
       <c r="G254" t="n">
-        <v>1.6442244140560274</v>
+        <v>1.645490558513879</v>
       </c>
       <c r="H254" t="n">
-        <v>1.5919227449371498</v>
+        <v>1.8075539783529857</v>
       </c>
       <c r="I254" t="n">
-        <v>1.6442244140560274</v>
+        <v>1.68250946912799</v>
       </c>
       <c r="J254" t="n">
-        <v>1.5919227449371498</v>
+        <v>1.6048829582426178</v>
       </c>
       <c r="K254" t="n">
-        <v>1.6442244140560274</v>
+        <v>1.6853531464454041</v>
       </c>
       <c r="L254" t="n">
-        <v>1.5919227449371498</v>
+        <v>1.7489560264953208</v>
       </c>
     </row>
     <row r="255">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>4.304590632196462</v>
+        <v>4.261970922966794</v>
       </c>
       <c r="C260" t="n">
-        <v>4.446015381389456</v>
+        <v>4.426167460441892</v>
       </c>
       <c r="D260" t="n">
-        <v>4.304590632196462</v>
+        <v>4.839600681365915</v>
       </c>
       <c r="E260" t="n">
-        <v>4.446015381389456</v>
+        <v>4.634608389254712</v>
       </c>
       <c r="F260" t="n">
-        <v>4.304590632196462</v>
+        <v>4.816078932116135</v>
       </c>
       <c r="G260" t="n">
-        <v>4.446015381389456</v>
+        <v>4.360432298695217</v>
       </c>
       <c r="H260" t="n">
-        <v>4.304590632196462</v>
+        <v>4.789888770898661</v>
       </c>
       <c r="I260" t="n">
-        <v>4.446015381389456</v>
+        <v>4.458529764322772</v>
       </c>
       <c r="J260" t="n">
-        <v>4.304590632196462</v>
+        <v>4.252825062130317</v>
       </c>
       <c r="K260" t="n">
-        <v>4.446015381389456</v>
+        <v>4.4660653058412345</v>
       </c>
       <c r="L260" t="n">
-        <v>4.304590632196462</v>
+        <v>4.634608389254712</v>
       </c>
     </row>
     <row r="261">
@@ -10138,34 +10138,34 @@
         <v>0.5091906871425856</v>
       </c>
       <c r="C265" t="n">
-        <v>0.5188774510872687</v>
+        <v>0.5238877126577217</v>
       </c>
       <c r="D265" t="n">
-        <v>0.5091906871425856</v>
+        <v>0.47738370742821945</v>
       </c>
       <c r="E265" t="n">
-        <v>0.5188774510872687</v>
+        <v>0.4900029617775179</v>
       </c>
       <c r="F265" t="n">
-        <v>0.5091906871425856</v>
+        <v>0.4673955286877053</v>
       </c>
       <c r="G265" t="n">
-        <v>0.5188774510872687</v>
+        <v>0.4771222703300882</v>
       </c>
       <c r="H265" t="n">
-        <v>0.5091906871425856</v>
+        <v>0.5318835564732398</v>
       </c>
       <c r="I265" t="n">
-        <v>0.5188774510872687</v>
+        <v>0.5093544189356083</v>
       </c>
       <c r="J265" t="n">
-        <v>0.5091906871425856</v>
+        <v>0.5264200999859704</v>
       </c>
       <c r="K265" t="n">
-        <v>0.5188774510872687</v>
+        <v>0.4864462680713396</v>
       </c>
       <c r="L265" t="n">
-        <v>0.5091906871425856</v>
+        <v>0.4900029617775179</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>0.783739622428651</v>
+        <v>0.7917369655146578</v>
       </c>
       <c r="C266" t="n">
-        <v>0.7986493623517527</v>
+        <v>0.8145892656003956</v>
       </c>
       <c r="D266" t="n">
-        <v>0.783739622428651</v>
+        <v>0.7422805197525483</v>
       </c>
       <c r="E266" t="n">
-        <v>0.7986493623517527</v>
+        <v>0.7619021082808818</v>
       </c>
       <c r="F266" t="n">
-        <v>0.783739622428651</v>
+        <v>0.7267499719112083</v>
       </c>
       <c r="G266" t="n">
-        <v>0.7986493623517527</v>
+        <v>0.741874013074453</v>
       </c>
       <c r="H266" t="n">
-        <v>0.783739622428651</v>
+        <v>0.8270219460854861</v>
       </c>
       <c r="I266" t="n">
-        <v>0.7986493623517527</v>
+        <v>0.7919915509111298</v>
       </c>
       <c r="J266" t="n">
-        <v>0.783739622428651</v>
+        <v>0.8185268565842894</v>
       </c>
       <c r="K266" t="n">
-        <v>0.7986493623517527</v>
+        <v>0.7563718306200766</v>
       </c>
       <c r="L266" t="n">
-        <v>0.783739622428651</v>
+        <v>0.7619021082808818</v>
       </c>
     </row>
     <row r="267">
@@ -10252,34 +10252,34 @@
         <v>4.272964143877555</v>
       </c>
       <c r="C268" t="n">
-        <v>4.520858977274451</v>
+        <v>4.541640395179475</v>
       </c>
       <c r="D268" t="n">
-        <v>4.272964143877555</v>
+        <v>4.254243598983693</v>
       </c>
       <c r="E268" t="n">
-        <v>4.520858977274451</v>
+        <v>4.540180486523492</v>
       </c>
       <c r="F268" t="n">
-        <v>4.272964143877555</v>
+        <v>4.742520641439587</v>
       </c>
       <c r="G268" t="n">
-        <v>4.520858977274451</v>
+        <v>4.882620245362746</v>
       </c>
       <c r="H268" t="n">
-        <v>4.272964143877555</v>
+        <v>4.671225987037672</v>
       </c>
       <c r="I268" t="n">
-        <v>4.520858977274451</v>
+        <v>4.736737079374102</v>
       </c>
       <c r="J268" t="n">
-        <v>4.272964143877555</v>
+        <v>4.2565746934859305</v>
       </c>
       <c r="K268" t="n">
-        <v>4.520858977274451</v>
+        <v>4.713743213731994</v>
       </c>
       <c r="L268" t="n">
-        <v>4.272964143877555</v>
+        <v>4.540180486523492</v>
       </c>
     </row>
     <row r="269">
@@ -10290,34 +10290,34 @@
         <v>0.7837578984379076</v>
       </c>
       <c r="C269" t="n">
-        <v>0.7986679860409491</v>
+        <v>0.8063798947192454</v>
       </c>
       <c r="D269" t="n">
-        <v>0.7837578984379076</v>
+        <v>0.7347998711093204</v>
       </c>
       <c r="E269" t="n">
-        <v>0.7986679860409491</v>
+        <v>0.7542237147074066</v>
       </c>
       <c r="F269" t="n">
-        <v>0.7837578984379076</v>
+        <v>0.7194258389901991</v>
       </c>
       <c r="G269" t="n">
-        <v>0.7986679860409491</v>
+        <v>0.7343974611757159</v>
       </c>
       <c r="H269" t="n">
-        <v>0.7837578984379076</v>
+        <v>0.8186872795621527</v>
       </c>
       <c r="I269" t="n">
-        <v>0.7986679860409491</v>
+        <v>0.784009918141424</v>
       </c>
       <c r="J269" t="n">
-        <v>0.7837578984379076</v>
+        <v>0.8102778029499651</v>
       </c>
       <c r="K269" t="n">
-        <v>0.7986679860409491</v>
+        <v>0.7487491707793063</v>
       </c>
       <c r="L269" t="n">
-        <v>0.7837578984379076</v>
+        <v>0.7542237147074066</v>
       </c>
     </row>
     <row r="270">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>3.246560050691294</v>
+        <v>3.215040050199145</v>
       </c>
       <c r="C272" t="n">
-        <v>3.308322101014258</v>
+        <v>3.3078373594255215</v>
       </c>
       <c r="D272" t="n">
-        <v>3.246560050691294</v>
+        <v>3.0142101524030696</v>
       </c>
       <c r="E272" t="n">
-        <v>3.308322101014258</v>
+        <v>3.0938883734725042</v>
       </c>
       <c r="F272" t="n">
-        <v>3.246560050691294</v>
+        <v>2.9511445946657413</v>
       </c>
       <c r="G272" t="n">
-        <v>3.308322101014258</v>
+        <v>3.01255943340462</v>
       </c>
       <c r="H272" t="n">
-        <v>3.246560050691294</v>
+        <v>3.35832327511712</v>
       </c>
       <c r="I272" t="n">
-        <v>3.308322101014258</v>
+        <v>3.216073855972407</v>
       </c>
       <c r="J272" t="n">
-        <v>3.246560050691294</v>
+        <v>3.3238269030061884</v>
       </c>
       <c r="K272" t="n">
-        <v>3.308322101014258</v>
+        <v>3.071431339201466</v>
       </c>
       <c r="L272" t="n">
-        <v>3.246560050691294</v>
+        <v>3.0938883734725042</v>
       </c>
     </row>
     <row r="273">
@@ -10480,34 +10480,34 @@
         <v>0.5653265207689923</v>
       </c>
       <c r="C274" t="n">
-        <v>0.5888055697236384</v>
+        <v>0.5855802046038445</v>
       </c>
       <c r="D274" t="n">
-        <v>0.5653265207689923</v>
+        <v>0.5687778422230803</v>
       </c>
       <c r="E274" t="n">
-        <v>0.5888055697236384</v>
+        <v>0.5687778422230803</v>
       </c>
       <c r="F274" t="n">
-        <v>0.5653265207689923</v>
+        <v>0.5124632045699503</v>
       </c>
       <c r="G274" t="n">
-        <v>0.5888055697236384</v>
+        <v>0.5201887806903971</v>
       </c>
       <c r="H274" t="n">
-        <v>0.5653265207689923</v>
+        <v>0.5660134303088671</v>
       </c>
       <c r="I274" t="n">
-        <v>0.5888055697236384</v>
+        <v>0.49981658022000536</v>
       </c>
       <c r="J274" t="n">
-        <v>0.5653265207689923</v>
+        <v>0.5446859633149085</v>
       </c>
       <c r="K274" t="n">
-        <v>0.5888055697236384</v>
+        <v>0.5102180206403473</v>
       </c>
       <c r="L274" t="n">
-        <v>0.5653265207689923</v>
+        <v>0.5687778422230803</v>
       </c>
     </row>
     <row r="275">
@@ -10515,37 +10515,37 @@
         <v>274.0</v>
       </c>
       <c r="B275" t="n">
-        <v>2.633470174405221</v>
+        <v>2.660070883237597</v>
       </c>
       <c r="C275" t="n">
-        <v>2.3425133390717185</v>
+        <v>2.337947232414438</v>
       </c>
       <c r="D275" t="n">
-        <v>2.633470174405221</v>
+        <v>2.3997489871077784</v>
       </c>
       <c r="E275" t="n">
-        <v>2.3425133390717185</v>
+        <v>2.601679083030082</v>
       </c>
       <c r="F275" t="n">
-        <v>2.633470174405221</v>
+        <v>2.5595403113739614</v>
       </c>
       <c r="G275" t="n">
-        <v>2.3425133390717185</v>
+        <v>2.565696752623712</v>
       </c>
       <c r="H275" t="n">
-        <v>2.633470174405221</v>
+        <v>2.493719285455955</v>
       </c>
       <c r="I275" t="n">
-        <v>2.3425133390717185</v>
+        <v>2.2939536004254752</v>
       </c>
       <c r="J275" t="n">
-        <v>2.633470174405221</v>
+        <v>2.589049574936933</v>
       </c>
       <c r="K275" t="n">
-        <v>2.3425133390717185</v>
+        <v>2.6048557365362903</v>
       </c>
       <c r="L275" t="n">
-        <v>2.633470174405221</v>
+        <v>2.601679083030082</v>
       </c>
     </row>
     <row r="276">
@@ -10708,34 +10708,34 @@
         <v>0.4744208945736233</v>
       </c>
       <c r="C280" t="n">
-        <v>0.4684166884088647</v>
+        <v>0.4695476889958065</v>
       </c>
       <c r="D280" t="n">
-        <v>0.4744208945736233</v>
+        <v>0.4168999062690314</v>
       </c>
       <c r="E280" t="n">
-        <v>0.4684166884088647</v>
+        <v>0.4661676219482137</v>
       </c>
       <c r="F280" t="n">
-        <v>0.4744208945736233</v>
+        <v>0.45417967591351416</v>
       </c>
       <c r="G280" t="n">
-        <v>0.4684166884088647</v>
+        <v>0.42580900044117725</v>
       </c>
       <c r="H280" t="n">
         <v>0.4744208945736233</v>
       </c>
       <c r="I280" t="n">
-        <v>0.4684166884088647</v>
+        <v>0.4715421273464932</v>
       </c>
       <c r="J280" t="n">
-        <v>0.4744208945736233</v>
+        <v>0.4844771978554626</v>
       </c>
       <c r="K280" t="n">
-        <v>0.4684166884088647</v>
+        <v>0.48843584241420024</v>
       </c>
       <c r="L280" t="n">
-        <v>0.4744208945736233</v>
+        <v>0.4661676219482137</v>
       </c>
     </row>
     <row r="281">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>3.8355486088084283</v>
+        <v>3.8739040948965124</v>
       </c>
       <c r="C282" t="n">
-        <v>3.411781103927244</v>
+        <v>3.404790231108023</v>
       </c>
       <c r="D282" t="n">
-        <v>3.8355486088084283</v>
+        <v>3.4947931224170423</v>
       </c>
       <c r="E282" t="n">
-        <v>3.411781103927244</v>
+        <v>3.788867175257381</v>
       </c>
       <c r="F282" t="n">
-        <v>3.8355486088084283</v>
+        <v>3.7274998030188367</v>
       </c>
       <c r="G282" t="n">
-        <v>3.411781103927244</v>
+        <v>3.736465527623277</v>
       </c>
       <c r="H282" t="n">
-        <v>3.8355486088084283</v>
+        <v>3.63164358225388</v>
       </c>
       <c r="I282" t="n">
-        <v>3.411781103927244</v>
+        <v>3.3407215958752716</v>
       </c>
       <c r="J282" t="n">
-        <v>3.8355486088084283</v>
+        <v>3.770474619093978</v>
       </c>
       <c r="K282" t="n">
-        <v>3.411781103927244</v>
+        <v>3.7934933869509537</v>
       </c>
       <c r="L282" t="n">
-        <v>3.8355486088084283</v>
+        <v>3.788867175257381</v>
       </c>
     </row>
     <row r="283">
@@ -10860,34 +10860,34 @@
         <v>1.479725696276894</v>
       </c>
       <c r="C284" t="n">
-        <v>1.4624639621761184</v>
+        <v>1.467732907117446</v>
       </c>
       <c r="D284" t="n">
-        <v>1.479725696276894</v>
+        <v>1.4156606040989606</v>
       </c>
       <c r="E284" t="n">
-        <v>1.4624639621761184</v>
+        <v>1.2630062139431955</v>
       </c>
       <c r="F284" t="n">
-        <v>1.479725696276894</v>
+        <v>1.289290023654088</v>
       </c>
       <c r="G284" t="n">
-        <v>1.4624639621761184</v>
+        <v>1.437267144608821</v>
       </c>
       <c r="H284" t="n">
-        <v>1.479725696276894</v>
+        <v>1.3144855301645095</v>
       </c>
       <c r="I284" t="n">
-        <v>1.4624639621761184</v>
+        <v>1.3263344131837118</v>
       </c>
       <c r="J284" t="n">
-        <v>1.479725696276894</v>
+        <v>1.2949634674067663</v>
       </c>
       <c r="K284" t="n">
-        <v>1.4624639621761184</v>
+        <v>1.4225036754066154</v>
       </c>
       <c r="L284" t="n">
-        <v>1.479725696276894</v>
+        <v>1.2630062139431955</v>
       </c>
     </row>
     <row r="285">
@@ -11430,34 +11430,34 @@
         <v>2.489817659177294</v>
       </c>
       <c r="C299" t="n">
-        <v>2.460772701385271</v>
+        <v>2.469638339248531</v>
       </c>
       <c r="D299" t="n">
-        <v>2.489817659177294</v>
+        <v>2.3820203841534293</v>
       </c>
       <c r="E299" t="n">
-        <v>2.460772701385271</v>
+        <v>2.1251608882907305</v>
       </c>
       <c r="F299" t="n">
-        <v>2.489817659177294</v>
+        <v>2.169386580750686</v>
       </c>
       <c r="G299" t="n">
-        <v>2.460772701385271</v>
+        <v>2.4183760048272718</v>
       </c>
       <c r="H299" t="n">
-        <v>2.489817659177294</v>
+        <v>2.21178107129674</v>
       </c>
       <c r="I299" t="n">
-        <v>2.460772701385271</v>
+        <v>2.231718251719412</v>
       </c>
       <c r="J299" t="n">
-        <v>2.489817659177294</v>
+        <v>2.1789328368434937</v>
       </c>
       <c r="K299" t="n">
-        <v>2.460772701385271</v>
+        <v>2.393534680233897</v>
       </c>
       <c r="L299" t="n">
-        <v>2.489817659177294</v>
+        <v>2.1251608882907305</v>
       </c>
     </row>
     <row r="300">
@@ -11541,37 +11541,37 @@
         <v>301.0</v>
       </c>
       <c r="B302" t="n">
-        <v>1.4591040762776968</v>
+        <v>1.4736951170404737</v>
       </c>
       <c r="C302" t="n">
-        <v>1.4420829036012777</v>
+        <v>1.4617512041460483</v>
       </c>
       <c r="D302" t="n">
-        <v>1.4591040762776968</v>
+        <v>1.409891120290997</v>
       </c>
       <c r="E302" t="n">
-        <v>1.4420829036012777</v>
+        <v>1.257858868682895</v>
       </c>
       <c r="F302" t="n">
-        <v>1.4591040762776968</v>
+        <v>1.2840355594882396</v>
       </c>
       <c r="G302" t="n">
-        <v>1.4420829036012777</v>
+        <v>1.431409603970529</v>
       </c>
       <c r="H302" t="n">
-        <v>1.4591040762776968</v>
+        <v>1.3091283824412996</v>
       </c>
       <c r="I302" t="n">
-        <v>1.4420829036012777</v>
+        <v>1.3209289756807878</v>
       </c>
       <c r="J302" t="n">
-        <v>1.4591040762776968</v>
+        <v>1.2896858812851526</v>
       </c>
       <c r="K302" t="n">
-        <v>1.4420829036012777</v>
+        <v>1.4167063028596474</v>
       </c>
       <c r="L302" t="n">
-        <v>1.4591040762776968</v>
+        <v>1.257858868682895</v>
       </c>
     </row>
     <row r="303">
@@ -11655,37 +11655,37 @@
         <v>304.0</v>
       </c>
       <c r="B305" t="n">
-        <v>1.534717219404484</v>
+        <v>1.550219413539883</v>
       </c>
       <c r="C305" t="n">
-        <v>1.5168139819139832</v>
+        <v>1.5376552912675967</v>
       </c>
       <c r="D305" t="n">
-        <v>1.534717219404484</v>
+        <v>1.4831022783341223</v>
       </c>
       <c r="E305" t="n">
-        <v>1.5168139819139832</v>
+        <v>1.32317547583486</v>
       </c>
       <c r="F305" t="n">
-        <v>1.534717219404484</v>
+        <v>1.3507114388705312</v>
       </c>
       <c r="G305" t="n">
-        <v>1.5168139819139832</v>
+        <v>1.5057381483755072</v>
       </c>
       <c r="H305" t="n">
-        <v>1.534717219404484</v>
+        <v>1.3771072522464158</v>
       </c>
       <c r="I305" t="n">
-        <v>1.5168139819139832</v>
+        <v>1.3895206127302857</v>
       </c>
       <c r="J305" t="n">
-        <v>1.534717219404484</v>
+        <v>1.356655163892782</v>
       </c>
       <c r="K305" t="n">
-        <v>1.5168139819139832</v>
+        <v>1.4902713516401112</v>
       </c>
       <c r="L305" t="n">
-        <v>1.534717219404484</v>
+        <v>1.32317547583486</v>
       </c>
     </row>
     <row r="306">
@@ -11845,37 +11845,37 @@
         <v>309.0</v>
       </c>
       <c r="B310" t="n">
-        <v>1.5332957515808114</v>
+        <v>1.5487835874553653</v>
       </c>
       <c r="C310" t="n">
-        <v>1.5154090962174351</v>
+        <v>1.5362311021773845</v>
       </c>
       <c r="D310" t="n">
-        <v>1.5332957515808114</v>
+        <v>1.481728616697169</v>
       </c>
       <c r="E310" t="n">
-        <v>1.5154090962174351</v>
+        <v>1.3219499397294516</v>
       </c>
       <c r="F310" t="n">
-        <v>1.5332957515808114</v>
+        <v>1.3494603987276663</v>
       </c>
       <c r="G310" t="n">
-        <v>1.5154090962174351</v>
+        <v>1.5043435212078897</v>
       </c>
       <c r="H310" t="n">
-        <v>1.5332957515808114</v>
+        <v>1.3758317640821702</v>
       </c>
       <c r="I310" t="n">
-        <v>1.5154090962174351</v>
+        <v>1.388233627208554</v>
       </c>
       <c r="J310" t="n">
-        <v>1.5332957515808114</v>
+        <v>1.3553986186224805</v>
       </c>
       <c r="K310" t="n">
-        <v>1.5154090962174351</v>
+        <v>1.488891049947973</v>
       </c>
       <c r="L310" t="n">
-        <v>1.5332957515808114</v>
+        <v>1.3219499397294516</v>
       </c>
     </row>
     <row r="311">
@@ -11921,37 +11921,37 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="n">
-        <v>1.7989754480414053</v>
+        <v>1.692105619444886</v>
       </c>
       <c r="C312" t="n">
-        <v>1.9671011744715978</v>
+        <v>1.8367300302305931</v>
       </c>
       <c r="D312" t="n">
-        <v>1.7989754480414053</v>
+        <v>1.8255848250412947</v>
       </c>
       <c r="E312" t="n">
-        <v>1.9671011744715978</v>
+        <v>1.6175074138499652</v>
       </c>
       <c r="F312" t="n">
-        <v>1.7989754480414053</v>
+        <v>1.809118335388257</v>
       </c>
       <c r="G312" t="n">
-        <v>1.9671011744715978</v>
+        <v>1.8344901154404374</v>
       </c>
       <c r="H312" t="n">
-        <v>1.7989754480414053</v>
+        <v>1.8047773193526422</v>
       </c>
       <c r="I312" t="n">
-        <v>1.9671011744715978</v>
+        <v>1.6485281048923364</v>
       </c>
       <c r="J312" t="n">
-        <v>1.7989754480414053</v>
+        <v>1.8909891825262313</v>
       </c>
       <c r="K312" t="n">
-        <v>1.9671011744715978</v>
+        <v>1.875663210539738</v>
       </c>
       <c r="L312" t="n">
-        <v>1.7989754480414053</v>
+        <v>1.6175074138499652</v>
       </c>
     </row>
     <row r="313">
@@ -11997,37 +11997,37 @@
         <v>313.0</v>
       </c>
       <c r="B314" t="n">
-        <v>1.3121949448693433</v>
+        <v>1.325449439261963</v>
       </c>
       <c r="C314" t="n">
-        <v>1.2302863367180035</v>
+        <v>1.239720144665888</v>
       </c>
       <c r="D314" t="n">
-        <v>1.3121949448693433</v>
+        <v>1.2882655852466973</v>
       </c>
       <c r="E314" t="n">
-        <v>1.2302863367180035</v>
+        <v>1.345679130559626</v>
       </c>
       <c r="F314" t="n">
-        <v>1.3121949448693433</v>
+        <v>1.2077931053460909</v>
       </c>
       <c r="G314" t="n">
-        <v>1.2302863367180035</v>
+        <v>1.3742035012434077</v>
       </c>
       <c r="H314" t="n">
-        <v>1.3121949448693433</v>
+        <v>1.337513602810749</v>
       </c>
       <c r="I314" t="n">
-        <v>1.2302863367180035</v>
+        <v>1.3854320652230454</v>
       </c>
       <c r="J314" t="n">
-        <v>1.3121949448693433</v>
+        <v>1.3222689965249221</v>
       </c>
       <c r="K314" t="n">
-        <v>1.2302863367180035</v>
+        <v>1.3440380583618976</v>
       </c>
       <c r="L314" t="n">
-        <v>1.3121949448693433</v>
+        <v>1.345679130559626</v>
       </c>
     </row>
     <row r="315">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>2.4460881467101365</v>
+        <v>2.471048229839832</v>
       </c>
       <c r="C315" t="n">
-        <v>2.674690681016908</v>
+        <v>2.682248931590879</v>
       </c>
       <c r="D315" t="n">
-        <v>2.4460881467101365</v>
+        <v>2.6659731511444718</v>
       </c>
       <c r="E315" t="n">
-        <v>2.674690681016908</v>
+        <v>2.362109543172607</v>
       </c>
       <c r="F315" t="n">
-        <v>2.4460881467101365</v>
+        <v>2.6419264902024886</v>
       </c>
       <c r="G315" t="n">
-        <v>2.674690681016908</v>
+        <v>2.6789778961344624</v>
       </c>
       <c r="H315" t="n">
-        <v>2.4460881467101365</v>
+        <v>2.635587134155653</v>
       </c>
       <c r="I315" t="n">
-        <v>2.674690681016908</v>
+        <v>2.407410275471934</v>
       </c>
       <c r="J315" t="n">
-        <v>2.4460881467101365</v>
+        <v>2.76148570067432</v>
       </c>
       <c r="K315" t="n">
-        <v>2.674690681016908</v>
+        <v>2.7391045824316986</v>
       </c>
       <c r="L315" t="n">
-        <v>2.4460881467101365</v>
+        <v>2.362109543172607</v>
       </c>
     </row>
     <row r="316">
@@ -12073,37 +12073,37 @@
         <v>315.0</v>
       </c>
       <c r="B316" t="n">
-        <v>1.6051794643406532</v>
+        <v>1.5892865983570823</v>
       </c>
       <c r="C316" t="n">
-        <v>1.7551937203922945</v>
+        <v>1.7251230586912891</v>
       </c>
       <c r="D316" t="n">
-        <v>1.6051794643406532</v>
+        <v>1.714655080191754</v>
       </c>
       <c r="E316" t="n">
-        <v>1.7551937203922945</v>
+        <v>1.5192212743896645</v>
       </c>
       <c r="F316" t="n">
-        <v>1.6051794643406532</v>
+        <v>1.699189159491045</v>
       </c>
       <c r="G316" t="n">
-        <v>1.7551937203922945</v>
+        <v>1.7230192499712258</v>
       </c>
       <c r="H316" t="n">
-        <v>1.6051794643406532</v>
+        <v>1.6951119207363394</v>
       </c>
       <c r="I316" t="n">
-        <v>1.7551937203922945</v>
+        <v>1.5483570257156307</v>
       </c>
       <c r="J316" t="n">
-        <v>1.6051794643406532</v>
+        <v>1.7760852105751435</v>
       </c>
       <c r="K316" t="n">
-        <v>1.7551937203922945</v>
+        <v>1.7616905051826273</v>
       </c>
       <c r="L316" t="n">
-        <v>1.6051794643406532</v>
+        <v>1.5192212743896645</v>
       </c>
     </row>
     <row r="317">
@@ -12187,37 +12187,37 @@
         <v>318.0</v>
       </c>
       <c r="B319" t="n">
-        <v>1.878256394592856</v>
+        <v>1.8594738306469274</v>
       </c>
       <c r="C319" t="n">
-        <v>2.0537914309975385</v>
+        <v>2.0184032166370156</v>
       </c>
       <c r="D319" t="n">
-        <v>1.878256394592856</v>
+        <v>2.006155625736934</v>
       </c>
       <c r="E319" t="n">
-        <v>2.0537914309975385</v>
+        <v>1.7774970264079102</v>
       </c>
       <c r="F319" t="n">
-        <v>1.878256394592856</v>
+        <v>1.9880604156976887</v>
       </c>
       <c r="G319" t="n">
-        <v>2.0537914309975385</v>
+        <v>2.015941749168726</v>
       </c>
       <c r="H319" t="n">
-        <v>1.878256394592856</v>
+        <v>1.9832900245212248</v>
       </c>
       <c r="I319" t="n">
-        <v>2.0537914309975385</v>
+        <v>1.811586011480128</v>
       </c>
       <c r="J319" t="n">
-        <v>1.878256394592856</v>
+        <v>2.0780292072415056</v>
       </c>
       <c r="K319" t="n">
-        <v>2.0537914309975385</v>
+        <v>2.061187324849163</v>
       </c>
       <c r="L319" t="n">
-        <v>1.878256394592856</v>
+        <v>1.7774970264079102</v>
       </c>
     </row>
     <row r="320">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>1.771355021096396</v>
+        <v>1.7894300723320737</v>
       </c>
       <c r="C323" t="n">
-        <v>1.7755848300413917</v>
+        <v>1.7765487532175093</v>
       </c>
       <c r="D323" t="n">
-        <v>1.771355021096396</v>
+        <v>1.8057968107359366</v>
       </c>
       <c r="E323" t="n">
-        <v>1.7755848300413917</v>
+        <v>1.7992143208445879</v>
       </c>
       <c r="F323" t="n">
-        <v>1.771355021096396</v>
+        <v>1.8080016909641476</v>
       </c>
       <c r="G323" t="n">
-        <v>1.7755848300413917</v>
+        <v>1.5887911854612284</v>
       </c>
       <c r="H323" t="n">
-        <v>1.771355021096396</v>
+        <v>1.6684545185736892</v>
       </c>
       <c r="I323" t="n">
-        <v>1.7755848300413917</v>
+        <v>1.6535492863660852</v>
       </c>
       <c r="J323" t="n">
-        <v>1.771355021096396</v>
+        <v>1.6218547481959122</v>
       </c>
       <c r="K323" t="n">
-        <v>1.7755848300413917</v>
+        <v>1.6289916231581685</v>
       </c>
       <c r="L323" t="n">
-        <v>1.771355021096396</v>
+        <v>1.7992143208445879</v>
       </c>
     </row>
     <row r="324">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>2.4397233717777245</v>
+        <v>2.4153261380599473</v>
       </c>
       <c r="C327" t="n">
-        <v>2.2327270342399315</v>
+        <v>2.2147132404718772</v>
       </c>
       <c r="D327" t="n">
-        <v>2.4397233717777245</v>
+        <v>2.4328390752612203</v>
       </c>
       <c r="E327" t="n">
-        <v>2.2327270342399315</v>
+        <v>2.2683654482190647</v>
       </c>
       <c r="F327" t="n">
-        <v>2.4397233717777245</v>
+        <v>2.264538060833631</v>
       </c>
       <c r="G327" t="n">
-        <v>2.2327270342399315</v>
+        <v>2.446141356513423</v>
       </c>
       <c r="H327" t="n">
-        <v>2.4397233717777245</v>
+        <v>2.160058299111548</v>
       </c>
       <c r="I327" t="n">
-        <v>2.2327270342399315</v>
+        <v>2.2050102246614847</v>
       </c>
       <c r="J327" t="n">
-        <v>2.4397233717777245</v>
+        <v>2.248100878006918</v>
       </c>
       <c r="K327" t="n">
-        <v>2.2327270342399315</v>
+        <v>2.353970400401783</v>
       </c>
       <c r="L327" t="n">
-        <v>2.4397233717777245</v>
+        <v>2.2683654482190647</v>
       </c>
     </row>
     <row r="328">
@@ -12570,34 +12570,34 @@
         <v>1.976641410971863</v>
       </c>
       <c r="C329" t="n">
-        <v>2.2009582533173906</v>
+        <v>2.188938455892516</v>
       </c>
       <c r="D329" t="n">
-        <v>1.976641410971863</v>
+        <v>2.191598162544004</v>
       </c>
       <c r="E329" t="n">
-        <v>2.2009582533173906</v>
+        <v>2.2673605107419696</v>
       </c>
       <c r="F329" t="n">
-        <v>1.976641410971863</v>
+        <v>2.2489841477294172</v>
       </c>
       <c r="G329" t="n">
-        <v>2.2009582533173906</v>
+        <v>1.9394465446366485</v>
       </c>
       <c r="H329" t="n">
-        <v>1.976641410971863</v>
+        <v>2.1996162027428343</v>
       </c>
       <c r="I329" t="n">
-        <v>2.2009582533173906</v>
+        <v>2.169194573307233</v>
       </c>
       <c r="J329" t="n">
-        <v>1.976641410971863</v>
+        <v>2.108340487172137</v>
       </c>
       <c r="K329" t="n">
-        <v>2.2009582533173906</v>
+        <v>2.163989547056103</v>
       </c>
       <c r="L329" t="n">
-        <v>1.976641410971863</v>
+        <v>2.2673605107419696</v>
       </c>
     </row>
     <row r="330">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>3.1758179932742694</v>
+        <v>3.1446825227519724</v>
       </c>
       <c r="C331" t="n">
-        <v>3.301038802654829</v>
+        <v>3.2623094552256213</v>
       </c>
       <c r="D331" t="n">
-        <v>3.1758179932742694</v>
+        <v>3.5083667356404584</v>
       </c>
       <c r="E331" t="n">
-        <v>3.301038802654829</v>
+        <v>3.058526838448717</v>
       </c>
       <c r="F331" t="n">
-        <v>3.1758179932742694</v>
+        <v>3.0009739124059336</v>
       </c>
       <c r="G331" t="n">
-        <v>3.301038802654829</v>
+        <v>3.3870215294983788</v>
       </c>
       <c r="H331" t="n">
-        <v>3.1758179932742694</v>
+        <v>3.479932342252264</v>
       </c>
       <c r="I331" t="n">
-        <v>3.301038802654829</v>
+        <v>3.407699314178133</v>
       </c>
       <c r="J331" t="n">
-        <v>3.1758179932742694</v>
+        <v>3.4035435830861376</v>
       </c>
       <c r="K331" t="n">
-        <v>3.301038802654829</v>
+        <v>3.356471124934822</v>
       </c>
       <c r="L331" t="n">
-        <v>3.1758179932742694</v>
+        <v>3.058526838448717</v>
       </c>
     </row>
     <row r="332">
@@ -12719,37 +12719,37 @@
         <v>332.0</v>
       </c>
       <c r="B333" t="n">
-        <v>2.385085099622788</v>
+        <v>2.3614703956661263</v>
       </c>
       <c r="C333" t="n">
-        <v>2.4791277328117123</v>
+        <v>2.449801257926415</v>
       </c>
       <c r="D333" t="n">
-        <v>2.385085099622788</v>
+        <v>2.6345757078537995</v>
       </c>
       <c r="E333" t="n">
-        <v>2.4791277328117123</v>
+        <v>2.2967725775466525</v>
       </c>
       <c r="F333" t="n">
-        <v>2.385085099622788</v>
+        <v>2.2535537374727563</v>
       </c>
       <c r="G333" t="n">
-        <v>2.4791277328117123</v>
+        <v>2.5434526422065376</v>
       </c>
       <c r="H333" t="n">
-        <v>2.385085099622788</v>
+        <v>2.613223161859368</v>
       </c>
       <c r="I333" t="n">
-        <v>2.4791277328117123</v>
+        <v>2.5589804342859956</v>
       </c>
       <c r="J333" t="n">
-        <v>2.385085099622788</v>
+        <v>2.5558597262733125</v>
       </c>
       <c r="K333" t="n">
-        <v>2.4791277328117123</v>
+        <v>2.5205110970964997</v>
       </c>
       <c r="L333" t="n">
-        <v>2.385085099622788</v>
+        <v>2.2967725775466525</v>
       </c>
     </row>
     <row r="334">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1.5266805972718103</v>
+        <v>1.5424195725014165</v>
       </c>
       <c r="C341" t="n">
-        <v>1.6894737927587071</v>
+        <v>1.7194494133095437</v>
       </c>
       <c r="D341" t="n">
-        <v>1.5266805972718103</v>
+        <v>1.5142248060369494</v>
       </c>
       <c r="E341" t="n">
-        <v>1.6894737927587071</v>
+        <v>1.701787395115247</v>
       </c>
       <c r="F341" t="n">
-        <v>1.5266805972718103</v>
+        <v>1.5867369800773463</v>
       </c>
       <c r="G341" t="n">
-        <v>1.6894737927587071</v>
+        <v>1.6466182233808522</v>
       </c>
       <c r="H341" t="n">
-        <v>1.5266805972718103</v>
+        <v>1.5840596967029597</v>
       </c>
       <c r="I341" t="n">
-        <v>1.6894737927587071</v>
+        <v>1.5492068977168985</v>
       </c>
       <c r="J341" t="n">
-        <v>1.5266805972718103</v>
+        <v>1.711092430861948</v>
       </c>
       <c r="K341" t="n">
-        <v>1.6894737927587071</v>
+        <v>1.5109753964089936</v>
       </c>
       <c r="L341" t="n">
-        <v>1.5266805972718103</v>
+        <v>1.701787395115247</v>
       </c>
     </row>
     <row r="342">
@@ -13289,37 +13289,37 @@
         <v>347.0</v>
       </c>
       <c r="B348" t="n">
-        <v>2.525697711060644</v>
+        <v>2.5512098091521653</v>
       </c>
       <c r="C348" t="n">
-        <v>2.795018223781026</v>
+        <v>2.8440226562103064</v>
       </c>
       <c r="D348" t="n">
-        <v>2.525697711060644</v>
+        <v>2.5045747909941363</v>
       </c>
       <c r="E348" t="n">
-        <v>2.795018223781026</v>
+        <v>2.814809130351296</v>
       </c>
       <c r="F348" t="n">
-        <v>2.525697711060644</v>
+        <v>2.6245121757323213</v>
       </c>
       <c r="G348" t="n">
-        <v>2.795018223781026</v>
+        <v>2.723557609298999</v>
       </c>
       <c r="H348" t="n">
-        <v>2.525697711060644</v>
+        <v>2.6200838659984544</v>
       </c>
       <c r="I348" t="n">
-        <v>2.795018223781026</v>
+        <v>2.562436255559067</v>
       </c>
       <c r="J348" t="n">
-        <v>2.525697711060644</v>
+        <v>2.8301999480605113</v>
       </c>
       <c r="K348" t="n">
-        <v>2.795018223781026</v>
+        <v>2.4992001666930777</v>
       </c>
       <c r="L348" t="n">
-        <v>2.525697711060644</v>
+        <v>2.814809130351296</v>
       </c>
     </row>
     <row r="349">
@@ -13406,34 +13406,34 @@
         <v>3.6843330651379755</v>
       </c>
       <c r="C351" t="n">
-        <v>4.077201327159294</v>
+        <v>4.107199130658482</v>
       </c>
       <c r="D351" t="n">
-        <v>3.6843330651379755</v>
+        <v>3.6169850411626223</v>
       </c>
       <c r="E351" t="n">
-        <v>4.077201327159294</v>
+        <v>4.065010378135856</v>
       </c>
       <c r="F351" t="n">
-        <v>3.6843330651379755</v>
+        <v>3.790192776077973</v>
       </c>
       <c r="G351" t="n">
-        <v>4.077201327159294</v>
+        <v>3.933229371708619</v>
       </c>
       <c r="H351" t="n">
-        <v>3.6843330651379755</v>
+        <v>3.783797626640781</v>
       </c>
       <c r="I351" t="n">
-        <v>4.077201327159294</v>
+        <v>3.700545752762712</v>
       </c>
       <c r="J351" t="n">
-        <v>3.6843330651379755</v>
+        <v>4.087237048158114</v>
       </c>
       <c r="K351" t="n">
-        <v>4.077201327159294</v>
+        <v>3.609223270274925</v>
       </c>
       <c r="L351" t="n">
-        <v>3.6843330651379755</v>
+        <v>4.065010378135856</v>
       </c>
     </row>
     <row r="352">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>3.3260021750745863</v>
+        <v>3.2930714604698874</v>
       </c>
       <c r="C353" t="n">
-        <v>3.6806608530222444</v>
+        <v>3.6710308217293774</v>
       </c>
       <c r="D353" t="n">
-        <v>3.3260021750745863</v>
+        <v>3.232875530364971</v>
       </c>
       <c r="E353" t="n">
-        <v>3.6806608530222444</v>
+        <v>3.6333223479218164</v>
       </c>
       <c r="F353" t="n">
-        <v>3.3260021750745863</v>
+        <v>3.3876892886485246</v>
       </c>
       <c r="G353" t="n">
-        <v>3.6806608530222444</v>
+        <v>3.515535963350941</v>
       </c>
       <c r="H353" t="n">
-        <v>3.3260021750745863</v>
+        <v>3.3819732787968833</v>
       </c>
       <c r="I353" t="n">
-        <v>3.6806608530222444</v>
+        <v>3.3075624247694284</v>
       </c>
       <c r="J353" t="n">
-        <v>3.3260021750745863</v>
+        <v>3.653188633465911</v>
       </c>
       <c r="K353" t="n">
-        <v>3.6806608530222444</v>
+        <v>3.225938028857619</v>
       </c>
       <c r="L353" t="n">
-        <v>3.3260021750745863</v>
+        <v>3.6333223479218164</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>5.028902909817189</v>
+        <v>4.979599940113099</v>
       </c>
       <c r="C356" t="n">
-        <v>4.602229748340362</v>
+        <v>4.566002804275423</v>
       </c>
       <c r="D356" t="n">
-        <v>5.028902909817189</v>
+        <v>5.015705797481376</v>
       </c>
       <c r="E356" t="n">
-        <v>4.602229748340362</v>
+        <v>4.676615829272299</v>
       </c>
       <c r="F356" t="n">
-        <v>5.028902909817189</v>
+        <v>4.668725028235134</v>
       </c>
       <c r="G356" t="n">
-        <v>4.602229748340362</v>
+        <v>5.0431306813854775</v>
       </c>
       <c r="H356" t="n">
-        <v>5.028902909817189</v>
+        <v>4.453322475753252</v>
       </c>
       <c r="I356" t="n">
-        <v>4.602229748340362</v>
+        <v>4.5459984097603385</v>
       </c>
       <c r="J356" t="n">
-        <v>5.028902909817189</v>
+        <v>4.634837018939099</v>
       </c>
       <c r="K356" t="n">
-        <v>4.602229748340362</v>
+        <v>4.853104796143185</v>
       </c>
       <c r="L356" t="n">
-        <v>5.028902909817189</v>
+        <v>4.676615829272299</v>
       </c>
     </row>
     <row r="357">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>3.544450309255343</v>
+        <v>3.4381167999776827</v>
       </c>
       <c r="C362" t="n">
-        <v>3.243724316674494</v>
+        <v>3.152552642565899</v>
       </c>
       <c r="D362" t="n">
-        <v>3.544450309255343</v>
+        <v>3.4630457413160207</v>
       </c>
       <c r="E362" t="n">
-        <v>3.243724316674494</v>
+        <v>3.2289243399134318</v>
       </c>
       <c r="F362" t="n">
-        <v>3.544450309255343</v>
+        <v>3.2234762123655503</v>
       </c>
       <c r="G362" t="n">
-        <v>3.243724316674494</v>
+        <v>3.481980988167596</v>
       </c>
       <c r="H362" t="n">
-        <v>3.544450309255343</v>
+        <v>3.0747535954178904</v>
       </c>
       <c r="I362" t="n">
-        <v>3.243724316674494</v>
+        <v>3.138740801116216</v>
       </c>
       <c r="J362" t="n">
-        <v>3.544450309255343</v>
+        <v>3.2000785628596247</v>
       </c>
       <c r="K362" t="n">
-        <v>3.243724316674494</v>
+        <v>3.3507794466101597</v>
       </c>
       <c r="L362" t="n">
-        <v>3.544450309255343</v>
+        <v>3.2289243399134318</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>3.197944057773838</v>
+        <v>3.229923498351576</v>
       </c>
       <c r="C364" t="n">
-        <v>2.998324978503429</v>
+        <v>3.0210139353680576</v>
       </c>
       <c r="D364" t="n">
-        <v>3.197944057773838</v>
+        <v>3.1393119666811904</v>
       </c>
       <c r="E364" t="n">
-        <v>2.998324978503429</v>
+        <v>3.279220252608082</v>
       </c>
       <c r="F364" t="n">
-        <v>3.197944057773838</v>
+        <v>2.9432124806484956</v>
       </c>
       <c r="G364" t="n">
-        <v>2.998324978503429</v>
+        <v>3.348729909044723</v>
       </c>
       <c r="H364" t="n">
-        <v>3.197944057773838</v>
+        <v>3.259322073793185</v>
       </c>
       <c r="I364" t="n">
-        <v>2.998324978503429</v>
+        <v>3.3760922523950434</v>
       </c>
       <c r="J364" t="n">
-        <v>3.197944057773838</v>
+        <v>3.2221732315913068</v>
       </c>
       <c r="K364" t="n">
-        <v>2.998324978503429</v>
+        <v>3.275221203306823</v>
       </c>
       <c r="L364" t="n">
-        <v>3.197944057773838</v>
+        <v>3.279220252608082</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>5.355320032487155</v>
+        <v>5.569532833786641</v>
       </c>
       <c r="C366" t="n">
-        <v>4.7636418035121535</v>
+        <v>4.895085298909219</v>
       </c>
       <c r="D366" t="n">
-        <v>5.355320032487155</v>
+        <v>5.024482941701072</v>
       </c>
       <c r="E366" t="n">
-        <v>4.7636418035121535</v>
+        <v>5.447274795277592</v>
       </c>
       <c r="F366" t="n">
-        <v>5.355320032487155</v>
+        <v>5.359046592866477</v>
       </c>
       <c r="G366" t="n">
-        <v>4.7636418035121535</v>
+        <v>5.371936663539342</v>
       </c>
       <c r="H366" t="n">
-        <v>5.355320032487155</v>
+        <v>5.221233586711665</v>
       </c>
       <c r="I366" t="n">
-        <v>4.7636418035121535</v>
+        <v>4.802973476106274</v>
       </c>
       <c r="J366" t="n">
-        <v>5.355320032487155</v>
+        <v>5.420831717973668</v>
       </c>
       <c r="K366" t="n">
-        <v>4.7636418035121535</v>
+        <v>5.453925924807966</v>
       </c>
       <c r="L366" t="n">
-        <v>5.355320032487155</v>
+        <v>5.447274795277592</v>
       </c>
     </row>
     <row r="367">
@@ -14543,37 +14543,37 @@
         <v>380.0</v>
       </c>
       <c r="B381" t="n">
-        <v>1.6148181339908592</v>
+        <v>1.6311294282735953</v>
       </c>
       <c r="C381" t="n">
-        <v>1.7980738842592028</v>
+        <v>1.8063174798764094</v>
       </c>
       <c r="D381" t="n">
-        <v>1.6148181339908592</v>
+        <v>1.8085122764468626</v>
       </c>
       <c r="E381" t="n">
-        <v>1.7980738842592028</v>
+        <v>1.8710315553686034</v>
       </c>
       <c r="F381" t="n">
-        <v>1.6148181339908592</v>
+        <v>1.8558673347223935</v>
       </c>
       <c r="G381" t="n">
-        <v>1.7980738842592028</v>
+        <v>1.6004361316931892</v>
       </c>
       <c r="H381" t="n">
-        <v>1.6148181339908592</v>
+        <v>1.8151287832410632</v>
       </c>
       <c r="I381" t="n">
-        <v>1.7980738842592028</v>
+        <v>1.7900247786639019</v>
       </c>
       <c r="J381" t="n">
-        <v>1.6148181339908592</v>
+        <v>1.739807834824378</v>
       </c>
       <c r="K381" t="n">
-        <v>1.7980738842592028</v>
+        <v>1.7857295780038185</v>
       </c>
       <c r="L381" t="n">
-        <v>1.6148181339908592</v>
+        <v>1.8710315553686034</v>
       </c>
     </row>
     <row r="382">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>1.692812150092439</v>
+        <v>1.6758840285915144</v>
       </c>
       <c r="C387" t="n">
-        <v>1.8849189602023098</v>
+        <v>1.8558788546256242</v>
       </c>
       <c r="D387" t="n">
-        <v>1.692812150092439</v>
+        <v>1.8581338715817728</v>
       </c>
       <c r="E387" t="n">
-        <v>1.8849189602023098</v>
+        <v>1.9223685418708734</v>
       </c>
       <c r="F387" t="n">
-        <v>1.692812150092439</v>
+        <v>1.9067882483966034</v>
       </c>
       <c r="G387" t="n">
-        <v>1.8849189602023098</v>
+        <v>1.6443485755291736</v>
       </c>
       <c r="H387" t="n">
-        <v>1.692812150092439</v>
+        <v>1.8649319207551016</v>
       </c>
       <c r="I387" t="n">
-        <v>1.8849189602023098</v>
+        <v>1.8391391175628486</v>
       </c>
       <c r="J387" t="n">
-        <v>1.692812150092439</v>
+        <v>1.787544331345051</v>
       </c>
       <c r="K387" t="n">
-        <v>1.8849189602023098</v>
+        <v>1.8347260660532283</v>
       </c>
       <c r="L387" t="n">
-        <v>1.692812150092439</v>
+        <v>1.9223685418708734</v>
       </c>
     </row>
     <row r="388">
@@ -14847,37 +14847,37 @@
         <v>388.0</v>
       </c>
       <c r="B389" t="n">
-        <v>1.1586443665309818</v>
+        <v>1.1471726401296851</v>
       </c>
       <c r="C389" t="n">
-        <v>1.2901317694858132</v>
+        <v>1.2703823230602944</v>
       </c>
       <c r="D389" t="n">
-        <v>1.1586443665309818</v>
+        <v>1.2719259225641912</v>
       </c>
       <c r="E389" t="n">
-        <v>1.2901317694858132</v>
+        <v>1.3158957051065656</v>
       </c>
       <c r="F389" t="n">
-        <v>1.1586443665309818</v>
+        <v>1.3052307151108706</v>
       </c>
       <c r="G389" t="n">
-        <v>1.2901317694858132</v>
+        <v>1.125586057567874</v>
       </c>
       <c r="H389" t="n">
-        <v>1.1586443665309818</v>
+        <v>1.2765793090067206</v>
       </c>
       <c r="I389" t="n">
-        <v>1.2901317694858132</v>
+        <v>1.2589236731574607</v>
       </c>
       <c r="J389" t="n">
-        <v>1.1586443665309818</v>
+        <v>1.223606117698601</v>
       </c>
       <c r="K389" t="n">
-        <v>1.2901317694858132</v>
+        <v>1.255902860341687</v>
       </c>
       <c r="L389" t="n">
-        <v>1.1586443665309818</v>
+        <v>1.3158957051065656</v>
       </c>
     </row>
     <row r="390">
@@ -15037,37 +15037,37 @@
         <v>393.0</v>
       </c>
       <c r="B394" t="n">
-        <v>0.9706989659890474</v>
+        <v>0.9809168498415638</v>
       </c>
       <c r="C394" t="n">
-        <v>0.8634520710172962</v>
+        <v>0.8621318509845638</v>
       </c>
       <c r="D394" t="n">
-        <v>0.9706989659890474</v>
+        <v>0.8849216130583806</v>
       </c>
       <c r="E394" t="n">
-        <v>0.8634520710172962</v>
+        <v>0.9593845286252132</v>
       </c>
       <c r="F394" t="n">
-        <v>0.9706989659890474</v>
+        <v>0.9438456076853298</v>
       </c>
       <c r="G394" t="n">
-        <v>0.8634520710172962</v>
+        <v>0.9461158317590546</v>
       </c>
       <c r="H394" t="n">
-        <v>0.9706989659890474</v>
+        <v>0.919573715607684</v>
       </c>
       <c r="I394" t="n">
-        <v>0.8634520710172962</v>
+        <v>0.8459089393412549</v>
       </c>
       <c r="J394" t="n">
-        <v>0.9706989659890474</v>
+        <v>0.9547273229199643</v>
       </c>
       <c r="K394" t="n">
-        <v>0.8634520710172962</v>
+        <v>0.9605559383684587</v>
       </c>
       <c r="L394" t="n">
-        <v>0.9706989659890474</v>
+        <v>0.9593845286252132</v>
       </c>
     </row>
     <row r="395">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>4.151423988309222</v>
+        <v>4.110320780504181</v>
       </c>
       <c r="C395" t="n">
-        <v>4.134773649843142</v>
+        <v>4.090343525953524</v>
       </c>
       <c r="D395" t="n">
-        <v>4.151423988309222</v>
+        <v>3.7930734873165135</v>
       </c>
       <c r="E395" t="n">
-        <v>4.134773649843142</v>
+        <v>4.197447281101389</v>
       </c>
       <c r="F395" t="n">
-        <v>4.151423988309222</v>
+        <v>4.1053081939198695</v>
       </c>
       <c r="G395" t="n">
-        <v>4.134773649843142</v>
+        <v>4.038815502453821</v>
       </c>
       <c r="H395" t="n">
-        <v>4.151423988309222</v>
+        <v>4.231744461471222</v>
       </c>
       <c r="I395" t="n">
-        <v>4.134773649843142</v>
+        <v>3.9349535008734047</v>
       </c>
       <c r="J395" t="n">
-        <v>4.151423988309222</v>
+        <v>4.04853003214845</v>
       </c>
       <c r="K395" t="n">
-        <v>4.134773649843142</v>
+        <v>3.6197341069947018</v>
       </c>
       <c r="L395" t="n">
-        <v>4.151423988309222</v>
+        <v>4.197447281101389</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>2.4316401664086174</v>
+        <v>2.456202188291533</v>
       </c>
       <c r="C397" t="n">
-        <v>2.4218874569979585</v>
+        <v>2.444264390984783</v>
       </c>
       <c r="D397" t="n">
-        <v>2.4316401664086174</v>
+        <v>2.266624893143894</v>
       </c>
       <c r="E397" t="n">
-        <v>2.4218874569979585</v>
+        <v>2.5082663246090866</v>
       </c>
       <c r="F397" t="n">
-        <v>2.4316401664086174</v>
+        <v>2.4532068196099</v>
       </c>
       <c r="G397" t="n">
-        <v>2.4218874569979585</v>
+        <v>2.4134728175682714</v>
       </c>
       <c r="H397" t="n">
-        <v>2.4316401664086174</v>
+        <v>2.528761272321241</v>
       </c>
       <c r="I397" t="n">
-        <v>2.4218874569979585</v>
+        <v>2.351408056887752</v>
       </c>
       <c r="J397" t="n">
-        <v>2.4316401664086174</v>
+        <v>2.419277923877089</v>
       </c>
       <c r="K397" t="n">
-        <v>2.4218874569979585</v>
+        <v>2.1630425724445086</v>
       </c>
       <c r="L397" t="n">
-        <v>2.4316401664086174</v>
+        <v>2.5082663246090866</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>3.3434846420274518</v>
+        <v>3.2766149491869028</v>
       </c>
       <c r="C398" t="n">
-        <v>3.3300747491563145</v>
+        <v>3.2606897271908806</v>
       </c>
       <c r="D398" t="n">
-        <v>3.3434846420274518</v>
+        <v>3.0237156552003435</v>
       </c>
       <c r="E398" t="n">
-        <v>3.3300747491563145</v>
+        <v>3.346069380987268</v>
       </c>
       <c r="F398" t="n">
-        <v>3.3434846420274518</v>
+        <v>3.2726190770851074</v>
       </c>
       <c r="G398" t="n">
-        <v>3.3300747491563145</v>
+        <v>3.2196132513834446</v>
       </c>
       <c r="H398" t="n">
-        <v>3.3434846420274518</v>
+        <v>3.37340998526511</v>
       </c>
       <c r="I398" t="n">
-        <v>3.3300747491563145</v>
+        <v>3.1368178188116045</v>
       </c>
       <c r="J398" t="n">
-        <v>3.3434846420274518</v>
+        <v>3.227357360644385</v>
       </c>
       <c r="K398" t="n">
-        <v>3.3300747491563145</v>
+        <v>2.8855351006462597</v>
       </c>
       <c r="L398" t="n">
-        <v>3.3434846420274518</v>
+        <v>3.346069380987268</v>
       </c>
     </row>
     <row r="399">
@@ -15379,37 +15379,37 @@
         <v>402.0</v>
       </c>
       <c r="B403" t="n">
-        <v>1.603015511481583</v>
+        <v>1.61937281261915</v>
       </c>
       <c r="C403" t="n">
-        <v>1.5965862113407858</v>
+        <v>1.6115022291251444</v>
       </c>
       <c r="D403" t="n">
-        <v>1.603015511481583</v>
+        <v>1.4943846015038833</v>
       </c>
       <c r="E403" t="n">
-        <v>1.5965862113407858</v>
+        <v>1.6536986703465992</v>
       </c>
       <c r="F403" t="n">
-        <v>1.603015511481583</v>
+        <v>1.6173979676206687</v>
       </c>
       <c r="G403" t="n">
-        <v>1.5965862113407858</v>
+        <v>1.5912013609449278</v>
       </c>
       <c r="H403" t="n">
-        <v>1.603015511481583</v>
+        <v>1.6672109786082407</v>
       </c>
       <c r="I403" t="n">
-        <v>1.5965862113407858</v>
+        <v>1.5502820968278088</v>
       </c>
       <c r="J403" t="n">
-        <v>1.603015511481583</v>
+        <v>1.5950286644851963</v>
       </c>
       <c r="K403" t="n">
-        <v>1.5965862113407858</v>
+        <v>1.4260928318734456</v>
       </c>
       <c r="L403" t="n">
-        <v>1.603015511481583</v>
+        <v>1.6536986703465992</v>
       </c>
     </row>
     <row r="404">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>2.074850542665787</v>
+        <v>2.0955990480924447</v>
       </c>
       <c r="C406" t="n">
-        <v>2.16102289735836</v>
+        <v>2.1706770764625754</v>
       </c>
       <c r="D406" t="n">
-        <v>2.074850542665787</v>
+        <v>2.1083926915677402</v>
       </c>
       <c r="E406" t="n">
-        <v>2.16102289735836</v>
+        <v>2.1083926915677402</v>
       </c>
       <c r="F406" t="n">
-        <v>2.074850542665787</v>
+        <v>1.8996409406344186</v>
       </c>
       <c r="G406" t="n">
-        <v>2.16102289735836</v>
+        <v>1.928278744397723</v>
       </c>
       <c r="H406" t="n">
-        <v>2.074850542665787</v>
+        <v>2.0981453411195776</v>
       </c>
       <c r="I406" t="n">
-        <v>2.16102289735836</v>
+        <v>1.8527613887724657</v>
       </c>
       <c r="J406" t="n">
-        <v>2.074850542665787</v>
+        <v>2.019086924631408</v>
       </c>
       <c r="K406" t="n">
-        <v>2.16102289735836</v>
+        <v>1.8913183073723727</v>
       </c>
       <c r="L406" t="n">
-        <v>2.074850542665787</v>
+        <v>2.1083926915677402</v>
       </c>
     </row>
     <row r="407">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>3.8257741455864194</v>
+        <v>3.865215116159475</v>
       </c>
       <c r="C407" t="n">
-        <v>3.9846655740859287</v>
+        <v>4.003692336032156</v>
       </c>
       <c r="D407" t="n">
-        <v>3.8257741455864194</v>
+        <v>3.888812275261299</v>
       </c>
       <c r="E407" t="n">
-        <v>3.9846655740859287</v>
+        <v>3.888812275261299</v>
       </c>
       <c r="F407" t="n">
-        <v>3.8257741455864194</v>
+        <v>3.503781358222707</v>
       </c>
       <c r="G407" t="n">
-        <v>3.9846655740859287</v>
+        <v>3.5566021838955817</v>
       </c>
       <c r="H407" t="n">
-        <v>3.8257741455864194</v>
+        <v>3.8699116110865956</v>
       </c>
       <c r="I407" t="n">
-        <v>3.9846655740859287</v>
+        <v>3.4173146494977997</v>
       </c>
       <c r="J407" t="n">
-        <v>3.8257741455864194</v>
+        <v>3.7240927881834924</v>
       </c>
       <c r="K407" t="n">
-        <v>3.9846655740859287</v>
+        <v>3.4884307271370547</v>
       </c>
       <c r="L407" t="n">
-        <v>3.8257741455864194</v>
+        <v>3.888812275261299</v>
       </c>
     </row>
     <row r="408">
@@ -15648,34 +15648,34 @@
         <v>1.8631802510116158</v>
       </c>
       <c r="C410" t="n">
-        <v>1.9405615496376307</v>
+        <v>1.9299315219054678</v>
       </c>
       <c r="D410" t="n">
-        <v>1.8631802510116158</v>
+        <v>1.874554976478948</v>
       </c>
       <c r="E410" t="n">
-        <v>1.9405615496376307</v>
+        <v>1.874554976478948</v>
       </c>
       <c r="F410" t="n">
-        <v>1.8631802510116158</v>
+        <v>1.688955474485901</v>
       </c>
       <c r="G410" t="n">
-        <v>1.9405615496376307</v>
+        <v>1.714417115372169</v>
       </c>
       <c r="H410" t="n">
-        <v>1.8631802510116158</v>
+        <v>1.8654441396527948</v>
       </c>
       <c r="I410" t="n">
-        <v>1.9405615496376307</v>
+        <v>1.6472752421509165</v>
       </c>
       <c r="J410" t="n">
-        <v>1.8631802510116158</v>
+        <v>1.7951539377121657</v>
       </c>
       <c r="K410" t="n">
-        <v>1.9405615496376307</v>
+        <v>1.6815558882223114</v>
       </c>
       <c r="L410" t="n">
-        <v>1.8631802510116158</v>
+        <v>1.874554976478948</v>
       </c>
     </row>
     <row r="411">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>2.512820717833763</v>
+        <v>2.563584772739496</v>
       </c>
       <c r="C414" t="n">
-        <v>2.6171827784850383</v>
+        <v>2.65542910263274</v>
       </c>
       <c r="D414" t="n">
-        <v>2.512820717833763</v>
+        <v>2.579235471584287</v>
       </c>
       <c r="E414" t="n">
-        <v>2.6171827784850383</v>
+        <v>2.579235471584287</v>
       </c>
       <c r="F414" t="n">
-        <v>2.512820717833763</v>
+        <v>2.323865623777521</v>
       </c>
       <c r="G414" t="n">
-        <v>2.6171827784850383</v>
+        <v>2.3588987746653953</v>
       </c>
       <c r="H414" t="n">
-        <v>2.512820717833763</v>
+        <v>2.5666996997276676</v>
       </c>
       <c r="I414" t="n">
-        <v>2.6171827784850383</v>
+        <v>2.266517007678678</v>
       </c>
       <c r="J414" t="n">
-        <v>2.512820717833763</v>
+        <v>2.469986088003872</v>
       </c>
       <c r="K414" t="n">
-        <v>2.6171827784850383</v>
+        <v>2.3136843937759624</v>
       </c>
       <c r="L414" t="n">
-        <v>2.512820717833763</v>
+        <v>2.579235471584287</v>
       </c>
     </row>
     <row r="415">
@@ -15876,34 +15876,34 @@
         <v>4.039897122345217</v>
       </c>
       <c r="C416" t="n">
-        <v>4.207681471429447</v>
+        <v>4.184632591203124</v>
       </c>
       <c r="D416" t="n">
-        <v>4.039897122345217</v>
+        <v>4.064560716035626</v>
       </c>
       <c r="E416" t="n">
-        <v>4.207681471429447</v>
+        <v>4.064560716035626</v>
       </c>
       <c r="F416" t="n">
-        <v>4.039897122345217</v>
+        <v>3.662128963335741</v>
       </c>
       <c r="G416" t="n">
-        <v>4.207681471429447</v>
+        <v>3.717336938887635</v>
       </c>
       <c r="H416" t="n">
-        <v>4.039897122345217</v>
+        <v>4.04480586759509</v>
       </c>
       <c r="I416" t="n">
-        <v>4.207681471429447</v>
+        <v>3.5717545346794903</v>
       </c>
       <c r="J416" t="n">
-        <v>4.039897122345217</v>
+        <v>3.8923970040968685</v>
       </c>
       <c r="K416" t="n">
-        <v>4.207681471429447</v>
+        <v>3.6460845858598687</v>
       </c>
       <c r="L416" t="n">
-        <v>4.039897122345217</v>
+        <v>4.064560716035626</v>
       </c>
     </row>
     <row r="417">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>1.6414432468455962</v>
+        <v>1.6580234816622184</v>
       </c>
       <c r="C420" t="n">
-        <v>1.620669364888586</v>
+        <v>1.6409924247011856</v>
       </c>
       <c r="D420" t="n">
-        <v>1.6414432468455962</v>
+        <v>1.4569970294374608</v>
       </c>
       <c r="E420" t="n">
-        <v>1.620669364888586</v>
+        <v>1.629179642847346</v>
       </c>
       <c r="F420" t="n">
-        <v>1.6414432468455962</v>
+        <v>1.5872837309054937</v>
       </c>
       <c r="G420" t="n">
-        <v>1.620669364888586</v>
+        <v>1.4881328573630699</v>
       </c>
       <c r="H420" t="n">
-        <v>1.6414432468455962</v>
+        <v>1.6580234816622184</v>
       </c>
       <c r="I420" t="n">
-        <v>1.620669364888586</v>
+        <v>1.647962660742619</v>
       </c>
       <c r="J420" t="n">
-        <v>1.6414432468455962</v>
+        <v>1.6931686179129972</v>
       </c>
       <c r="K420" t="n">
-        <v>1.620669364888586</v>
+        <v>1.7070034335988455</v>
       </c>
       <c r="L420" t="n">
-        <v>1.6414432468455962</v>
+        <v>1.629179642847346</v>
       </c>
     </row>
     <row r="421">
@@ -16139,37 +16139,37 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="n">
-        <v>2.350677495587855</v>
+        <v>2.3746640006448736</v>
       </c>
       <c r="C423" t="n">
-        <v>2.320927641667419</v>
+        <v>2.3502716815338367</v>
       </c>
       <c r="D423" t="n">
-        <v>2.350677495587855</v>
+        <v>2.086748730110279</v>
       </c>
       <c r="E423" t="n">
-        <v>2.320927641667419</v>
+        <v>2.3333531106414265</v>
       </c>
       <c r="F423" t="n">
-        <v>2.350677495587855</v>
+        <v>2.2733487048155427</v>
       </c>
       <c r="G423" t="n">
-        <v>2.320927641667419</v>
+        <v>2.131342266042046</v>
       </c>
       <c r="H423" t="n">
-        <v>2.350677495587855</v>
+        <v>2.3746640006448736</v>
       </c>
       <c r="I423" t="n">
-        <v>2.320927641667419</v>
+        <v>2.360254633395891</v>
       </c>
       <c r="J423" t="n">
-        <v>2.350677495587855</v>
+        <v>2.424999771383666</v>
       </c>
       <c r="K423" t="n">
-        <v>2.320927641667419</v>
+        <v>2.4448143512904625</v>
       </c>
       <c r="L423" t="n">
-        <v>2.350677495587855</v>
+        <v>2.3333531106414265</v>
       </c>
     </row>
     <row r="424">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>3.3010850853495284</v>
+        <v>3.2690357155888536</v>
       </c>
       <c r="C425" t="n">
-        <v>3.4312451093486946</v>
+        <v>3.391314082511251</v>
       </c>
       <c r="D425" t="n">
-        <v>3.3010850853495284</v>
+        <v>3.6471014416284584</v>
       </c>
       <c r="E425" t="n">
-        <v>3.4312451093486946</v>
+        <v>3.1794730945450396</v>
       </c>
       <c r="F425" t="n">
-        <v>3.3010850853495284</v>
+        <v>3.1196442980260652</v>
       </c>
       <c r="G425" t="n">
-        <v>3.4312451093486946</v>
+        <v>3.520957765780759</v>
       </c>
       <c r="H425" t="n">
-        <v>3.3010850853495284</v>
+        <v>3.6175426397892934</v>
       </c>
       <c r="I425" t="n">
-        <v>3.4312451093486946</v>
+        <v>3.5424532319043847</v>
       </c>
       <c r="J425" t="n">
-        <v>3.3010850853495284</v>
+        <v>3.5381331667576403</v>
       </c>
       <c r="K425" t="n">
-        <v>3.4312451093486946</v>
+        <v>3.489199277309701</v>
       </c>
       <c r="L425" t="n">
-        <v>3.3010850853495284</v>
+        <v>3.1794730945450396</v>
       </c>
     </row>
     <row r="426">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>3.8042231078354973</v>
+        <v>3.8426496038742397</v>
       </c>
       <c r="C428" t="n">
-        <v>3.756077378805769</v>
+        <v>3.803178278522887</v>
       </c>
       <c r="D428" t="n">
-        <v>3.8042231078354973</v>
+        <v>3.376748954363969</v>
       </c>
       <c r="E428" t="n">
-        <v>3.756077378805769</v>
+        <v>3.775800872826677</v>
       </c>
       <c r="F428" t="n">
-        <v>3.8042231078354973</v>
+        <v>3.678702543877855</v>
       </c>
       <c r="G428" t="n">
-        <v>3.756077378805769</v>
+        <v>3.4489096192567796</v>
       </c>
       <c r="H428" t="n">
-        <v>3.8042231078354973</v>
+        <v>3.8426496038742397</v>
       </c>
       <c r="I428" t="n">
-        <v>3.756077378805769</v>
+        <v>3.8193325580368733</v>
       </c>
       <c r="J428" t="n">
-        <v>3.8042231078354973</v>
+        <v>3.924102276520811</v>
       </c>
       <c r="K428" t="n">
-        <v>3.756077378805769</v>
+        <v>3.9561659653665213</v>
       </c>
       <c r="L428" t="n">
-        <v>3.8042231078354973</v>
+        <v>3.775800872826677</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>4.998939648774609</v>
+        <v>5.048929045262354</v>
       </c>
       <c r="C429" t="n">
-        <v>4.446635820021687</v>
+        <v>4.437524489445589</v>
       </c>
       <c r="D429" t="n">
-        <v>4.998939648774609</v>
+        <v>4.554826880252411</v>
       </c>
       <c r="E429" t="n">
-        <v>4.446635820021687</v>
+        <v>4.938098894858974</v>
       </c>
       <c r="F429" t="n">
-        <v>4.998939648774609</v>
+        <v>4.858117692295184</v>
       </c>
       <c r="G429" t="n">
-        <v>4.446635820021687</v>
+        <v>4.869802882805403</v>
       </c>
       <c r="H429" t="n">
-        <v>4.998939648774609</v>
+        <v>4.733186551685159</v>
       </c>
       <c r="I429" t="n">
-        <v>4.446635820021687</v>
+        <v>4.35402268212333</v>
       </c>
       <c r="J429" t="n">
-        <v>4.998939648774609</v>
+        <v>4.914127544831914</v>
       </c>
       <c r="K429" t="n">
-        <v>4.446635820021687</v>
+        <v>4.944128319960123</v>
       </c>
       <c r="L429" t="n">
-        <v>4.998939648774609</v>
+        <v>4.938098894858974</v>
       </c>
     </row>
     <row r="430">
@@ -17013,37 +17013,37 @@
         <v>445.0</v>
       </c>
       <c r="B446" t="n">
-        <v>3.101134302536887</v>
+        <v>3.132145645562256</v>
       </c>
       <c r="C446" t="n">
-        <v>3.2810457516816873</v>
+        <v>3.329089294571592</v>
       </c>
       <c r="D446" t="n">
-        <v>3.101134302536887</v>
+        <v>3.1184232104569025</v>
       </c>
       <c r="E446" t="n">
-        <v>3.2810457516816873</v>
+        <v>3.3280191600266282</v>
       </c>
       <c r="F446" t="n">
-        <v>3.101134302536887</v>
+        <v>3.4763374734510246</v>
       </c>
       <c r="G446" t="n">
-        <v>3.2810457516816873</v>
+        <v>3.579032546378717</v>
       </c>
       <c r="H446" t="n">
-        <v>3.101134302536887</v>
+        <v>3.424077441815425</v>
       </c>
       <c r="I446" t="n">
-        <v>3.2810457516816873</v>
+        <v>3.472098037282293</v>
       </c>
       <c r="J446" t="n">
-        <v>3.101134302536887</v>
+        <v>3.1201319370571574</v>
       </c>
       <c r="K446" t="n">
-        <v>3.2810457516816873</v>
+        <v>3.455243195135124</v>
       </c>
       <c r="L446" t="n">
-        <v>3.101134302536887</v>
+        <v>3.3280191600266282</v>
       </c>
     </row>
     <row r="447">
@@ -17051,37 +17051,37 @@
         <v>446.0</v>
       </c>
       <c r="B447" t="n">
-        <v>1.7450750213996506</v>
+        <v>1.7628819093731163</v>
       </c>
       <c r="C447" t="n">
-        <v>1.8463150662792194</v>
+        <v>1.873728733018242</v>
       </c>
       <c r="D447" t="n">
-        <v>1.7450750213996506</v>
+        <v>1.7551584394782698</v>
       </c>
       <c r="E447" t="n">
-        <v>1.8463150662792194</v>
+        <v>1.8731264235973548</v>
       </c>
       <c r="F447" t="n">
-        <v>1.7450750213996506</v>
+        <v>1.956605195389164</v>
       </c>
       <c r="G447" t="n">
-        <v>1.8463150662792194</v>
+        <v>2.0144056002019113</v>
       </c>
       <c r="H447" t="n">
-        <v>1.7450750213996506</v>
+        <v>1.9271914085545077</v>
       </c>
       <c r="I447" t="n">
-        <v>1.8463150662792194</v>
+        <v>1.9542190913654296</v>
       </c>
       <c r="J447" t="n">
-        <v>1.7450750213996506</v>
+        <v>1.7561201710043635</v>
       </c>
       <c r="K447" t="n">
-        <v>1.8463150662792194</v>
+        <v>1.9447325924381897</v>
       </c>
       <c r="L447" t="n">
-        <v>1.7450750213996506</v>
+        <v>1.8731264235973548</v>
       </c>
     </row>
     <row r="448">
@@ -17127,37 +17127,37 @@
         <v>448.0</v>
       </c>
       <c r="B449" t="n">
-        <v>2.3445803215399565</v>
+        <v>2.368262951050461</v>
       </c>
       <c r="C449" t="n">
-        <v>2.4806005006529888</v>
+        <v>2.5171750388565726</v>
       </c>
       <c r="D449" t="n">
-        <v>2.3445803215399565</v>
+        <v>2.357887209199424</v>
       </c>
       <c r="E449" t="n">
-        <v>2.4806005006529888</v>
+        <v>2.5163658938543056</v>
       </c>
       <c r="F449" t="n">
-        <v>2.3445803215399565</v>
+        <v>2.6285116260117367</v>
       </c>
       <c r="G449" t="n">
-        <v>2.4806005006529888</v>
+        <v>2.7061609322675513</v>
       </c>
       <c r="H449" t="n">
-        <v>2.3445803215399565</v>
+        <v>2.5889970214087636</v>
       </c>
       <c r="I449" t="n">
-        <v>2.4806005006529888</v>
+        <v>2.6253061238582927</v>
       </c>
       <c r="J449" t="n">
-        <v>2.3445803215399565</v>
+        <v>2.3591792033653376</v>
       </c>
       <c r="K449" t="n">
-        <v>2.4806005006529888</v>
+        <v>2.6125619214105233</v>
       </c>
       <c r="L449" t="n">
-        <v>2.3445803215399565</v>
+        <v>2.5163658938543056</v>
       </c>
     </row>
     <row r="450">
@@ -17165,37 +17165,37 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="n">
-        <v>4.707707549821076</v>
+        <v>4.661553554234594</v>
       </c>
       <c r="C450" t="n">
-        <v>4.980823901713788</v>
+        <v>4.954663604312932</v>
       </c>
       <c r="D450" t="n">
-        <v>4.707707549821076</v>
+        <v>4.641130536477183</v>
       </c>
       <c r="E450" t="n">
-        <v>4.980823901713788</v>
+        <v>4.95307092949634</v>
       </c>
       <c r="F450" t="n">
-        <v>4.707707549821076</v>
+        <v>5.173812184642367</v>
       </c>
       <c r="G450" t="n">
-        <v>4.980823901713788</v>
+        <v>5.326652644946865</v>
       </c>
       <c r="H450" t="n">
-        <v>4.707707549821076</v>
+        <v>5.0960338934059735</v>
       </c>
       <c r="I450" t="n">
-        <v>4.980823901713788</v>
+        <v>5.167502657252316</v>
       </c>
       <c r="J450" t="n">
-        <v>4.707707549821076</v>
+        <v>4.6436736240146095</v>
       </c>
       <c r="K450" t="n">
-        <v>4.980823901713788</v>
+        <v>5.142417696906197</v>
       </c>
       <c r="L450" t="n">
-        <v>4.707707549821076</v>
+        <v>4.95307092949634</v>
       </c>
     </row>
     <row r="451">
@@ -17241,37 +17241,37 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="n">
-        <v>3.974852662846001</v>
+        <v>3.9351041362175416</v>
       </c>
       <c r="C452" t="n">
-        <v>4.2054526410941815</v>
+        <v>4.182536361764414</v>
       </c>
       <c r="D452" t="n">
-        <v>3.974852662846001</v>
+        <v>3.917863810494323</v>
       </c>
       <c r="E452" t="n">
-        <v>4.2054526410941815</v>
+        <v>4.181191886969583</v>
       </c>
       <c r="F452" t="n">
-        <v>3.974852662846001</v>
+        <v>4.367533160549912</v>
       </c>
       <c r="G452" t="n">
-        <v>4.2054526410941815</v>
+        <v>4.49655519591391</v>
       </c>
       <c r="H452" t="n">
-        <v>3.974852662846001</v>
+        <v>4.301875719958195</v>
       </c>
       <c r="I452" t="n">
-        <v>4.2054526410941815</v>
+        <v>4.362206900314714</v>
       </c>
       <c r="J452" t="n">
-        <v>3.974852662846001</v>
+        <v>3.9200105871366717</v>
       </c>
       <c r="K452" t="n">
-        <v>4.2054526410941815</v>
+        <v>4.341031142047345</v>
       </c>
       <c r="L452" t="n">
-        <v>3.974852662846001</v>
+        <v>4.181191886969583</v>
       </c>
     </row>
     <row r="453">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>6.816483950695285</v>
+        <v>7.020978469216144</v>
       </c>
       <c r="C456" t="n">
-        <v>6.832760995355832</v>
+        <v>6.970437536906566</v>
       </c>
       <c r="D456" t="n">
-        <v>6.816483950695285</v>
+        <v>7.0851947354573035</v>
       </c>
       <c r="E456" t="n">
-        <v>6.832760995355832</v>
+        <v>7.059367786131052</v>
       </c>
       <c r="F456" t="n">
-        <v>6.816483950695285</v>
+        <v>7.093845767341046</v>
       </c>
       <c r="G456" t="n">
-        <v>6.832760995355832</v>
+        <v>6.233755024953896</v>
       </c>
       <c r="H456" t="n">
-        <v>6.816483950695285</v>
+        <v>6.546320771565974</v>
       </c>
       <c r="I456" t="n">
-        <v>6.832760995355832</v>
+        <v>6.487838847054742</v>
       </c>
       <c r="J456" t="n">
-        <v>6.816483950695285</v>
+        <v>6.36348267716288</v>
       </c>
       <c r="K456" t="n">
-        <v>6.832760995355832</v>
+        <v>6.391484802656493</v>
       </c>
       <c r="L456" t="n">
-        <v>6.816483950695285</v>
+        <v>7.059367786131052</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>1.5988612545786065</v>
+        <v>1.6155160593138003</v>
       </c>
       <c r="C458" t="n">
-        <v>1.602679166604078</v>
+        <v>1.6038866705958585</v>
       </c>
       <c r="D458" t="n">
-        <v>1.5988612545786065</v>
+        <v>1.6302921207754084</v>
       </c>
       <c r="E458" t="n">
-        <v>1.602679166604078</v>
+        <v>1.6243493805173967</v>
       </c>
       <c r="F458" t="n">
-        <v>1.5988612545786065</v>
+        <v>1.632282709551474</v>
       </c>
       <c r="G458" t="n">
-        <v>1.602679166604078</v>
+        <v>1.4343771878516336</v>
       </c>
       <c r="H458" t="n">
-        <v>1.5988612545786065</v>
+        <v>1.5062980725911643</v>
       </c>
       <c r="I458" t="n">
-        <v>1.602679166604078</v>
+        <v>1.4928414741068192</v>
       </c>
       <c r="J458" t="n">
-        <v>1.5988612545786065</v>
+        <v>1.4642273157789005</v>
       </c>
       <c r="K458" t="n">
-        <v>1.602679166604078</v>
+        <v>1.4706705606383172</v>
       </c>
       <c r="L458" t="n">
-        <v>1.5988612545786065</v>
+        <v>1.6243493805173967</v>
       </c>
     </row>
     <row r="459">
@@ -17548,34 +17548,34 @@
         <v>2.521440793815308</v>
       </c>
       <c r="C460" t="n">
-        <v>2.6042812221717573</v>
+        <v>2.6185817305499812</v>
       </c>
       <c r="D460" t="n">
-        <v>2.521440793815308</v>
+        <v>2.863174527544155</v>
       </c>
       <c r="E460" t="n">
-        <v>2.6042812221717573</v>
+        <v>2.7418982595711463</v>
       </c>
       <c r="F460" t="n">
-        <v>2.521440793815308</v>
+        <v>2.849258736194972</v>
       </c>
       <c r="G460" t="n">
-        <v>2.6042812221717573</v>
+        <v>2.579691902014799</v>
       </c>
       <c r="H460" t="n">
-        <v>2.521440793815308</v>
+        <v>2.8337642755137695</v>
       </c>
       <c r="I460" t="n">
-        <v>2.6042812221717573</v>
+        <v>2.637727715978314</v>
       </c>
       <c r="J460" t="n">
-        <v>2.521440793815308</v>
+        <v>2.5160299763732223</v>
       </c>
       <c r="K460" t="n">
-        <v>2.6042812221717573</v>
+        <v>2.6421858462967895</v>
       </c>
       <c r="L460" t="n">
-        <v>2.521440793815308</v>
+        <v>2.7418982595711463</v>
       </c>
     </row>
     <row r="461">
@@ -17583,37 +17583,37 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="n">
-        <v>0.9488459826547572</v>
+        <v>0.9588338351037546</v>
       </c>
       <c r="C461" t="n">
-        <v>0.9511117267755332</v>
+        <v>0.9519316125476552</v>
       </c>
       <c r="D461" t="n">
-        <v>0.9488459826547572</v>
+        <v>0.9676036567327518</v>
       </c>
       <c r="E461" t="n">
-        <v>0.9511117267755332</v>
+        <v>0.9640765482278477</v>
       </c>
       <c r="F461" t="n">
-        <v>0.9488459826547572</v>
+        <v>0.9687851020419864</v>
       </c>
       <c r="G461" t="n">
-        <v>0.9511117267755332</v>
+        <v>0.8513251057357483</v>
       </c>
       <c r="H461" t="n">
-        <v>0.9488459826547572</v>
+        <v>0.8940112661990188</v>
       </c>
       <c r="I461" t="n">
-        <v>0.9511117267755332</v>
+        <v>0.8860245663096494</v>
       </c>
       <c r="J461" t="n">
-        <v>0.9488459826547572</v>
+        <v>0.8690416195851965</v>
       </c>
       <c r="K461" t="n">
-        <v>0.9511117267755332</v>
+        <v>0.8728657853330081</v>
       </c>
       <c r="L461" t="n">
-        <v>0.9488459826547572</v>
+        <v>0.9640765482278477</v>
       </c>
     </row>
     <row r="462">
@@ -17776,34 +17776,34 @@
         <v>2.4048771702182052</v>
       </c>
       <c r="C466" t="n">
-        <v>2.4106197632303665</v>
+        <v>2.387565518458302</v>
       </c>
       <c r="D466" t="n">
-        <v>2.4048771702182052</v>
+        <v>2.426872997910476</v>
       </c>
       <c r="E466" t="n">
-        <v>2.4106197632303665</v>
+        <v>2.4180265613228387</v>
       </c>
       <c r="F466" t="n">
-        <v>2.4048771702182052</v>
+        <v>2.4298362129619475</v>
       </c>
       <c r="G466" t="n">
-        <v>2.4106197632303665</v>
+        <v>2.135231607670541</v>
       </c>
       <c r="H466" t="n">
-        <v>2.4048771702182052</v>
+        <v>2.242293925482138</v>
       </c>
       <c r="I466" t="n">
-        <v>2.4106197632303665</v>
+        <v>2.2222622666835616</v>
       </c>
       <c r="J466" t="n">
-        <v>2.4048771702182052</v>
+        <v>2.179666876986817</v>
       </c>
       <c r="K466" t="n">
-        <v>2.4106197632303665</v>
+        <v>2.1892583709092723</v>
       </c>
       <c r="L466" t="n">
-        <v>2.4048771702182052</v>
+        <v>2.4180265613228387</v>
       </c>
     </row>
     <row r="467">
@@ -17849,37 +17849,37 @@
         <v>467.0</v>
       </c>
       <c r="B468" t="n">
-        <v>1.9272167111855032</v>
+        <v>1.9464888782973584</v>
       </c>
       <c r="C468" t="n">
-        <v>1.8069177883490606</v>
+        <v>1.8205911159742219</v>
       </c>
       <c r="D468" t="n">
-        <v>1.9272167111855032</v>
+        <v>1.891882526558096</v>
       </c>
       <c r="E468" t="n">
-        <v>1.8069177883490606</v>
+        <v>1.976197193043952</v>
       </c>
       <c r="F468" t="n">
-        <v>1.9272167111855032</v>
+        <v>1.7737046598695274</v>
       </c>
       <c r="G468" t="n">
-        <v>1.8069177883490606</v>
+        <v>2.018086659855548</v>
       </c>
       <c r="H468" t="n">
-        <v>1.9272167111855032</v>
+        <v>1.9642057066259806</v>
       </c>
       <c r="I468" t="n">
-        <v>1.8069177883490606</v>
+        <v>2.0345763683711624</v>
       </c>
       <c r="J468" t="n">
-        <v>1.9272167111855032</v>
+        <v>1.9418182388656813</v>
       </c>
       <c r="K468" t="n">
-        <v>1.8069177883490606</v>
+        <v>1.9737871963388793</v>
       </c>
       <c r="L468" t="n">
-        <v>1.9272167111855032</v>
+        <v>1.976197193043952</v>
       </c>
     </row>
     <row r="469">
@@ -17963,37 +17963,37 @@
         <v>470.0</v>
       </c>
       <c r="B471" t="n">
-        <v>1.4779040371660959</v>
+        <v>1.4929846906065665</v>
       </c>
       <c r="C471" t="n">
-        <v>1.3767956742269998</v>
+        <v>1.384480450352658</v>
       </c>
       <c r="D471" t="n">
-        <v>1.4779040371660959</v>
+        <v>1.5320778048468813</v>
       </c>
       <c r="E471" t="n">
-        <v>1.3767956742269998</v>
+        <v>1.491172815884256</v>
       </c>
       <c r="F471" t="n">
-        <v>1.4779040371660959</v>
+        <v>1.5445963536920413</v>
       </c>
       <c r="G471" t="n">
-        <v>1.3767956742269998</v>
+        <v>1.5002764339565402</v>
       </c>
       <c r="H471" t="n">
-        <v>1.4779040371660959</v>
+        <v>1.3465494796611468</v>
       </c>
       <c r="I471" t="n">
-        <v>1.3767956742269998</v>
+        <v>1.474176844826831</v>
       </c>
       <c r="J471" t="n">
-        <v>1.4779040371660959</v>
+        <v>1.321211182268539</v>
       </c>
       <c r="K471" t="n">
-        <v>1.3767956742269998</v>
+        <v>1.4362669780121193</v>
       </c>
       <c r="L471" t="n">
-        <v>1.4779040371660959</v>
+        <v>1.491172815884256</v>
       </c>
     </row>
     <row r="472">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>2.832594622773335</v>
+        <v>2.8612066896700354</v>
       </c>
       <c r="C473" t="n">
-        <v>2.65578104494673</v>
+        <v>2.676145514242956</v>
       </c>
       <c r="D473" t="n">
-        <v>2.832594622773335</v>
+        <v>2.780939054628874</v>
       </c>
       <c r="E473" t="n">
-        <v>2.65578104494673</v>
+        <v>2.904875898284333</v>
       </c>
       <c r="F473" t="n">
-        <v>2.832594622773335</v>
+        <v>2.607225602417404</v>
       </c>
       <c r="G473" t="n">
-        <v>2.65578104494673</v>
+        <v>2.9664505746179004</v>
       </c>
       <c r="H473" t="n">
-        <v>2.832594622773335</v>
+        <v>2.8872492262078917</v>
       </c>
       <c r="I473" t="n">
-        <v>2.65578104494673</v>
+        <v>2.9906893282227274</v>
       </c>
       <c r="J473" t="n">
-        <v>2.832594622773335</v>
+        <v>2.8543411663495832</v>
       </c>
       <c r="K473" t="n">
-        <v>2.65578104494673</v>
+        <v>2.901333366512629</v>
       </c>
       <c r="L473" t="n">
-        <v>2.832594622773335</v>
+        <v>2.904875898284333</v>
       </c>
     </row>
     <row r="474">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>1.1969057923105197</v>
+        <v>1.160998618541204</v>
       </c>
       <c r="C475" t="n">
-        <v>1.1221936560385781</v>
+        <v>1.08590590685695</v>
       </c>
       <c r="D475" t="n">
-        <v>1.1969057923105197</v>
+        <v>1.1284282300639197</v>
       </c>
       <c r="E475" t="n">
-        <v>1.1221936560385781</v>
+        <v>1.178718376801602</v>
       </c>
       <c r="F475" t="n">
-        <v>1.1969057923105197</v>
+        <v>1.0579401109190567</v>
       </c>
       <c r="G475" t="n">
-        <v>1.1221936560385781</v>
+        <v>1.203703679128236</v>
       </c>
       <c r="H475" t="n">
-        <v>1.1969057923105197</v>
+        <v>1.1715659603040065</v>
       </c>
       <c r="I475" t="n">
-        <v>1.1221936560385781</v>
+        <v>1.2135390956159595</v>
       </c>
       <c r="J475" t="n">
-        <v>1.1969057923105197</v>
+        <v>1.15821277887454</v>
       </c>
       <c r="K475" t="n">
-        <v>1.1221936560385781</v>
+        <v>1.1772809152900183</v>
       </c>
       <c r="L475" t="n">
-        <v>1.1969057923105197</v>
+        <v>1.178718376801602</v>
       </c>
     </row>
     <row r="476">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>6.055017429475238</v>
+        <v>6.176117778064744</v>
       </c>
       <c r="C482" t="n">
-        <v>5.748478375945345</v>
+        <v>5.9342419165044555</v>
       </c>
       <c r="D482" t="n">
-        <v>6.055017429475238</v>
+        <v>6.635529057896036</v>
       </c>
       <c r="E482" t="n">
-        <v>5.748478375945345</v>
+        <v>6.08439325459471</v>
       </c>
       <c r="F482" t="n">
-        <v>6.055017429475238</v>
+        <v>6.683641650997645</v>
       </c>
       <c r="G482" t="n">
-        <v>5.748478375945345</v>
+        <v>6.221274994126759</v>
       </c>
       <c r="H482" t="n">
-        <v>6.055017429475238</v>
+        <v>6.4669688896918345</v>
       </c>
       <c r="I482" t="n">
-        <v>5.748478375945345</v>
+        <v>6.7530078954432895</v>
       </c>
       <c r="J482" t="n">
-        <v>6.055017429475238</v>
+        <v>6.231789822667583</v>
       </c>
       <c r="K482" t="n">
-        <v>5.748478375945345</v>
+        <v>6.720186477137024</v>
       </c>
       <c r="L482" t="n">
-        <v>6.055017429475238</v>
+        <v>6.08439325459471</v>
       </c>
     </row>
     <row r="483">
@@ -18457,37 +18457,37 @@
         <v>483.0</v>
       </c>
       <c r="B484" t="n">
-        <v>2.1953146351218034</v>
+        <v>2.129455196068149</v>
       </c>
       <c r="C484" t="n">
-        <v>2.0841754553772978</v>
+        <v>2.0460591487919246</v>
       </c>
       <c r="D484" t="n">
-        <v>2.1953146351218034</v>
+        <v>2.2878549824912002</v>
       </c>
       <c r="E484" t="n">
-        <v>2.0841754553772978</v>
+        <v>2.0978296231550395</v>
       </c>
       <c r="F484" t="n">
-        <v>2.1953146351218034</v>
+        <v>2.30444365761984</v>
       </c>
       <c r="G484" t="n">
-        <v>2.0841754553772978</v>
+        <v>2.1450248907920346</v>
       </c>
       <c r="H484" t="n">
-        <v>2.1953146351218034</v>
+        <v>2.2297373527874105</v>
       </c>
       <c r="I484" t="n">
-        <v>2.0841754553772978</v>
+        <v>2.3283603501076566</v>
       </c>
       <c r="J484" t="n">
-        <v>2.1953146351218034</v>
+        <v>2.1486502841340376</v>
       </c>
       <c r="K484" t="n">
-        <v>2.0841754553772978</v>
+        <v>2.317043898209211</v>
       </c>
       <c r="L484" t="n">
-        <v>2.1953146351218034</v>
+        <v>2.0978296231550395</v>
       </c>
     </row>
     <row r="485">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>3.958783435875172</v>
+        <v>3.9983712702339234</v>
       </c>
       <c r="C485" t="n">
-        <v>3.7583675424946357</v>
+        <v>3.8417826929790424</v>
       </c>
       <c r="D485" t="n">
-        <v>3.958783435875172</v>
+        <v>4.2957906084827515</v>
       </c>
       <c r="E485" t="n">
-        <v>3.7583675424946357</v>
+        <v>3.93898951739219</v>
       </c>
       <c r="F485" t="n">
-        <v>3.958783435875172</v>
+        <v>4.3269383321672255</v>
       </c>
       <c r="G485" t="n">
-        <v>3.7583675424946357</v>
+        <v>4.027605705494755</v>
       </c>
       <c r="H485" t="n">
-        <v>3.958783435875172</v>
+        <v>4.186666048674784</v>
       </c>
       <c r="I485" t="n">
-        <v>3.7583675424946357</v>
+        <v>4.371845506687203</v>
       </c>
       <c r="J485" t="n">
-        <v>3.958783435875172</v>
+        <v>4.034412924828944</v>
       </c>
       <c r="K485" t="n">
-        <v>3.7583675424946357</v>
+        <v>4.350597172260973</v>
       </c>
       <c r="L485" t="n">
-        <v>3.958783435875172</v>
+        <v>3.93898951739219</v>
       </c>
     </row>
     <row r="486">
@@ -18536,34 +18536,34 @@
         <v>2.5133856858253854</v>
       </c>
       <c r="C486" t="n">
-        <v>2.3861439597259664</v>
+        <v>2.4149537339038334</v>
       </c>
       <c r="D486" t="n">
-        <v>2.5133856858253854</v>
+        <v>2.7003441889056985</v>
       </c>
       <c r="E486" t="n">
-        <v>2.3861439597259664</v>
+        <v>2.47605817482041</v>
       </c>
       <c r="F486" t="n">
-        <v>2.5133856858253854</v>
+        <v>2.7199237220614627</v>
       </c>
       <c r="G486" t="n">
-        <v>2.3861439597259664</v>
+        <v>2.5317625213295742</v>
       </c>
       <c r="H486" t="n">
-        <v>2.5133856858253854</v>
+        <v>2.631748231187821</v>
       </c>
       <c r="I486" t="n">
-        <v>2.3861439597259664</v>
+        <v>2.7481524787228646</v>
       </c>
       <c r="J486" t="n">
-        <v>2.5133856858253854</v>
+        <v>2.536041555585896</v>
       </c>
       <c r="K486" t="n">
-        <v>2.3861439597259664</v>
+        <v>2.7347957251887207</v>
       </c>
       <c r="L486" t="n">
-        <v>2.5133856858253854</v>
+        <v>2.47605817482041</v>
       </c>
     </row>
     <row r="487">
@@ -18726,34 +18726,34 @@
         <v>3.4882121620710294</v>
       </c>
       <c r="C491" t="n">
-        <v>3.3116192344491204</v>
+        <v>3.3516029923102835</v>
       </c>
       <c r="D491" t="n">
-        <v>3.4882121620710294</v>
+        <v>3.7476832523717514</v>
       </c>
       <c r="E491" t="n">
-        <v>3.3116192344491204</v>
+        <v>3.4364070298138856</v>
       </c>
       <c r="F491" t="n">
-        <v>3.4882121620710294</v>
+        <v>3.7748567841009977</v>
       </c>
       <c r="G491" t="n">
-        <v>3.3116192344491204</v>
+        <v>3.513716525156888</v>
       </c>
       <c r="H491" t="n">
-        <v>3.4882121620710294</v>
+        <v>3.652482083951859</v>
       </c>
       <c r="I491" t="n">
-        <v>3.3116192344491204</v>
+        <v>3.8140341745276922</v>
       </c>
       <c r="J491" t="n">
-        <v>3.4882121620710294</v>
+        <v>3.519655199598697</v>
       </c>
       <c r="K491" t="n">
-        <v>3.3116192344491204</v>
+        <v>3.795496951853773</v>
       </c>
       <c r="L491" t="n">
-        <v>3.4882121620710294</v>
+        <v>3.4364070298138856</v>
       </c>
     </row>
     <row r="492">
@@ -18840,34 +18840,34 @@
         <v>2.304248284105734</v>
       </c>
       <c r="C494" t="n">
-        <v>2.1565935415023616</v>
+        <v>2.158434543503436</v>
       </c>
       <c r="D494" t="n">
-        <v>2.304248284105734</v>
+        <v>2.200615007631304</v>
       </c>
       <c r="E494" t="n">
-        <v>2.1565935415023616</v>
+        <v>2.3699948760201903</v>
       </c>
       <c r="F494" t="n">
-        <v>2.304248284105734</v>
+        <v>2.391566431258098</v>
       </c>
       <c r="G494" t="n">
-        <v>2.1565935415023616</v>
+        <v>2.303507584331469</v>
       </c>
       <c r="H494" t="n">
-        <v>2.304248284105734</v>
+        <v>2.118979288287617</v>
       </c>
       <c r="I494" t="n">
-        <v>2.1565935415023616</v>
+        <v>2.4571704963482914</v>
       </c>
       <c r="J494" t="n">
-        <v>2.304248284105734</v>
+        <v>2.4061669572016715</v>
       </c>
       <c r="K494" t="n">
-        <v>2.1565935415023616</v>
+        <v>2.159617248438105</v>
       </c>
       <c r="L494" t="n">
-        <v>2.304248284105734</v>
+        <v>2.3699948760201903</v>
       </c>
     </row>
     <row r="495">
@@ -18916,34 +18916,34 @@
         <v>6.026139109013974</v>
       </c>
       <c r="C496" t="n">
-        <v>5.639988004911538</v>
+        <v>5.644802648470122</v>
       </c>
       <c r="D496" t="n">
-        <v>6.026139109013974</v>
+        <v>5.755114261272713</v>
       </c>
       <c r="E496" t="n">
-        <v>5.639988004911538</v>
+        <v>6.198081564847831</v>
       </c>
       <c r="F496" t="n">
-        <v>6.026139109013974</v>
+        <v>6.254496142026027</v>
       </c>
       <c r="G496" t="n">
-        <v>5.639988004911538</v>
+        <v>6.024202008785443</v>
       </c>
       <c r="H496" t="n">
-        <v>6.026139109013974</v>
+        <v>5.541618083615623</v>
       </c>
       <c r="I496" t="n">
-        <v>5.639988004911538</v>
+        <v>6.42606585744137</v>
       </c>
       <c r="J496" t="n">
-        <v>6.026139109013974</v>
+        <v>6.292679874659201</v>
       </c>
       <c r="K496" t="n">
-        <v>5.639988004911538</v>
+        <v>5.647895693829163</v>
       </c>
       <c r="L496" t="n">
-        <v>6.026139109013974</v>
+        <v>6.198081564847831</v>
       </c>
     </row>
     <row r="497">
@@ -19369,37 +19369,37 @@
         <v>507.0</v>
       </c>
       <c r="B508" t="n">
-        <v>1.9560313562836702</v>
+        <v>1.975789248771384</v>
       </c>
       <c r="C508" t="n">
-        <v>1.8306901296335747</v>
+        <v>1.850760525524675</v>
       </c>
       <c r="D508" t="n">
-        <v>1.9560313562836702</v>
+        <v>1.8869283760583566</v>
       </c>
       <c r="E508" t="n">
-        <v>1.8306901296335747</v>
+        <v>2.0321639937778047</v>
       </c>
       <c r="F508" t="n">
-        <v>1.9560313562836702</v>
+        <v>2.050660632014372</v>
       </c>
       <c r="G508" t="n">
-        <v>1.8306901296335747</v>
+        <v>1.9751541320347656</v>
       </c>
       <c r="H508" t="n">
-        <v>1.9560313562836702</v>
+        <v>1.8169294190416336</v>
       </c>
       <c r="I508" t="n">
-        <v>1.8306901296335747</v>
+        <v>2.1069131666804473</v>
       </c>
       <c r="J508" t="n">
-        <v>1.9560313562836702</v>
+        <v>2.0631799262174777</v>
       </c>
       <c r="K508" t="n">
-        <v>1.8306901296335747</v>
+        <v>1.8517746418030754</v>
       </c>
       <c r="L508" t="n">
-        <v>1.9560313562836702</v>
+        <v>2.0321639937778047</v>
       </c>
     </row>
     <row r="509">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>3.5077012599888455</v>
+        <v>3.543132585847319</v>
       </c>
       <c r="C510" t="n">
-        <v>3.210093210488821</v>
+        <v>3.2488459951525845</v>
       </c>
       <c r="D510" t="n">
-        <v>3.5077012599888455</v>
+        <v>3.5688229708822647</v>
       </c>
       <c r="E510" t="n">
-        <v>3.210093210488821</v>
+        <v>3.327550432858211</v>
       </c>
       <c r="F510" t="n">
-        <v>3.5077012599888455</v>
+        <v>3.321935894618301</v>
       </c>
       <c r="G510" t="n">
-        <v>3.210093210488821</v>
+        <v>3.58833658663299</v>
       </c>
       <c r="H510" t="n">
-        <v>3.5077012599888455</v>
+        <v>3.1686706098661475</v>
       </c>
       <c r="I510" t="n">
-        <v>3.210093210488821</v>
+        <v>3.234612276998725</v>
       </c>
       <c r="J510" t="n">
-        <v>3.5077012599888455</v>
+        <v>3.297823574060367</v>
       </c>
       <c r="K510" t="n">
-        <v>3.210093210488821</v>
+        <v>3.4531275509165273</v>
       </c>
       <c r="L510" t="n">
-        <v>3.5077012599888455</v>
+        <v>3.327550432858211</v>
       </c>
     </row>
     <row r="511">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>0.927993038143256</v>
+        <v>0.9375599766808153</v>
       </c>
       <c r="C517" t="n">
-        <v>0.9584816940657559</v>
+        <v>0.9736803783983993</v>
       </c>
       <c r="D517" t="n">
-        <v>0.927993038143256</v>
+        <v>1.0646285448628428</v>
       </c>
       <c r="E517" t="n">
-        <v>0.9584816940657559</v>
+        <v>1.0195337818798658</v>
       </c>
       <c r="F517" t="n">
-        <v>0.927993038143256</v>
+        <v>1.059454166370658</v>
       </c>
       <c r="G517" t="n">
-        <v>0.9584816940657559</v>
+        <v>0.9592197784017621</v>
       </c>
       <c r="H517" t="n">
-        <v>0.927993038143256</v>
+        <v>1.0536927833429135</v>
       </c>
       <c r="I517" t="n">
-        <v>0.9584816940657559</v>
+        <v>0.9807995261871351</v>
       </c>
       <c r="J517" t="n">
-        <v>0.927993038143256</v>
+        <v>0.9355480452933049</v>
       </c>
       <c r="K517" t="n">
-        <v>0.9584816940657559</v>
+        <v>0.9824572151432599</v>
       </c>
       <c r="L517" t="n">
-        <v>0.927993038143256</v>
+        <v>1.0195337818798658</v>
       </c>
     </row>
     <row r="518">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>1.4495802691204367</v>
+        <v>1.464076071811641</v>
       </c>
       <c r="C518" t="n">
-        <v>1.3504096299762187</v>
+        <v>1.3576727959807897</v>
       </c>
       <c r="D518" t="n">
-        <v>1.4495802691204367</v>
+        <v>1.5024122272269993</v>
       </c>
       <c r="E518" t="n">
-        <v>1.3504096299762187</v>
+        <v>1.4622992803664605</v>
       </c>
       <c r="F518" t="n">
-        <v>1.4495802691204367</v>
+        <v>1.5146883797778723</v>
       </c>
       <c r="G518" t="n">
-        <v>1.3504096299762187</v>
+        <v>1.4712266253488986</v>
       </c>
       <c r="H518" t="n">
-        <v>1.4495802691204367</v>
+        <v>1.3204762815627697</v>
       </c>
       <c r="I518" t="n">
-        <v>1.3504096299762187</v>
+        <v>1.4456324017983557</v>
       </c>
       <c r="J518" t="n">
-        <v>1.4495802691204367</v>
+        <v>1.2956286088797413</v>
       </c>
       <c r="K518" t="n">
-        <v>1.3504096299762187</v>
+        <v>1.4084565826233877</v>
       </c>
       <c r="L518" t="n">
-        <v>1.4495802691204367</v>
+        <v>1.4622992803664605</v>
       </c>
     </row>
     <row r="519">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>3.1839931144527327</v>
+        <v>3.2161546610633667</v>
       </c>
       <c r="C521" t="n">
-        <v>3.288601302807668</v>
+        <v>3.3400601190957735</v>
       </c>
       <c r="D521" t="n">
-        <v>3.1839931144527327</v>
+        <v>3.6520437540257946</v>
       </c>
       <c r="E521" t="n">
-        <v>3.288601302807668</v>
+        <v>3.497353136076535</v>
       </c>
       <c r="F521" t="n">
-        <v>3.1839931144527327</v>
+        <v>3.6342938479721454</v>
       </c>
       <c r="G521" t="n">
-        <v>3.288601302807668</v>
+        <v>3.290455264752902</v>
       </c>
       <c r="H521" t="n">
-        <v>3.1839931144527327</v>
+        <v>3.614530313542646</v>
       </c>
       <c r="I521" t="n">
-        <v>3.288601302807668</v>
+        <v>3.364481255783583</v>
       </c>
       <c r="J521" t="n">
-        <v>3.1839931144527327</v>
+        <v>3.209253041251705</v>
       </c>
       <c r="K521" t="n">
-        <v>3.288601302807668</v>
+        <v>3.370167701659513</v>
       </c>
       <c r="L521" t="n">
-        <v>3.1839931144527327</v>
+        <v>3.497353136076535</v>
       </c>
     </row>
     <row r="522">
@@ -19901,37 +19901,37 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="n">
-        <v>1.5278619059015455</v>
+        <v>1.5432948544460054</v>
       </c>
       <c r="C522" t="n">
-        <v>1.5780588944903071</v>
+        <v>1.6027517761339583</v>
       </c>
       <c r="D522" t="n">
-        <v>1.5278619059015455</v>
+        <v>1.752459358386756</v>
       </c>
       <c r="E522" t="n">
-        <v>1.5780588944903071</v>
+        <v>1.678229957169704</v>
       </c>
       <c r="F522" t="n">
-        <v>1.5278619059015455</v>
+        <v>1.743941938807674</v>
       </c>
       <c r="G522" t="n">
-        <v>1.5780588944903071</v>
+        <v>1.5789485314113971</v>
       </c>
       <c r="H522" t="n">
-        <v>1.5278619059015455</v>
+        <v>1.7344582652269303</v>
       </c>
       <c r="I522" t="n">
-        <v>1.5780588944903071</v>
+        <v>1.6144704335251292</v>
       </c>
       <c r="J522" t="n">
-        <v>1.5278619059015455</v>
+        <v>1.5399830627365987</v>
       </c>
       <c r="K522" t="n">
-        <v>1.5780588944903071</v>
+        <v>1.6171991153160439</v>
       </c>
       <c r="L522" t="n">
-        <v>1.5278619059015455</v>
+        <v>1.678229957169704</v>
       </c>
     </row>
     <row r="523">
@@ -19942,34 +19942,34 @@
         <v>4.012697187902215</v>
       </c>
       <c r="C523" t="n">
-        <v>4.089034111224259</v>
+        <v>4.128517674105647</v>
       </c>
       <c r="D523" t="n">
-        <v>4.012697187902215</v>
+        <v>3.762041036330142</v>
       </c>
       <c r="E523" t="n">
-        <v>4.089034111224259</v>
+        <v>3.8614875653407426</v>
       </c>
       <c r="F523" t="n">
-        <v>4.012697187902215</v>
+        <v>3.6833288018836727</v>
       </c>
       <c r="G523" t="n">
-        <v>4.089034111224259</v>
+        <v>3.7599807710209476</v>
       </c>
       <c r="H523" t="n">
-        <v>4.012697187902215</v>
+        <v>4.19152923500729</v>
       </c>
       <c r="I523" t="n">
-        <v>4.089034111224259</v>
+        <v>4.013987482721077</v>
       </c>
       <c r="J523" t="n">
-        <v>4.012697187902215</v>
+        <v>4.148474251803025</v>
       </c>
       <c r="K523" t="n">
-        <v>4.089034111224259</v>
+        <v>3.833458901043874</v>
       </c>
       <c r="L523" t="n">
-        <v>4.012697187902215</v>
+        <v>3.8614875653407426</v>
       </c>
     </row>
     <row r="524">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>3.48152221105192</v>
+        <v>3.5163374331624393</v>
       </c>
       <c r="C524" t="n">
-        <v>3.4898357188553377</v>
+        <v>3.4910248684015137</v>
       </c>
       <c r="D524" t="n">
-        <v>3.48152221105192</v>
+        <v>3.5484990559037386</v>
       </c>
       <c r="E524" t="n">
-        <v>3.4898357188553377</v>
+        <v>3.535564068408979</v>
       </c>
       <c r="F524" t="n">
-        <v>3.48152221105192</v>
+        <v>3.552831777814461</v>
       </c>
       <c r="G524" t="n">
-        <v>3.4898357188553377</v>
+        <v>3.1220699849058353</v>
       </c>
       <c r="H524" t="n">
-        <v>3.48152221105192</v>
+        <v>3.278613213168879</v>
       </c>
       <c r="I524" t="n">
-        <v>3.4898357188553377</v>
+        <v>3.249323537773366</v>
       </c>
       <c r="J524" t="n">
-        <v>3.48152221105192</v>
+        <v>3.1870418690354922</v>
       </c>
       <c r="K524" t="n">
-        <v>3.4898357188553377</v>
+        <v>3.201066256450014</v>
       </c>
       <c r="L524" t="n">
-        <v>3.48152221105192</v>
+        <v>3.535564068408979</v>
       </c>
     </row>
     <row r="525">
@@ -20246,34 +20246,34 @@
         <v>1.6470052405314386</v>
       </c>
       <c r="C531" t="n">
-        <v>1.6783376104736574</v>
+        <v>1.6945435766693013</v>
       </c>
       <c r="D531" t="n">
-        <v>1.6470052405314386</v>
+        <v>1.5441238179174213</v>
       </c>
       <c r="E531" t="n">
-        <v>1.6783376104736574</v>
+        <v>1.5849414891154683</v>
       </c>
       <c r="F531" t="n">
-        <v>1.6470052405314386</v>
+        <v>1.5118165052654424</v>
       </c>
       <c r="G531" t="n">
-        <v>1.6783376104736574</v>
+        <v>1.5432781852663062</v>
       </c>
       <c r="H531" t="n">
-        <v>1.6470052405314386</v>
+        <v>1.720406572594326</v>
       </c>
       <c r="I531" t="n">
-        <v>1.6783376104736574</v>
+        <v>1.6475348400075471</v>
       </c>
       <c r="J531" t="n">
-        <v>1.6470052405314386</v>
+        <v>1.7027347225523621</v>
       </c>
       <c r="K531" t="n">
-        <v>1.6783376104736574</v>
+        <v>1.573437168001676</v>
       </c>
       <c r="L531" t="n">
-        <v>1.6470052405314386</v>
+        <v>1.5849414891154683</v>
       </c>
     </row>
     <row r="532">
@@ -20360,34 +20360,34 @@
         <v>1.357640615480693</v>
       </c>
       <c r="C534" t="n">
-        <v>1.3834681580810413</v>
+        <v>1.3968268756970303</v>
       </c>
       <c r="D534" t="n">
-        <v>1.357640615480693</v>
+        <v>1.2728345720742043</v>
       </c>
       <c r="E534" t="n">
-        <v>1.3834681580810413</v>
+        <v>1.3064809302545366</v>
       </c>
       <c r="F534" t="n">
-        <v>1.357640615480693</v>
+        <v>1.2462033757950672</v>
       </c>
       <c r="G534" t="n">
-        <v>1.3834681580810413</v>
+        <v>1.2721375097912937</v>
       </c>
       <c r="H534" t="n">
-        <v>1.357640615480693</v>
+        <v>1.4181459661538982</v>
       </c>
       <c r="I534" t="n">
-        <v>1.3834681580810413</v>
+        <v>1.3580771688935227</v>
       </c>
       <c r="J534" t="n">
-        <v>1.357640615480693</v>
+        <v>1.4035789078487815</v>
       </c>
       <c r="K534" t="n">
-        <v>1.3834681580810413</v>
+        <v>1.2969978192034892</v>
       </c>
       <c r="L534" t="n">
-        <v>1.357640615480693</v>
+        <v>1.3064809302545366</v>
       </c>
     </row>
     <row r="535">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>2.6098920539005364</v>
+        <v>2.583793133361531</v>
       </c>
       <c r="C537" t="n">
-        <v>2.4313406010446146</v>
+        <v>2.3960132367071605</v>
       </c>
       <c r="D537" t="n">
-        <v>2.6098920539005364</v>
+        <v>2.651448562631074</v>
       </c>
       <c r="E537" t="n">
-        <v>2.4313406010446146</v>
+        <v>2.5806574619139457</v>
       </c>
       <c r="F537" t="n">
-        <v>2.6098920539005364</v>
+        <v>2.6731134469056976</v>
       </c>
       <c r="G537" t="n">
-        <v>2.4313406010446146</v>
+        <v>2.5964123896180986</v>
       </c>
       <c r="H537" t="n">
-        <v>2.6098920539005364</v>
+        <v>2.330369039394831</v>
       </c>
       <c r="I537" t="n">
-        <v>2.4313406010446146</v>
+        <v>2.551243849310092</v>
       </c>
       <c r="J537" t="n">
-        <v>2.6098920539005364</v>
+        <v>2.286518007816273</v>
       </c>
       <c r="K537" t="n">
-        <v>2.4313406010446146</v>
+        <v>2.48563617484512</v>
       </c>
       <c r="L537" t="n">
-        <v>2.6098920539005364</v>
+        <v>2.5806574619139457</v>
       </c>
     </row>
     <row r="538">
@@ -20854,34 +20854,34 @@
         <v>0.34849262082674165</v>
       </c>
       <c r="C547" t="n">
-        <v>0.38804089895683325</v>
+        <v>0.3859217433613115</v>
       </c>
       <c r="D547" t="n">
-        <v>0.34849262082674165</v>
+        <v>0.3863906640954732</v>
       </c>
       <c r="E547" t="n">
-        <v>0.38804089895683325</v>
+        <v>0.39974797773715987</v>
       </c>
       <c r="F547" t="n">
-        <v>0.34849262082674165</v>
+        <v>0.39650812509015937</v>
       </c>
       <c r="G547" t="n">
-        <v>0.38804089895683325</v>
+        <v>0.3419349637937009</v>
       </c>
       <c r="H547" t="n">
-        <v>0.34849262082674165</v>
+        <v>0.38780428814851314</v>
       </c>
       <c r="I547" t="n">
-        <v>0.38804089895683325</v>
+        <v>0.38244078958322697</v>
       </c>
       <c r="J547" t="n">
-        <v>0.34849262082674165</v>
+        <v>0.37171188354720053</v>
       </c>
       <c r="K547" t="n">
-        <v>0.38804089895683325</v>
+        <v>0.3815231151736656</v>
       </c>
       <c r="L547" t="n">
-        <v>0.34849262082674165</v>
+        <v>0.39974797773715987</v>
       </c>
     </row>
     <row r="548">
@@ -20930,34 +20930,34 @@
         <v>4.325884480622656</v>
       </c>
       <c r="C549" t="n">
-        <v>4.950516941507496</v>
+        <v>4.916736994895106</v>
       </c>
       <c r="D549" t="n">
-        <v>4.325884480622656</v>
+        <v>4.714226475799999</v>
       </c>
       <c r="E549" t="n">
-        <v>4.950516941507496</v>
+        <v>4.415908364325497</v>
       </c>
       <c r="F549" t="n">
-        <v>4.325884480622656</v>
+        <v>4.502204733568666</v>
       </c>
       <c r="G549" t="n">
-        <v>4.950516941507496</v>
+        <v>4.872174424113266</v>
       </c>
       <c r="H549" t="n">
-        <v>4.325884480622656</v>
+        <v>4.435340305364625</v>
       </c>
       <c r="I549" t="n">
-        <v>4.950516941507496</v>
+        <v>4.8988145069524425</v>
       </c>
       <c r="J549" t="n">
-        <v>4.325884480622656</v>
+        <v>4.535122990508528</v>
       </c>
       <c r="K549" t="n">
-        <v>4.950516941507496</v>
+        <v>4.922740337088927</v>
       </c>
       <c r="L549" t="n">
-        <v>4.325884480622656</v>
+        <v>4.415908364325497</v>
       </c>
     </row>
     <row r="550">
@@ -20968,34 +20968,34 @@
         <v>2.7627523458841248</v>
       </c>
       <c r="C550" t="n">
-        <v>2.7305234696127068</v>
+        <v>2.740360961813872</v>
       </c>
       <c r="D550" t="n">
-        <v>2.7627523458841248</v>
+        <v>2.6431382956927925</v>
       </c>
       <c r="E550" t="n">
-        <v>2.7305234696127068</v>
+        <v>2.358121771634653</v>
       </c>
       <c r="F550" t="n">
-        <v>2.7627523458841248</v>
+        <v>2.407195500042727</v>
       </c>
       <c r="G550" t="n">
-        <v>2.7305234696127068</v>
+        <v>2.6834792322800607</v>
       </c>
       <c r="H550" t="n">
-        <v>2.7627523458841248</v>
+        <v>2.454237289539623</v>
       </c>
       <c r="I550" t="n">
-        <v>2.7305234696127068</v>
+        <v>2.4763599906860403</v>
       </c>
       <c r="J550" t="n">
-        <v>2.7627523458841248</v>
+        <v>2.4177882200829286</v>
       </c>
       <c r="K550" t="n">
-        <v>2.7305234696127068</v>
+        <v>2.6559147929556595</v>
       </c>
       <c r="L550" t="n">
-        <v>2.7627523458841248</v>
+        <v>2.358121771634653</v>
       </c>
     </row>
     <row r="551">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>3.269137228586327</v>
+        <v>3.334519973158053</v>
       </c>
       <c r="C552" t="n">
-        <v>3.231001121522167</v>
+        <v>3.307494562241239</v>
       </c>
       <c r="D552" t="n">
-        <v>3.269137228586327</v>
+        <v>3.190151101287387</v>
       </c>
       <c r="E552" t="n">
-        <v>3.231001121522167</v>
+        <v>2.8461487539297536</v>
       </c>
       <c r="F552" t="n">
-        <v>3.269137228586327</v>
+        <v>2.9053785751541708</v>
       </c>
       <c r="G552" t="n">
-        <v>3.231001121522167</v>
+        <v>3.2388408287566444</v>
       </c>
       <c r="H552" t="n">
-        <v>3.269137228586327</v>
+        <v>2.9621559359205762</v>
       </c>
       <c r="I552" t="n">
-        <v>3.231001121522167</v>
+        <v>2.988857058423588</v>
       </c>
       <c r="J552" t="n">
-        <v>3.269137228586327</v>
+        <v>2.918163520064902</v>
       </c>
       <c r="K552" t="n">
-        <v>3.231001121522167</v>
+        <v>3.2055717687871357</v>
       </c>
       <c r="L552" t="n">
-        <v>3.269137228586327</v>
+        <v>2.8461487539297536</v>
       </c>
     </row>
     <row r="553">
@@ -21117,37 +21117,37 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="n">
-        <v>2.7012658663269433</v>
+        <v>2.674782867637463</v>
       </c>
       <c r="C554" t="n">
-        <v>2.953716385622106</v>
+        <v>2.903396786157915</v>
       </c>
       <c r="D554" t="n">
-        <v>2.7012658663269433</v>
+        <v>2.885779089275365</v>
       </c>
       <c r="E554" t="n">
-        <v>2.953716385622106</v>
+        <v>2.556862331242548</v>
       </c>
       <c r="F554" t="n">
-        <v>2.7012658663269433</v>
+        <v>2.8597498131427534</v>
       </c>
       <c r="G554" t="n">
-        <v>2.953716385622106</v>
+        <v>2.8998560581815838</v>
       </c>
       <c r="H554" t="n">
-        <v>2.7012658663269433</v>
+        <v>2.8528877856269936</v>
       </c>
       <c r="I554" t="n">
-        <v>2.953716385622106</v>
+        <v>2.605898048628576</v>
       </c>
       <c r="J554" t="n">
-        <v>2.7012658663269433</v>
+        <v>2.989166521394961</v>
       </c>
       <c r="K554" t="n">
-        <v>2.953716385622106</v>
+        <v>2.9649401097405788</v>
       </c>
       <c r="L554" t="n">
-        <v>2.7012658663269433</v>
+        <v>2.556862331242548</v>
       </c>
     </row>
     <row r="555">
@@ -21234,34 +21234,34 @@
         <v>0.7754555526797918</v>
       </c>
       <c r="C557" t="n">
-        <v>0.8060313514663903</v>
+        <v>0.8044614880234838</v>
       </c>
       <c r="D557" t="n">
-        <v>0.7754555526797918</v>
+        <v>0.8651374014088501</v>
       </c>
       <c r="E557" t="n">
-        <v>0.8060313514663903</v>
+        <v>0.75421019538076</v>
       </c>
       <c r="F557" t="n">
-        <v>0.7754555526797918</v>
+        <v>0.7400180676381509</v>
       </c>
       <c r="G557" t="n">
-        <v>0.8060313514663903</v>
+        <v>0.8352145671598771</v>
       </c>
       <c r="H557" t="n">
-        <v>0.7754555526797918</v>
+        <v>0.8581256893900925</v>
       </c>
       <c r="I557" t="n">
-        <v>0.8060313514663903</v>
+        <v>0.840313556590772</v>
       </c>
       <c r="J557" t="n">
-        <v>0.7754555526797918</v>
+        <v>0.8392887839062749</v>
       </c>
       <c r="K557" t="n">
-        <v>0.8060313514663903</v>
+        <v>0.8276810623675739</v>
       </c>
       <c r="L557" t="n">
-        <v>0.7754555526797918</v>
+        <v>0.75421019538076</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>4.566114882683007</v>
+        <v>4.657437180336667</v>
       </c>
       <c r="C558" t="n">
-        <v>4.746154356779156</v>
+        <v>4.831648740565106</v>
       </c>
       <c r="D558" t="n">
-        <v>4.566114882683007</v>
+        <v>5.196072277124117</v>
       </c>
       <c r="E558" t="n">
-        <v>4.746154356779156</v>
+        <v>4.52983616355098</v>
       </c>
       <c r="F558" t="n">
-        <v>4.566114882683007</v>
+        <v>4.444597308547503</v>
       </c>
       <c r="G558" t="n">
-        <v>4.746154356779156</v>
+        <v>5.016353761613318</v>
       </c>
       <c r="H558" t="n">
-        <v>4.566114882683007</v>
+        <v>5.153959472410653</v>
       </c>
       <c r="I558" t="n">
-        <v>4.746154356779156</v>
+        <v>5.046978628345557</v>
       </c>
       <c r="J558" t="n">
-        <v>4.566114882683007</v>
+        <v>5.040823776032389</v>
       </c>
       <c r="K558" t="n">
-        <v>4.746154356779156</v>
+        <v>4.971107035096671</v>
       </c>
       <c r="L558" t="n">
-        <v>4.566114882683007</v>
+        <v>4.52983616355098</v>
       </c>
     </row>
     <row r="559">
@@ -21652,34 +21652,34 @@
         <v>2.1782949500250446</v>
       </c>
       <c r="C568" t="n">
-        <v>2.1507267461006427</v>
+        <v>2.155919714823542</v>
       </c>
       <c r="D568" t="n">
-        <v>2.1782949500250446</v>
+        <v>1.9141883734018732</v>
       </c>
       <c r="E568" t="n">
-        <v>2.1507267461006427</v>
+        <v>2.140400198156523</v>
       </c>
       <c r="F568" t="n">
-        <v>2.1782949500250446</v>
+        <v>2.085357760929917</v>
       </c>
       <c r="G568" t="n">
-        <v>2.1507267461006427</v>
+        <v>1.9550943180313236</v>
       </c>
       <c r="H568" t="n">
         <v>2.1782949500250446</v>
       </c>
       <c r="I568" t="n">
-        <v>2.1507267461006427</v>
+        <v>2.1650771424097397</v>
       </c>
       <c r="J568" t="n">
-        <v>2.1782949500250446</v>
+        <v>2.2244682845162207</v>
       </c>
       <c r="K568" t="n">
-        <v>2.1507267461006427</v>
+        <v>2.2426443293529306</v>
       </c>
       <c r="L568" t="n">
-        <v>2.1782949500250446</v>
+        <v>2.140400198156523</v>
       </c>
     </row>
     <row r="569">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>1.1695636971874135</v>
+        <v>1.1000846656713297</v>
       </c>
       <c r="C576" t="n">
-        <v>1.3022902676309869</v>
+        <v>1.21823696299152</v>
       </c>
       <c r="D576" t="n">
-        <v>1.1695636971874135</v>
+        <v>1.2197172023947038</v>
       </c>
       <c r="E576" t="n">
-        <v>1.3022902676309869</v>
+        <v>1.2618821580741741</v>
       </c>
       <c r="F576" t="n">
-        <v>1.1695636971874135</v>
+        <v>1.2516549337285203</v>
       </c>
       <c r="G576" t="n">
-        <v>1.3022902676309869</v>
+        <v>1.079384147170634</v>
       </c>
       <c r="H576" t="n">
-        <v>1.1695636971874135</v>
+        <v>1.2241795813687097</v>
       </c>
       <c r="I576" t="n">
-        <v>1.3022902676309869</v>
+        <v>1.2072486560824756</v>
       </c>
       <c r="J576" t="n">
-        <v>1.1695636971874135</v>
+        <v>1.1733807796790634</v>
       </c>
       <c r="K576" t="n">
-        <v>1.3022902676309869</v>
+        <v>1.204351838515313</v>
       </c>
       <c r="L576" t="n">
-        <v>1.1695636971874135</v>
+        <v>1.2618821580741741</v>
       </c>
     </row>
     <row r="577">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>2.3018285337103124</v>
+        <v>2.3250793269801133</v>
       </c>
       <c r="C577" t="n">
-        <v>2.563048856949853</v>
+        <v>2.574799618978491</v>
       </c>
       <c r="D577" t="n">
-        <v>2.3018285337103124</v>
+        <v>2.5779281727550534</v>
       </c>
       <c r="E577" t="n">
-        <v>2.563048856949853</v>
+        <v>2.6670457378231403</v>
       </c>
       <c r="F577" t="n">
-        <v>2.3018285337103124</v>
+        <v>2.6454300307412164</v>
       </c>
       <c r="G577" t="n">
-        <v>2.563048856949853</v>
+        <v>2.2813278330036337</v>
       </c>
       <c r="H577" t="n">
-        <v>2.3018285337103124</v>
+        <v>2.58735961510252</v>
       </c>
       <c r="I577" t="n">
-        <v>2.563048856949853</v>
+        <v>2.551575329039734</v>
       </c>
       <c r="J577" t="n">
-        <v>2.3018285337103124</v>
+        <v>2.4799940210444653</v>
       </c>
       <c r="K577" t="n">
-        <v>2.563048856949853</v>
+        <v>2.5454527724314815</v>
       </c>
       <c r="L577" t="n">
-        <v>2.3018285337103124</v>
+        <v>2.6670457378231403</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>3.868213645666978</v>
+        <v>3.829914500660374</v>
       </c>
       <c r="C578" t="n">
-        <v>3.8526991940858237</v>
+        <v>3.8113000953687375</v>
       </c>
       <c r="D578" t="n">
-        <v>3.868213645666978</v>
+        <v>3.5343098329571245</v>
       </c>
       <c r="E578" t="n">
-        <v>3.8526991940858237</v>
+        <v>3.911097227228034</v>
       </c>
       <c r="F578" t="n">
-        <v>3.868213645666978</v>
+        <v>3.8252438729721105</v>
       </c>
       <c r="G578" t="n">
-        <v>3.8526991940858237</v>
+        <v>3.7632873160917693</v>
       </c>
       <c r="H578" t="n">
-        <v>3.868213645666978</v>
+        <v>3.943054652315931</v>
       </c>
       <c r="I578" t="n">
-        <v>3.8526991940858237</v>
+        <v>3.6665107852168104</v>
       </c>
       <c r="J578" t="n">
-        <v>3.868213645666978</v>
+        <v>3.7723391201069267</v>
       </c>
       <c r="K578" t="n">
-        <v>3.8526991940858237</v>
+        <v>3.37279567343487</v>
       </c>
       <c r="L578" t="n">
-        <v>3.868213645666978</v>
+        <v>3.911097227228034</v>
       </c>
     </row>
     <row r="579">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>4.619882846461222</v>
+        <v>4.527485189531997</v>
       </c>
       <c r="C584" t="n">
-        <v>4.5614142389769015</v>
+        <v>4.48097929923191</v>
       </c>
       <c r="D584" t="n">
-        <v>4.619882846461222</v>
+        <v>3.9785518992511477</v>
       </c>
       <c r="E584" t="n">
-        <v>4.5614142389769015</v>
+        <v>4.44872270245753</v>
       </c>
       <c r="F584" t="n">
-        <v>4.619882846461222</v>
+        <v>4.334319545375274</v>
       </c>
       <c r="G584" t="n">
-        <v>4.5614142389769015</v>
+        <v>4.063573011048484</v>
       </c>
       <c r="H584" t="n">
-        <v>4.619882846461222</v>
+        <v>4.527485189531997</v>
       </c>
       <c r="I584" t="n">
-        <v>4.5614142389769015</v>
+        <v>4.500012588442925</v>
       </c>
       <c r="J584" t="n">
-        <v>4.619882846461222</v>
+        <v>4.6234543272549224</v>
       </c>
       <c r="K584" t="n">
-        <v>4.5614142389769015</v>
+        <v>4.6612323948217265</v>
       </c>
       <c r="L584" t="n">
-        <v>4.619882846461222</v>
+        <v>4.44872270245753</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>8.286597011339069</v>
+        <v>8.206144613170729</v>
       </c>
       <c r="C585" t="n">
-        <v>7.583527453601078</v>
+        <v>7.524556142390866</v>
       </c>
       <c r="D585" t="n">
-        <v>8.286597011339069</v>
+        <v>8.265645354296504</v>
       </c>
       <c r="E585" t="n">
-        <v>7.583527453601078</v>
+        <v>7.706841163304416</v>
       </c>
       <c r="F585" t="n">
-        <v>8.286597011339069</v>
+        <v>7.693837497306447</v>
       </c>
       <c r="G585" t="n">
-        <v>7.583527453601078</v>
+        <v>8.310840262727515</v>
       </c>
       <c r="H585" t="n">
-        <v>8.286597011339069</v>
+        <v>7.3388643032806895</v>
       </c>
       <c r="I585" t="n">
-        <v>7.583527453601078</v>
+        <v>7.491589848659651</v>
       </c>
       <c r="J585" t="n">
-        <v>8.286597011339069</v>
+        <v>7.637991664653189</v>
       </c>
       <c r="K585" t="n">
-        <v>7.583527453601078</v>
+        <v>7.997686613177785</v>
       </c>
       <c r="L585" t="n">
-        <v>8.286597011339069</v>
+        <v>7.706841163304416</v>
       </c>
     </row>
     <row r="586">
@@ -22716,34 +22716,34 @@
         <v>0.8564543776394219</v>
       </c>
       <c r="C596" t="n">
-        <v>0.9061413415614508</v>
+        <v>0.9103066787229652</v>
       </c>
       <c r="D596" t="n">
-        <v>0.8564543776394219</v>
+        <v>0.8527021129149176</v>
       </c>
       <c r="E596" t="n">
-        <v>0.9061413415614508</v>
+        <v>0.9100140609716176</v>
       </c>
       <c r="F596" t="n">
-        <v>0.8564543776394219</v>
+        <v>0.9505702429602804</v>
       </c>
       <c r="G596" t="n">
-        <v>0.9061413415614508</v>
+        <v>0.9786511991876953</v>
       </c>
       <c r="H596" t="n">
-        <v>0.8564543776394219</v>
+        <v>0.9362802520292074</v>
       </c>
       <c r="I596" t="n">
-        <v>0.9061413415614508</v>
+        <v>0.9494110108950099</v>
       </c>
       <c r="J596" t="n">
-        <v>0.8564543776394219</v>
+        <v>0.8531693473741614</v>
       </c>
       <c r="K596" t="n">
-        <v>0.9061413415614508</v>
+        <v>0.9448022203166351</v>
       </c>
       <c r="L596" t="n">
-        <v>0.8564543776394219</v>
+        <v>0.9100140609716176</v>
       </c>
     </row>
     <row r="597">
@@ -22789,37 +22789,37 @@
         <v>597.0</v>
       </c>
       <c r="B598" t="n">
-        <v>0.5166568440459666</v>
+        <v>0.5220953371411873</v>
       </c>
       <c r="C598" t="n">
-        <v>0.5336312954703429</v>
+        <v>0.5422095631976152</v>
       </c>
       <c r="D598" t="n">
-        <v>0.5166568440459666</v>
+        <v>0.5928555109915148</v>
       </c>
       <c r="E598" t="n">
-        <v>0.5336312954703429</v>
+        <v>0.5677437676700372</v>
       </c>
       <c r="F598" t="n">
-        <v>0.5166568440459666</v>
+        <v>0.5899740751894691</v>
       </c>
       <c r="G598" t="n">
-        <v>0.5336312954703429</v>
+        <v>0.5341569457456242</v>
       </c>
       <c r="H598" t="n">
-        <v>0.5166568440459666</v>
+        <v>0.5867657564801756</v>
       </c>
       <c r="I598" t="n">
-        <v>0.5336312954703429</v>
+        <v>0.5461739750297804</v>
       </c>
       <c r="J598" t="n">
-        <v>0.5166568440459666</v>
+        <v>0.5209749608215988</v>
       </c>
       <c r="K598" t="n">
-        <v>0.5336312954703429</v>
+        <v>0.5470970857597063</v>
       </c>
       <c r="L598" t="n">
-        <v>0.5166568440459666</v>
+        <v>0.5677437676700372</v>
       </c>
     </row>
     <row r="599">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>2.151812021607889</v>
+        <v>2.173547496573625</v>
       </c>
       <c r="C606" t="n">
-        <v>2.0428751889462697</v>
+        <v>2.0884246585275075</v>
       </c>
       <c r="D606" t="n">
-        <v>2.151812021607889</v>
+        <v>2.335227094187757</v>
       </c>
       <c r="E606" t="n">
-        <v>2.0428751889462697</v>
+        <v>2.1412670875000193</v>
       </c>
       <c r="F606" t="n">
-        <v>2.151812021607889</v>
+        <v>2.35215925287506</v>
       </c>
       <c r="G606" t="n">
-        <v>2.0428751889462697</v>
+        <v>2.189439575943035</v>
       </c>
       <c r="H606" t="n">
-        <v>2.151812021607889</v>
+        <v>2.2759060862685923</v>
       </c>
       <c r="I606" t="n">
-        <v>2.0428751889462697</v>
+        <v>2.3765711621649097</v>
       </c>
       <c r="J606" t="n">
-        <v>2.151812021607889</v>
+        <v>2.193140036341148</v>
       </c>
       <c r="K606" t="n">
-        <v>2.0428751889462697</v>
+        <v>2.365020392869844</v>
       </c>
       <c r="L606" t="n">
-        <v>2.151812021607889</v>
+        <v>2.1412670875000193</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>3.0597680991077203</v>
+        <v>3.091640683473426</v>
       </c>
       <c r="C607" t="n">
-        <v>2.904865420784178</v>
+        <v>2.970562478552228</v>
       </c>
       <c r="D607" t="n">
-        <v>3.0597680991077203</v>
+        <v>3.3216127556086947</v>
       </c>
       <c r="E607" t="n">
-        <v>2.904865420784178</v>
+        <v>3.045725226770295</v>
       </c>
       <c r="F607" t="n">
-        <v>3.0597680991077203</v>
+        <v>3.345696954706812</v>
       </c>
       <c r="G607" t="n">
-        <v>2.904865420784178</v>
+        <v>3.114245480102397</v>
       </c>
       <c r="H607" t="n">
-        <v>3.0597680991077203</v>
+        <v>3.2372349162669507</v>
       </c>
       <c r="I607" t="n">
-        <v>2.904865420784178</v>
+        <v>3.3804203053769664</v>
       </c>
       <c r="J607" t="n">
-        <v>3.0597680991077203</v>
+        <v>3.119508992370899</v>
       </c>
       <c r="K607" t="n">
-        <v>2.904865420784178</v>
+        <v>3.3639905616817702</v>
       </c>
       <c r="L607" t="n">
-        <v>3.0597680991077203</v>
+        <v>3.045725226770295</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>1.5878959236980899</v>
+        <v>1.6042659847671425</v>
       </c>
       <c r="C608" t="n">
-        <v>1.4887777663634363</v>
+        <v>1.5005029990623502</v>
       </c>
       <c r="D608" t="n">
-        <v>1.5878959236980899</v>
+        <v>1.5592602754490614</v>
       </c>
       <c r="E608" t="n">
-        <v>1.4887777663634363</v>
+        <v>1.628751117635924</v>
       </c>
       <c r="F608" t="n">
-        <v>1.5878959236980899</v>
+        <v>1.4618599081545642</v>
       </c>
       <c r="G608" t="n">
-        <v>1.4887777663634363</v>
+        <v>1.6632757673655738</v>
       </c>
       <c r="H608" t="n">
-        <v>1.5878959236980899</v>
+        <v>1.6188679202636502</v>
       </c>
       <c r="I608" t="n">
-        <v>1.4887777663634363</v>
+        <v>1.6768663297187818</v>
       </c>
       <c r="J608" t="n">
-        <v>1.5878959236980899</v>
+        <v>1.600416516090031</v>
       </c>
       <c r="K608" t="n">
-        <v>1.4887777663634363</v>
+        <v>1.6267648356794966</v>
       </c>
       <c r="L608" t="n">
-        <v>1.5878959236980899</v>
+        <v>1.628751117635924</v>
       </c>
     </row>
     <row r="609">
@@ -23210,34 +23210,34 @@
         <v>4.474640662669683</v>
       </c>
       <c r="C609" t="n">
-        <v>4.187908577483172</v>
+        <v>4.191483635983112</v>
       </c>
       <c r="D609" t="n">
-        <v>4.474640662669683</v>
+        <v>4.273394262220201</v>
       </c>
       <c r="E609" t="n">
-        <v>4.187908577483172</v>
+        <v>4.6023145664072524</v>
       </c>
       <c r="F609" t="n">
-        <v>4.474640662669683</v>
+        <v>4.644204565367164</v>
       </c>
       <c r="G609" t="n">
-        <v>4.187908577483172</v>
+        <v>4.473202291053387</v>
       </c>
       <c r="H609" t="n">
-        <v>4.474640662669683</v>
+        <v>4.114865117673904</v>
       </c>
       <c r="I609" t="n">
-        <v>4.187908577483172</v>
+        <v>4.771601694970728</v>
       </c>
       <c r="J609" t="n">
-        <v>4.474640662669683</v>
+        <v>4.672557459251962</v>
       </c>
       <c r="K609" t="n">
-        <v>4.187908577483172</v>
+        <v>4.193780341433264</v>
       </c>
       <c r="L609" t="n">
-        <v>4.474640662669683</v>
+        <v>4.6023145664072524</v>
       </c>
     </row>
     <row r="610">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>1.3855065389600647</v>
+        <v>1.399938898740899</v>
       </c>
       <c r="C611" t="n">
-        <v>1.5149909594339797</v>
+        <v>1.5195917951320916</v>
       </c>
       <c r="D611" t="n">
-        <v>1.3855065389600647</v>
+        <v>1.5103709722120269</v>
       </c>
       <c r="E611" t="n">
-        <v>1.5149909594339797</v>
+        <v>1.3382211616277386</v>
       </c>
       <c r="F611" t="n">
-        <v>1.3855065389600647</v>
+        <v>1.4967476622211502</v>
       </c>
       <c r="G611" t="n">
-        <v>1.5149909594339797</v>
+        <v>1.5177386343077497</v>
       </c>
       <c r="H611" t="n">
-        <v>1.3855065389600647</v>
+        <v>1.4931561859335714</v>
       </c>
       <c r="I611" t="n">
-        <v>1.5149909594339797</v>
+        <v>1.3638856778121866</v>
       </c>
       <c r="J611" t="n">
-        <v>1.3855065389600647</v>
+        <v>1.564482313217062</v>
       </c>
       <c r="K611" t="n">
-        <v>1.5149909594339797</v>
+        <v>1.5518025938790077</v>
       </c>
       <c r="L611" t="n">
-        <v>1.3855065389600647</v>
+        <v>1.3382211616277386</v>
       </c>
     </row>
     <row r="612">
@@ -23476,34 +23476,34 @@
         <v>1.2303475651781008</v>
       </c>
       <c r="C616" t="n">
-        <v>1.3017258389993571</v>
+        <v>1.3077095931474068</v>
       </c>
       <c r="D616" t="n">
-        <v>1.2303475651781008</v>
+        <v>1.2249572141118572</v>
       </c>
       <c r="E616" t="n">
-        <v>1.3017258389993571</v>
+        <v>1.3072892303735124</v>
       </c>
       <c r="F616" t="n">
-        <v>1.2303475651781008</v>
+        <v>1.3655505938102919</v>
       </c>
       <c r="G616" t="n">
-        <v>1.3017258389993571</v>
+        <v>1.405890554728582</v>
       </c>
       <c r="H616" t="n">
-        <v>1.2303475651781008</v>
+        <v>1.3450221733742591</v>
       </c>
       <c r="I616" t="n">
-        <v>1.3017258389993571</v>
+        <v>1.3638852881195054</v>
       </c>
       <c r="J616" t="n">
-        <v>1.2303475651781008</v>
+        <v>1.2256284241544544</v>
       </c>
       <c r="K616" t="n">
-        <v>1.3017258389993571</v>
+        <v>1.357264486808234</v>
       </c>
       <c r="L616" t="n">
-        <v>1.2303475651781008</v>
+        <v>1.3072892303735124</v>
       </c>
     </row>
     <row r="617">
@@ -23514,34 +23514,34 @@
         <v>4.068322482796929</v>
       </c>
       <c r="C617" t="n">
-        <v>4.201984783333088</v>
+        <v>4.225058527477015</v>
       </c>
       <c r="D617" t="n">
-        <v>4.068322482796929</v>
+        <v>4.619706848223772</v>
       </c>
       <c r="E617" t="n">
-        <v>4.201984783333088</v>
+        <v>4.424028659453881</v>
       </c>
       <c r="F617" t="n">
-        <v>4.068322482796929</v>
+        <v>4.597253841613163</v>
       </c>
       <c r="G617" t="n">
-        <v>4.201984783333088</v>
+        <v>4.16231013212707</v>
       </c>
       <c r="H617" t="n">
-        <v>4.068322482796929</v>
+        <v>4.572253665958527</v>
       </c>
       <c r="I617" t="n">
-        <v>4.201984783333088</v>
+        <v>4.255950406106266</v>
       </c>
       <c r="J617" t="n">
-        <v>4.068322482796929</v>
+        <v>4.059592176575208</v>
       </c>
       <c r="K617" t="n">
-        <v>4.201984783333088</v>
+        <v>4.263143560056333</v>
       </c>
       <c r="L617" t="n">
-        <v>4.068322482796929</v>
+        <v>4.424028659453881</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>1.4874549235117906</v>
+        <v>1.5027895103521183</v>
       </c>
       <c r="C618" t="n">
-        <v>1.4814891084085264</v>
+        <v>1.4954855527810311</v>
       </c>
       <c r="D618" t="n">
-        <v>1.4874549235117906</v>
+        <v>1.386799559725552</v>
       </c>
       <c r="E618" t="n">
-        <v>1.4814891084085264</v>
+        <v>1.5346441509417783</v>
       </c>
       <c r="F618" t="n">
-        <v>1.4874549235117906</v>
+        <v>1.5009568401200615</v>
       </c>
       <c r="G618" t="n">
-        <v>1.4814891084085264</v>
+        <v>1.4766462024383962</v>
       </c>
       <c r="H618" t="n">
-        <v>1.4874549235117906</v>
+        <v>1.5471836693022207</v>
       </c>
       <c r="I618" t="n">
-        <v>1.4814891084085264</v>
+        <v>1.4386728337321026</v>
       </c>
       <c r="J618" t="n">
-        <v>1.4874549235117906</v>
+        <v>1.4801979673985266</v>
       </c>
       <c r="K618" t="n">
-        <v>1.4814891084085264</v>
+        <v>1.3234243108364367</v>
       </c>
       <c r="L618" t="n">
-        <v>1.4874549235117906</v>
+        <v>1.5346441509417783</v>
       </c>
     </row>
     <row r="619">
@@ -23704,34 +23704,34 @@
         <v>0.5263084689522655</v>
       </c>
       <c r="C622" t="n">
-        <v>0.5363208788991909</v>
+        <v>0.5414995735665918</v>
       </c>
       <c r="D622" t="n">
-        <v>0.5263084689522655</v>
+        <v>0.493432214106748</v>
       </c>
       <c r="E622" t="n">
-        <v>0.5363208788991909</v>
+        <v>0.5064756978223853</v>
       </c>
       <c r="F622" t="n">
-        <v>0.5263084689522655</v>
+        <v>0.4831082565142763</v>
       </c>
       <c r="G622" t="n">
-        <v>0.5363208788991909</v>
+        <v>0.4931619881141696</v>
       </c>
       <c r="H622" t="n">
-        <v>0.5263084689522655</v>
+        <v>0.5497642186647618</v>
       </c>
       <c r="I622" t="n">
-        <v>0.5363208788991909</v>
+        <v>0.5264777050193825</v>
       </c>
       <c r="J622" t="n">
-        <v>0.5263084689522655</v>
+        <v>0.5441170937435691</v>
       </c>
       <c r="K622" t="n">
-        <v>0.5363208788991909</v>
+        <v>0.5027994365193056</v>
       </c>
       <c r="L622" t="n">
-        <v>0.5263084689522655</v>
+        <v>0.5064756978223853</v>
       </c>
     </row>
     <row r="623">
